--- a/distances_26_11_03_12.xlsx
+++ b/distances_26_11_03_12.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\consumo-bca-dashboard-limpio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FE6D6C8-9563-45A3-8ED3-984C7C304A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB83028-C165-458A-A845-3DD4423BA840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report Distances" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Report Distances'!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="562">
   <si>
     <t>Grupo</t>
   </si>
@@ -700,18 +703,6 @@
     <t>209:33:00</t>
   </si>
   <si>
-    <t>AH373GQ JUAN PABLO</t>
-  </si>
-  <si>
-    <t>AH373GQ</t>
-  </si>
-  <si>
-    <t>861157040762433</t>
-  </si>
-  <si>
-    <t>26:48:36</t>
-  </si>
-  <si>
     <t>Fernandez Ezequiel</t>
   </si>
   <si>
@@ -1060,39 +1051,6 @@
     <t>145:37:48</t>
   </si>
   <si>
-    <t>AG031SO</t>
-  </si>
-  <si>
-    <t>865235052624422</t>
-  </si>
-  <si>
-    <t>52:53:24</t>
-  </si>
-  <si>
-    <t>AH373GL MARIO</t>
-  </si>
-  <si>
-    <t>OEV679</t>
-  </si>
-  <si>
-    <t>865235052666993</t>
-  </si>
-  <si>
-    <t>25:52:48</t>
-  </si>
-  <si>
-    <t>Virtus</t>
-  </si>
-  <si>
-    <t>AD433IS</t>
-  </si>
-  <si>
-    <t>865235052810013</t>
-  </si>
-  <si>
-    <t>25:31:48</t>
-  </si>
-  <si>
     <t>Pagniez Leonardo</t>
   </si>
   <si>
@@ -1117,39 +1075,6 @@
     <t>109:34:12</t>
   </si>
   <si>
-    <t>PARTNER</t>
-  </si>
-  <si>
-    <t>NZB489</t>
-  </si>
-  <si>
-    <t>865235053121428</t>
-  </si>
-  <si>
-    <t>19:25:12</t>
-  </si>
-  <si>
-    <t>SPRINTER / AH236OQ</t>
-  </si>
-  <si>
-    <t>AH236OQ</t>
-  </si>
-  <si>
-    <t>865235053122129</t>
-  </si>
-  <si>
-    <t>50:47:24</t>
-  </si>
-  <si>
-    <t>AF004RI / Saveiro</t>
-  </si>
-  <si>
-    <t>AF004RI</t>
-  </si>
-  <si>
-    <t>865235053122764</t>
-  </si>
-  <si>
     <t>25:50:24</t>
   </si>
   <si>
@@ -1460,16 +1385,347 @@
   </si>
   <si>
     <t>129:15:00</t>
+  </si>
+  <si>
+    <t>25:25:12</t>
+  </si>
+  <si>
+    <t>01:10:12</t>
+  </si>
+  <si>
+    <t>AG006FU</t>
+  </si>
+  <si>
+    <t>865235053122905</t>
+  </si>
+  <si>
+    <t>00:18:00</t>
+  </si>
+  <si>
+    <t>04:09:36</t>
+  </si>
+  <si>
+    <t>21:00:00</t>
+  </si>
+  <si>
+    <t>01:49:48</t>
+  </si>
+  <si>
+    <t>31:12:00</t>
+  </si>
+  <si>
+    <t>00:21:00</t>
+  </si>
+  <si>
+    <t>24:24:00</t>
+  </si>
+  <si>
+    <t>33:07:48</t>
+  </si>
+  <si>
+    <t>14:24:36</t>
+  </si>
+  <si>
+    <t>34:06:36</t>
+  </si>
+  <si>
+    <t>26:12:36</t>
+  </si>
+  <si>
+    <t>34:25:12</t>
+  </si>
+  <si>
+    <t>17:04:48</t>
+  </si>
+  <si>
+    <t>31:04:12</t>
+  </si>
+  <si>
+    <t>01:09:00</t>
+  </si>
+  <si>
+    <t>33:09:36</t>
+  </si>
+  <si>
+    <t>22:34:48</t>
+  </si>
+  <si>
+    <t>17:24:36</t>
+  </si>
+  <si>
+    <t>34:07:48</t>
+  </si>
+  <si>
+    <t>29:58:48</t>
+  </si>
+  <si>
+    <t>34:33:00</t>
+  </si>
+  <si>
+    <t>27:27:36</t>
+  </si>
+  <si>
+    <t>29:15:36</t>
+  </si>
+  <si>
+    <t>35:51:00</t>
+  </si>
+  <si>
+    <t>28:48:00</t>
+  </si>
+  <si>
+    <t>21:20:24</t>
+  </si>
+  <si>
+    <t>31:10:12</t>
+  </si>
+  <si>
+    <t>32:57:36</t>
+  </si>
+  <si>
+    <t>35:48:36</t>
+  </si>
+  <si>
+    <t>32:00:00</t>
+  </si>
+  <si>
+    <t>03:09:36</t>
+  </si>
+  <si>
+    <t>Fleitas Victor</t>
+  </si>
+  <si>
+    <t>28:36:36</t>
+  </si>
+  <si>
+    <t>24:09:00</t>
+  </si>
+  <si>
+    <t>17:45:00</t>
+  </si>
+  <si>
+    <t>32:30:36</t>
+  </si>
+  <si>
+    <t>31:45:00</t>
+  </si>
+  <si>
+    <t>00:10:12</t>
+  </si>
+  <si>
+    <t>28:27:00</t>
+  </si>
+  <si>
+    <t>21:26:24</t>
+  </si>
+  <si>
+    <t>31:31:12</t>
+  </si>
+  <si>
+    <t>22:21:00</t>
+  </si>
+  <si>
+    <t>31:00:36</t>
+  </si>
+  <si>
+    <t>24:06:36</t>
+  </si>
+  <si>
+    <t>00:53:24</t>
+  </si>
+  <si>
+    <t>18:30:36</t>
+  </si>
+  <si>
+    <t>28:19:48</t>
+  </si>
+  <si>
+    <t>25:44:24</t>
+  </si>
+  <si>
+    <t>31:12:36</t>
+  </si>
+  <si>
+    <t>32:27:00</t>
+  </si>
+  <si>
+    <t>37:01:12</t>
+  </si>
+  <si>
+    <t>33:57:36</t>
+  </si>
+  <si>
+    <t>27:25:48</t>
+  </si>
+  <si>
+    <t>31:28:12</t>
+  </si>
+  <si>
+    <t>27:54:36</t>
+  </si>
+  <si>
+    <t>29:28:12</t>
+  </si>
+  <si>
+    <t>23:06:36</t>
+  </si>
+  <si>
+    <t>21:51:00</t>
+  </si>
+  <si>
+    <t>28:38:24</t>
+  </si>
+  <si>
+    <t>00:09:36</t>
+  </si>
+  <si>
+    <t>19:38:24</t>
+  </si>
+  <si>
+    <t>20:26:24</t>
+  </si>
+  <si>
+    <t>26:28:48</t>
+  </si>
+  <si>
+    <t>30:49:12</t>
+  </si>
+  <si>
+    <t>27:07:12</t>
+  </si>
+  <si>
+    <t>26:09:00</t>
+  </si>
+  <si>
+    <t>28:58:48</t>
+  </si>
+  <si>
+    <t>Martinez Damian</t>
+  </si>
+  <si>
+    <t>34:16:12</t>
+  </si>
+  <si>
+    <t>21:06:36</t>
+  </si>
+  <si>
+    <t>30:01:48</t>
+  </si>
+  <si>
+    <t>26:04:48</t>
+  </si>
+  <si>
+    <t>26:55:12</t>
+  </si>
+  <si>
+    <t>14:48:00</t>
+  </si>
+  <si>
+    <t>23:03:00</t>
+  </si>
+  <si>
+    <t>37:27:36</t>
+  </si>
+  <si>
+    <t>31:34:48</t>
+  </si>
+  <si>
+    <t>38:56:24</t>
+  </si>
+  <si>
+    <t>07:19:48</t>
+  </si>
+  <si>
+    <t>43:16:12</t>
+  </si>
+  <si>
+    <t>33:00:36</t>
+  </si>
+  <si>
+    <t>31:44:24</t>
+  </si>
+  <si>
+    <t>22:21:36</t>
+  </si>
+  <si>
+    <t>26:02:24</t>
+  </si>
+  <si>
+    <t>00:20:24</t>
+  </si>
+  <si>
+    <t>22:52:12</t>
+  </si>
+  <si>
+    <t>35:04:48</t>
+  </si>
+  <si>
+    <t>21:31:48</t>
+  </si>
+  <si>
+    <t>27:16:12</t>
+  </si>
+  <si>
+    <t>31:02:24</t>
+  </si>
+  <si>
+    <t>32:44:24</t>
+  </si>
+  <si>
+    <t>34:45:00</t>
+  </si>
+  <si>
+    <t>37:33:36</t>
+  </si>
+  <si>
+    <t>36:10:12</t>
+  </si>
+  <si>
+    <t>04:24:00</t>
+  </si>
+  <si>
+    <t>25:10:48</t>
+  </si>
+  <si>
+    <t>37:05:24</t>
+  </si>
+  <si>
+    <t>16:55:48</t>
+  </si>
+  <si>
+    <t>18:51:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria </t>
+  </si>
+  <si>
+    <t>20:19:48</t>
+  </si>
+  <si>
+    <t>26:03:36</t>
+  </si>
+  <si>
+    <t>28:40:12</t>
+  </si>
+  <si>
+    <t>29:47:24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1495,13 +1751,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1836,13 +2104,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1877,7 +2147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1912,7 +2182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1947,7 +2217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1982,7 +2252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2017,7 +2287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2052,7 +2322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2087,7 +2357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2122,7 +2392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2157,7 +2427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2192,7 +2462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2227,7 +2497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2262,7 +2532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2297,7 +2567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2332,7 +2602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2367,7 +2637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2402,7 +2672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2437,7 +2707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2472,7 +2742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2507,7 +2777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2542,7 +2812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2577,7 +2847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -2612,7 +2882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2647,7 +2917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2682,7 +2952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2717,7 +2987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -2752,7 +3022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2787,7 +3057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -2822,7 +3092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +3127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -2892,7 +3162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2927,7 +3197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -2962,7 +3232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2997,7 +3267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -3032,7 +3302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -3067,7 +3337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -3102,7 +3372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -3137,7 +3407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -3172,7 +3442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -3207,7 +3477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -3242,7 +3512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -3277,7 +3547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -3312,7 +3582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -3347,7 +3617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -3382,7 +3652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -3417,7 +3687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -3452,7 +3722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -3487,7 +3757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -3522,7 +3792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -3557,7 +3827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -3592,7 +3862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -3627,7 +3897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -3662,7 +3932,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -3697,7 +3967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -3732,7 +4002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -3767,7 +4037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -3793,16 +4063,16 @@
         <v>229</v>
       </c>
       <c r="I56">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="J56">
-        <v>1162</v>
+        <v>8426</v>
       </c>
       <c r="K56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -3831,13 +4101,13 @@
         <v>41</v>
       </c>
       <c r="J57">
-        <v>8426</v>
+        <v>8807</v>
       </c>
       <c r="K57" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -3863,16 +4133,16 @@
         <v>237</v>
       </c>
       <c r="I58">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J58">
-        <v>8807</v>
+        <v>8944</v>
       </c>
       <c r="K58" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -3898,16 +4168,16 @@
         <v>241</v>
       </c>
       <c r="I59">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J59">
-        <v>8944</v>
+        <v>8862.33</v>
       </c>
       <c r="K59" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -3933,16 +4203,16 @@
         <v>245</v>
       </c>
       <c r="I60">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="J60">
-        <v>8862.33</v>
+        <v>1357.39</v>
       </c>
       <c r="K60" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -3968,16 +4238,16 @@
         <v>249</v>
       </c>
       <c r="I61">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="J61">
-        <v>1357.39</v>
+        <v>10486</v>
       </c>
       <c r="K61" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -4003,16 +4273,16 @@
         <v>253</v>
       </c>
       <c r="I62">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="J62">
-        <v>10486</v>
+        <v>4654</v>
       </c>
       <c r="K62" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -4038,16 +4308,16 @@
         <v>257</v>
       </c>
       <c r="I63">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J63">
-        <v>4654</v>
+        <v>11566</v>
       </c>
       <c r="K63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -4073,16 +4343,16 @@
         <v>261</v>
       </c>
       <c r="I64">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J64">
-        <v>11566</v>
+        <v>8665</v>
       </c>
       <c r="K64" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -4108,16 +4378,16 @@
         <v>265</v>
       </c>
       <c r="I65">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="J65">
-        <v>8665</v>
+        <v>0</v>
       </c>
       <c r="K65" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -4143,16 +4413,16 @@
         <v>269</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>8358.27</v>
       </c>
       <c r="K66" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -4178,16 +4448,16 @@
         <v>273</v>
       </c>
       <c r="I67">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J67">
-        <v>8358.27</v>
+        <v>8435</v>
       </c>
       <c r="K67" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -4213,16 +4483,16 @@
         <v>277</v>
       </c>
       <c r="I68">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J68">
-        <v>8435</v>
+        <v>7612.94</v>
       </c>
       <c r="K68" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -4248,16 +4518,16 @@
         <v>281</v>
       </c>
       <c r="I69">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J69">
-        <v>7612.94</v>
+        <v>8975.7000000000007</v>
       </c>
       <c r="K69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -4283,16 +4553,16 @@
         <v>285</v>
       </c>
       <c r="I70">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J70">
-        <v>8975.7000000000007</v>
+        <v>7458.19</v>
       </c>
       <c r="K70" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -4318,16 +4588,16 @@
         <v>289</v>
       </c>
       <c r="I71">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J71">
-        <v>7458.19</v>
+        <v>9718.57</v>
       </c>
       <c r="K71" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -4353,16 +4623,16 @@
         <v>293</v>
       </c>
       <c r="I72">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J72">
-        <v>9718.57</v>
+        <v>10106.209999999999</v>
       </c>
       <c r="K72" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -4388,16 +4658,16 @@
         <v>297</v>
       </c>
       <c r="I73">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J73">
-        <v>10106.209999999999</v>
+        <v>11793.36</v>
       </c>
       <c r="K73" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -4423,16 +4693,16 @@
         <v>301</v>
       </c>
       <c r="I74">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J74">
-        <v>11793.36</v>
+        <v>6145.05</v>
       </c>
       <c r="K74" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -4458,16 +4728,16 @@
         <v>305</v>
       </c>
       <c r="I75">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J75">
-        <v>6145.05</v>
+        <v>12398.51</v>
       </c>
       <c r="K75" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -4493,16 +4763,16 @@
         <v>309</v>
       </c>
       <c r="I76">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J76">
-        <v>12398.51</v>
+        <v>6150.09</v>
       </c>
       <c r="K76" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -4528,16 +4798,16 @@
         <v>313</v>
       </c>
       <c r="I77">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J77">
-        <v>6150.09</v>
+        <v>1781.5</v>
       </c>
       <c r="K77" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -4563,16 +4833,16 @@
         <v>317</v>
       </c>
       <c r="I78">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J78">
-        <v>1781.5</v>
+        <v>3553.77</v>
       </c>
       <c r="K78" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -4598,16 +4868,16 @@
         <v>321</v>
       </c>
       <c r="I79">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="J79">
-        <v>3553.77</v>
+        <v>10558.91</v>
       </c>
       <c r="K79" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -4633,16 +4903,16 @@
         <v>325</v>
       </c>
       <c r="I80">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="J80">
-        <v>10558.91</v>
+        <v>11720.09</v>
       </c>
       <c r="K80" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -4668,16 +4938,16 @@
         <v>329</v>
       </c>
       <c r="I81">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J81">
-        <v>11720.09</v>
+        <v>10436</v>
       </c>
       <c r="K81" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -4703,16 +4973,16 @@
         <v>333</v>
       </c>
       <c r="I82">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J82">
-        <v>10436</v>
+        <v>0</v>
       </c>
       <c r="K82" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -4738,16 +5008,16 @@
         <v>337</v>
       </c>
       <c r="I83">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>5374.81</v>
       </c>
       <c r="K83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -4773,16 +5043,16 @@
         <v>341</v>
       </c>
       <c r="I84">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J84">
-        <v>5374.81</v>
+        <v>7598</v>
       </c>
       <c r="K84" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -4808,16 +5078,16 @@
         <v>345</v>
       </c>
       <c r="I85">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J85">
-        <v>7598</v>
+        <v>4616.84</v>
       </c>
       <c r="K85" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -4825,13 +5095,13 @@
         <v>346</v>
       </c>
       <c r="C86" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D86" t="s">
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -4840,33 +5110,33 @@
         <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I86">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J86">
-        <v>1620.71</v>
+        <v>0</v>
       </c>
       <c r="K86" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C87" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
@@ -4875,33 +5145,33 @@
         <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I87">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J87">
-        <v>701.88</v>
+        <v>10029</v>
       </c>
       <c r="K87" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
       <c r="B88" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C88" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D88" t="s">
         <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -4910,33 +5180,33 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I88">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J88">
-        <v>824.15</v>
+        <v>6497.48</v>
       </c>
       <c r="K88" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C89" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -4945,33 +5215,33 @@
         <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I89">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J89">
-        <v>4616.84</v>
+        <v>2783</v>
       </c>
       <c r="K89" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
       <c r="B90" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C90" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
@@ -4980,33 +5250,33 @@
         <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I90">
         <v>33</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="K90" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C91" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
@@ -5015,33 +5285,33 @@
         <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I91">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="J91">
-        <v>286.97000000000003</v>
+        <v>10404</v>
       </c>
       <c r="K91" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C92" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -5050,33 +5320,33 @@
         <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I92">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J92">
-        <v>2871</v>
+        <v>10027.76</v>
       </c>
       <c r="K92" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C93" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -5085,33 +5355,33 @@
         <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I93">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J93">
-        <v>1569</v>
+        <v>10863</v>
       </c>
       <c r="K93" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C94" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D94" t="s">
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -5120,33 +5390,33 @@
         <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I94">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="J94">
-        <v>10029</v>
+        <v>4621.75</v>
       </c>
       <c r="K94" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
       <c r="B95" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C95" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
@@ -5155,33 +5425,33 @@
         <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I95">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J95">
-        <v>6497.48</v>
+        <v>9469.17</v>
       </c>
       <c r="K95" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C96" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
@@ -5190,33 +5460,33 @@
         <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I96">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J96">
-        <v>2783</v>
+        <v>8222</v>
       </c>
       <c r="K96" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C97" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F97" t="s">
         <v>14</v>
@@ -5225,33 +5495,33 @@
         <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I97">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="J97">
-        <v>4600</v>
+        <v>8711.7999999999993</v>
       </c>
       <c r="K97" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C98" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
@@ -5260,33 +5530,33 @@
         <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I98">
         <v>40</v>
       </c>
       <c r="J98">
-        <v>10404</v>
+        <v>10610.41</v>
       </c>
       <c r="K98" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C99" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D99" t="s">
         <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
@@ -5295,243 +5565,243 @@
         <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I99">
+        <v>42</v>
+      </c>
+      <c r="J99">
+        <v>8026</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>403</v>
+      </c>
+      <c r="C100" t="s">
+        <v>403</v>
+      </c>
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>404</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>405</v>
+      </c>
+      <c r="I100">
+        <v>28</v>
+      </c>
+      <c r="J100">
+        <v>2657</v>
+      </c>
+      <c r="K100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>406</v>
+      </c>
+      <c r="C101" t="s">
+        <v>407</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s">
+        <v>408</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>409</v>
+      </c>
+      <c r="I101">
+        <v>47</v>
+      </c>
+      <c r="J101">
+        <v>6711.65</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>410</v>
+      </c>
+      <c r="C102" t="s">
+        <v>411</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>412</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s">
+        <v>413</v>
+      </c>
+      <c r="I102">
+        <v>41</v>
+      </c>
+      <c r="J102">
+        <v>6087.13</v>
+      </c>
+      <c r="K102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>414</v>
+      </c>
+      <c r="C103" t="s">
+        <v>415</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s">
+        <v>416</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>417</v>
+      </c>
+      <c r="I103">
+        <v>45</v>
+      </c>
+      <c r="J103">
+        <v>10460</v>
+      </c>
+      <c r="K103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>418</v>
+      </c>
+      <c r="C104" t="s">
+        <v>419</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>420</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>421</v>
+      </c>
+      <c r="I104">
+        <v>49</v>
+      </c>
+      <c r="J104">
+        <v>5105.16</v>
+      </c>
+      <c r="K104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>422</v>
+      </c>
+      <c r="C105" t="s">
+        <v>423</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>424</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>425</v>
+      </c>
+      <c r="I105">
         <v>39</v>
       </c>
-      <c r="J99">
-        <v>10027.76</v>
-      </c>
-      <c r="K99" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" t="s">
-        <v>401</v>
-      </c>
-      <c r="C100" t="s">
-        <v>402</v>
-      </c>
-      <c r="D100" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" t="s">
-        <v>403</v>
-      </c>
-      <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" t="s">
-        <v>404</v>
-      </c>
-      <c r="I100">
-        <v>56</v>
-      </c>
-      <c r="J100">
-        <v>10863</v>
-      </c>
-      <c r="K100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" t="s">
-        <v>405</v>
-      </c>
-      <c r="C101" t="s">
-        <v>406</v>
-      </c>
-      <c r="D101" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" t="s">
-        <v>407</v>
-      </c>
-      <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" t="s">
-        <v>408</v>
-      </c>
-      <c r="I101">
-        <v>29</v>
-      </c>
-      <c r="J101">
-        <v>4621.75</v>
-      </c>
-      <c r="K101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" t="s">
-        <v>409</v>
-      </c>
-      <c r="C102" t="s">
-        <v>410</v>
-      </c>
-      <c r="D102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" t="s">
-        <v>411</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" t="s">
-        <v>412</v>
-      </c>
-      <c r="I102">
-        <v>46</v>
-      </c>
-      <c r="J102">
-        <v>9469.17</v>
-      </c>
-      <c r="K102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" t="s">
-        <v>413</v>
-      </c>
-      <c r="C103" t="s">
-        <v>414</v>
-      </c>
-      <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" t="s">
-        <v>415</v>
-      </c>
-      <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" t="s">
-        <v>416</v>
-      </c>
-      <c r="I103">
-        <v>34</v>
-      </c>
-      <c r="J103">
-        <v>8222</v>
-      </c>
-      <c r="K103" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" t="s">
-        <v>417</v>
-      </c>
-      <c r="C104" t="s">
-        <v>418</v>
-      </c>
-      <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" t="s">
-        <v>419</v>
-      </c>
-      <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" t="s">
-        <v>420</v>
-      </c>
-      <c r="I104">
-        <v>56</v>
-      </c>
-      <c r="J104">
-        <v>8711.7999999999993</v>
-      </c>
-      <c r="K104" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>11</v>
-      </c>
-      <c r="B105" t="s">
-        <v>421</v>
-      </c>
-      <c r="C105" t="s">
-        <v>422</v>
-      </c>
-      <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" t="s">
-        <v>423</v>
-      </c>
-      <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>14</v>
-      </c>
-      <c r="H105" t="s">
-        <v>424</v>
-      </c>
-      <c r="I105">
-        <v>40</v>
-      </c>
       <c r="J105">
-        <v>10610.41</v>
+        <v>11781.33</v>
       </c>
       <c r="K105" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C106" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D106" t="s">
         <v>14</v>
       </c>
       <c r="E106" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F106" t="s">
         <v>14</v>
@@ -5540,33 +5810,33 @@
         <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I106">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J106">
-        <v>8026</v>
+        <v>3786.69</v>
       </c>
       <c r="K106" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C107" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D107" t="s">
         <v>14</v>
       </c>
       <c r="E107" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F107" t="s">
         <v>14</v>
@@ -5575,33 +5845,33 @@
         <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I107">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J107">
-        <v>2657</v>
+        <v>10648</v>
       </c>
       <c r="K107" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C108" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D108" t="s">
         <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F108" t="s">
         <v>14</v>
@@ -5610,68 +5880,68 @@
         <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I108">
+        <v>77</v>
+      </c>
+      <c r="J108">
+        <v>11143.5</v>
+      </c>
+      <c r="K108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>438</v>
+      </c>
+      <c r="C109" t="s">
+        <v>439</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>440</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" t="s">
+        <v>441</v>
+      </c>
+      <c r="I109">
         <v>47</v>
       </c>
-      <c r="J108">
-        <v>6711.65</v>
-      </c>
-      <c r="K108" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" t="s">
-        <v>436</v>
-      </c>
-      <c r="C109" t="s">
-        <v>437</v>
-      </c>
-      <c r="D109" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" t="s">
-        <v>438</v>
-      </c>
-      <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" t="s">
-        <v>439</v>
-      </c>
-      <c r="I109">
-        <v>41</v>
-      </c>
       <c r="J109">
-        <v>6087.13</v>
+        <v>11728.17</v>
       </c>
       <c r="K109" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C110" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
@@ -5680,33 +5950,33 @@
         <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I110">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J110">
-        <v>10460</v>
+        <v>11273</v>
       </c>
       <c r="K110" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C111" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D111" t="s">
         <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
@@ -5715,33 +5985,33 @@
         <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I111">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J111">
-        <v>5105.16</v>
+        <v>5426</v>
       </c>
       <c r="K111" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C112" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D112" t="s">
         <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
@@ -5750,267 +6020,3736 @@
         <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I112">
         <v>39</v>
       </c>
       <c r="J112">
-        <v>11781.33</v>
+        <v>6472.98</v>
       </c>
       <c r="K112" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>11</v>
       </c>
       <c r="B113" t="s">
+        <v>371</v>
+      </c>
+      <c r="C113" t="s">
+        <v>372</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>373</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>454</v>
+      </c>
+      <c r="I113">
+        <v>7</v>
+      </c>
+      <c r="J113">
+        <v>903.81</v>
+      </c>
+      <c r="K113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>403</v>
+      </c>
+      <c r="C114" t="s">
+        <v>403</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
+        <v>404</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>455</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>44</v>
+      </c>
+      <c r="K114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1">
+        <v>9</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>459</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>102.14</v>
+      </c>
+      <c r="K116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>77</v>
+      </c>
+      <c r="C117" t="s">
+        <v>78</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s">
+        <v>79</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" t="s">
+        <v>460</v>
+      </c>
+      <c r="I117">
+        <v>9</v>
+      </c>
+      <c r="J117">
+        <v>1089</v>
+      </c>
+      <c r="K117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>406</v>
+      </c>
+      <c r="C118" t="s">
+        <v>407</v>
+      </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s">
+        <v>408</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" t="s">
+        <v>461</v>
+      </c>
+      <c r="I118">
+        <v>8</v>
+      </c>
+      <c r="J118">
+        <v>18.5</v>
+      </c>
+      <c r="K118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>318</v>
+      </c>
+      <c r="C119" t="s">
+        <v>319</v>
+      </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s">
+        <v>320</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s">
+        <v>462</v>
+      </c>
+      <c r="I119">
+        <v>3</v>
+      </c>
+      <c r="J119">
+        <v>1259.82</v>
+      </c>
+      <c r="K119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>278</v>
+      </c>
+      <c r="C120" t="s">
+        <v>279</v>
+      </c>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s">
+        <v>280</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" t="s">
+        <v>463</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0.38</v>
+      </c>
+      <c r="K120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" t="s">
+        <v>191</v>
+      </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s">
+        <v>192</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>464</v>
+      </c>
+      <c r="I121">
+        <v>6</v>
+      </c>
+      <c r="J121">
+        <v>1392</v>
+      </c>
+      <c r="K121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>438</v>
+      </c>
+      <c r="C122" t="s">
+        <v>439</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>440</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" t="s">
+        <v>465</v>
+      </c>
+      <c r="I122">
+        <v>6</v>
+      </c>
+      <c r="J122">
+        <v>1670.4</v>
+      </c>
+      <c r="K122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>426</v>
+      </c>
+      <c r="C123" t="s">
+        <v>427</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s">
+        <v>428</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" t="s">
+        <v>466</v>
+      </c>
+      <c r="I123">
+        <v>7</v>
+      </c>
+      <c r="J123">
+        <v>822.13</v>
+      </c>
+      <c r="K123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>182</v>
+      </c>
+      <c r="C124" t="s">
+        <v>183</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>184</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>467</v>
+      </c>
+      <c r="I124">
+        <v>6</v>
+      </c>
+      <c r="J124">
+        <v>2080.91</v>
+      </c>
+      <c r="K124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>186</v>
+      </c>
+      <c r="C125" t="s">
+        <v>187</v>
+      </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" t="s">
+        <v>188</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" t="s">
+        <v>468</v>
+      </c>
+      <c r="I125">
+        <v>11</v>
+      </c>
+      <c r="J125">
+        <v>1299.6300000000001</v>
+      </c>
+      <c r="K125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126" t="s">
+        <v>151</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>152</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" t="s">
+        <v>469</v>
+      </c>
+      <c r="I126">
+        <v>10</v>
+      </c>
+      <c r="J126">
+        <v>1468.28</v>
+      </c>
+      <c r="K126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>89</v>
+      </c>
+      <c r="C127" t="s">
+        <v>90</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
+        <v>91</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>470</v>
+      </c>
+      <c r="I127">
+        <v>13</v>
+      </c>
+      <c r="J127">
+        <v>956.5</v>
+      </c>
+      <c r="K127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>258</v>
+      </c>
+      <c r="C128" t="s">
+        <v>259</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>260</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>471</v>
+      </c>
+      <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <v>1595</v>
+      </c>
+      <c r="K128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>355</v>
+      </c>
+      <c r="C129" t="s">
+        <v>356</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" t="s">
+        <v>357</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s">
+        <v>472</v>
+      </c>
+      <c r="I129">
+        <v>3</v>
+      </c>
+      <c r="J129">
+        <v>1.69</v>
+      </c>
+      <c r="K129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>53</v>
+      </c>
+      <c r="C130" t="s">
+        <v>239</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>240</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>473</v>
+      </c>
+      <c r="I130">
+        <v>4</v>
+      </c>
+      <c r="J130">
+        <v>1781.91</v>
+      </c>
+      <c r="K130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>108</v>
+      </c>
+      <c r="C131" t="s">
+        <v>109</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" t="s">
+        <v>110</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s">
+        <v>474</v>
+      </c>
+      <c r="I131">
+        <v>18</v>
+      </c>
+      <c r="J131">
+        <v>1259</v>
+      </c>
+      <c r="K131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>170</v>
+      </c>
+      <c r="C132" t="s">
+        <v>171</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
+        <v>172</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
+        <v>475</v>
+      </c>
+      <c r="I132">
+        <v>13</v>
+      </c>
+      <c r="J132">
+        <v>600</v>
+      </c>
+      <c r="K132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>274</v>
+      </c>
+      <c r="C133" t="s">
+        <v>275</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s">
+        <v>276</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" t="s">
+        <v>476</v>
+      </c>
+      <c r="I133">
+        <v>11</v>
+      </c>
+      <c r="J133">
+        <v>1213.3800000000001</v>
+      </c>
+      <c r="K133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>112</v>
+      </c>
+      <c r="C134" t="s">
+        <v>113</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>114</v>
+      </c>
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>350</v>
+      </c>
+      <c r="I134">
+        <v>9</v>
+      </c>
+      <c r="J134">
+        <v>1211.25</v>
+      </c>
+      <c r="K134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>367</v>
+      </c>
+      <c r="C135" t="s">
+        <v>368</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" t="s">
+        <v>369</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s">
+        <v>477</v>
+      </c>
+      <c r="I135">
+        <v>8</v>
+      </c>
+      <c r="J135">
+        <v>1676</v>
+      </c>
+      <c r="K135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>434</v>
+      </c>
+      <c r="C136" t="s">
+        <v>435</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" t="s">
+        <v>436</v>
+      </c>
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>478</v>
+      </c>
+      <c r="I136">
+        <v>11</v>
+      </c>
+      <c r="J136">
+        <v>1924.91</v>
+      </c>
+      <c r="K136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>322</v>
+      </c>
+      <c r="C137" t="s">
+        <v>323</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" t="s">
+        <v>324</v>
+      </c>
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" t="s">
+        <v>479</v>
+      </c>
+      <c r="I137">
+        <v>7</v>
+      </c>
+      <c r="J137">
+        <v>1681.75</v>
+      </c>
+      <c r="K137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>158</v>
+      </c>
+      <c r="C138" t="s">
+        <v>159</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>160</v>
+      </c>
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s">
+        <v>480</v>
+      </c>
+      <c r="I138">
+        <v>10</v>
+      </c>
+      <c r="J138">
+        <v>1644</v>
+      </c>
+      <c r="K138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>314</v>
+      </c>
+      <c r="C139" t="s">
+        <v>315</v>
+      </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s">
+        <v>316</v>
+      </c>
+      <c r="F139" t="s">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" t="s">
+        <v>481</v>
+      </c>
+      <c r="I139">
+        <v>7</v>
+      </c>
+      <c r="J139">
+        <v>1243.75</v>
+      </c>
+      <c r="K139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" t="s">
+        <v>198</v>
+      </c>
+      <c r="C140" t="s">
+        <v>199</v>
+      </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s">
+        <v>200</v>
+      </c>
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" t="s">
+        <v>482</v>
+      </c>
+      <c r="I140">
+        <v>8</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" t="s">
+        <v>33</v>
+      </c>
+      <c r="C141" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>35</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" t="s">
+        <v>483</v>
+      </c>
+      <c r="I141">
+        <v>7</v>
+      </c>
+      <c r="J141">
+        <v>859</v>
+      </c>
+      <c r="K141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" t="s">
+        <v>166</v>
+      </c>
+      <c r="C142" t="s">
+        <v>167</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s">
+        <v>168</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s">
+        <v>484</v>
+      </c>
+      <c r="I142">
+        <v>5</v>
+      </c>
+      <c r="J142">
+        <v>1711.35</v>
+      </c>
+      <c r="K142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" t="s">
+        <v>351</v>
+      </c>
+      <c r="C143" t="s">
+        <v>352</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" t="s">
+        <v>353</v>
+      </c>
+      <c r="F143" t="s">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" t="s">
+        <v>485</v>
+      </c>
+      <c r="I143">
+        <v>12</v>
+      </c>
+      <c r="J143">
+        <v>1841</v>
+      </c>
+      <c r="K143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s">
+        <v>174</v>
+      </c>
+      <c r="C144" t="s">
+        <v>175</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" t="s">
+        <v>176</v>
+      </c>
+      <c r="F144" t="s">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
+        <v>486</v>
+      </c>
+      <c r="I144">
+        <v>7</v>
+      </c>
+      <c r="J144">
+        <v>1926</v>
+      </c>
+      <c r="K144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" t="s">
+        <v>226</v>
+      </c>
+      <c r="C145" t="s">
+        <v>227</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s">
+        <v>228</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" t="s">
+        <v>487</v>
+      </c>
+      <c r="I145">
+        <v>9</v>
+      </c>
+      <c r="J145">
+        <v>1506</v>
+      </c>
+      <c r="K145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>330</v>
+      </c>
+      <c r="C146" t="s">
+        <v>331</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
+        <v>332</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" t="s">
+        <v>488</v>
+      </c>
+      <c r="I146">
+        <v>5</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>489</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>27</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s">
+        <v>490</v>
+      </c>
+      <c r="I147">
+        <v>10</v>
+      </c>
+      <c r="J147">
+        <v>1626</v>
+      </c>
+      <c r="K147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>399</v>
+      </c>
+      <c r="C148" t="s">
+        <v>400</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" t="s">
+        <v>401</v>
+      </c>
+      <c r="F148" t="s">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" t="s">
+        <v>491</v>
+      </c>
+      <c r="I148">
+        <v>6</v>
+      </c>
+      <c r="J148">
+        <v>1251</v>
+      </c>
+      <c r="K148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" t="s">
+        <v>73</v>
+      </c>
+      <c r="C149" t="s">
+        <v>74</v>
+      </c>
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149" t="s">
+        <v>75</v>
+      </c>
+      <c r="F149" t="s">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" t="s">
+        <v>492</v>
+      </c>
+      <c r="I149">
+        <v>7</v>
+      </c>
+      <c r="J149">
+        <v>922.26</v>
+      </c>
+      <c r="K149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>162</v>
+      </c>
+      <c r="C150" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s">
+        <v>164</v>
+      </c>
+      <c r="F150" t="s">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" t="s">
+        <v>493</v>
+      </c>
+      <c r="I150">
+        <v>12</v>
+      </c>
+      <c r="J150">
+        <v>1736.34</v>
+      </c>
+      <c r="K150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" t="s">
+        <v>270</v>
+      </c>
+      <c r="C151" t="s">
+        <v>271</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" t="s">
+        <v>272</v>
+      </c>
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" t="s">
+        <v>494</v>
+      </c>
+      <c r="I151">
+        <v>5</v>
+      </c>
+      <c r="J151">
+        <v>1379</v>
+      </c>
+      <c r="K151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" t="s">
+        <v>123</v>
+      </c>
+      <c r="C152" t="s">
+        <v>124</v>
+      </c>
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" t="s">
+        <v>125</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" t="s">
+        <v>495</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0.5</v>
+      </c>
+      <c r="K152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>282</v>
+      </c>
+      <c r="C153" t="s">
+        <v>283</v>
+      </c>
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" t="s">
+        <v>284</v>
+      </c>
+      <c r="F153" t="s">
+        <v>14</v>
+      </c>
+      <c r="G153" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" t="s">
+        <v>496</v>
+      </c>
+      <c r="I153">
+        <v>8</v>
+      </c>
+      <c r="J153">
+        <v>1408.38</v>
+      </c>
+      <c r="K153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s">
+        <v>363</v>
+      </c>
+      <c r="C154" t="s">
+        <v>364</v>
+      </c>
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" t="s">
+        <v>365</v>
+      </c>
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s">
+        <v>14</v>
+      </c>
+      <c r="H154" t="s">
+        <v>497</v>
+      </c>
+      <c r="I154">
+        <v>6</v>
+      </c>
+      <c r="J154">
+        <v>1001</v>
+      </c>
+      <c r="K154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" t="s">
+        <v>45</v>
+      </c>
+      <c r="C155" t="s">
+        <v>46</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" t="s">
+        <v>47</v>
+      </c>
+      <c r="F155" t="s">
+        <v>14</v>
+      </c>
+      <c r="G155" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" t="s">
+        <v>498</v>
+      </c>
+      <c r="I155">
+        <v>8</v>
+      </c>
+      <c r="J155">
+        <v>1873.75</v>
+      </c>
+      <c r="K155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" t="s">
+        <v>410</v>
+      </c>
+      <c r="C156" t="s">
+        <v>411</v>
+      </c>
+      <c r="D156" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" t="s">
+        <v>412</v>
+      </c>
+      <c r="F156" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" t="s">
+        <v>499</v>
+      </c>
+      <c r="I156">
+        <v>8</v>
+      </c>
+      <c r="J156">
+        <v>1185.44</v>
+      </c>
+      <c r="K156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" t="s">
+        <v>375</v>
+      </c>
+      <c r="C157" t="s">
+        <v>376</v>
+      </c>
+      <c r="D157" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" t="s">
+        <v>377</v>
+      </c>
+      <c r="F157" t="s">
+        <v>14</v>
+      </c>
+      <c r="G157" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157" t="s">
+        <v>500</v>
+      </c>
+      <c r="I157">
+        <v>5</v>
+      </c>
+      <c r="J157">
+        <v>1812</v>
+      </c>
+      <c r="K157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" t="s">
+        <v>290</v>
+      </c>
+      <c r="C158" t="s">
+        <v>291</v>
+      </c>
+      <c r="D158" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" t="s">
+        <v>292</v>
+      </c>
+      <c r="F158" t="s">
+        <v>14</v>
+      </c>
+      <c r="G158" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" t="s">
+        <v>501</v>
+      </c>
+      <c r="I158">
+        <v>7</v>
+      </c>
+      <c r="J158">
+        <v>912.75</v>
+      </c>
+      <c r="K158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" t="s">
+        <v>387</v>
+      </c>
+      <c r="C159" t="s">
+        <v>388</v>
+      </c>
+      <c r="D159" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" t="s">
+        <v>389</v>
+      </c>
+      <c r="F159" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" t="s">
+        <v>502</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" t="s">
+        <v>359</v>
+      </c>
+      <c r="C160" t="s">
+        <v>360</v>
+      </c>
+      <c r="D160" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" t="s">
+        <v>361</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" t="s">
+        <v>503</v>
+      </c>
+      <c r="I160">
+        <v>7</v>
+      </c>
+      <c r="J160">
+        <v>824.06</v>
+      </c>
+      <c r="K160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" t="s">
+        <v>442</v>
+      </c>
+      <c r="C161" t="s">
+        <v>443</v>
+      </c>
+      <c r="D161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" t="s">
+        <v>444</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" t="s">
+        <v>504</v>
+      </c>
+      <c r="I161">
+        <v>11</v>
+      </c>
+      <c r="J161">
+        <v>1328</v>
+      </c>
+      <c r="K161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" t="s">
+        <v>206</v>
+      </c>
+      <c r="C162" t="s">
+        <v>207</v>
+      </c>
+      <c r="D162" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" t="s">
+        <v>208</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" t="s">
+        <v>469</v>
+      </c>
+      <c r="I162">
+        <v>7</v>
+      </c>
+      <c r="J162">
+        <v>2069</v>
+      </c>
+      <c r="K162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" t="s">
+        <v>246</v>
+      </c>
+      <c r="C163" t="s">
+        <v>247</v>
+      </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" t="s">
+        <v>248</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" t="s">
+        <v>505</v>
+      </c>
+      <c r="I163">
+        <v>7</v>
+      </c>
+      <c r="J163">
+        <v>1397</v>
+      </c>
+      <c r="K163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" t="s">
+        <v>254</v>
+      </c>
+      <c r="C164" t="s">
+        <v>255</v>
+      </c>
+      <c r="D164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" t="s">
+        <v>256</v>
+      </c>
+      <c r="F164" t="s">
+        <v>14</v>
+      </c>
+      <c r="G164" t="s">
+        <v>14</v>
+      </c>
+      <c r="H164" t="s">
+        <v>506</v>
+      </c>
+      <c r="I164">
+        <v>6</v>
+      </c>
+      <c r="J164">
+        <v>1919</v>
+      </c>
+      <c r="K164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" t="s">
+        <v>154</v>
+      </c>
+      <c r="C165" t="s">
+        <v>155</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s">
+        <v>156</v>
+      </c>
+      <c r="F165" t="s">
+        <v>14</v>
+      </c>
+      <c r="G165" t="s">
+        <v>14</v>
+      </c>
+      <c r="H165" t="s">
+        <v>507</v>
+      </c>
+      <c r="I165">
+        <v>6</v>
+      </c>
+      <c r="J165">
+        <v>1717</v>
+      </c>
+      <c r="K165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" t="s">
+        <v>302</v>
+      </c>
+      <c r="C166" t="s">
+        <v>303</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" t="s">
+        <v>304</v>
+      </c>
+      <c r="F166" t="s">
+        <v>14</v>
+      </c>
+      <c r="G166" t="s">
+        <v>14</v>
+      </c>
+      <c r="H166" t="s">
+        <v>508</v>
+      </c>
+      <c r="I166">
+        <v>5</v>
+      </c>
+      <c r="J166">
+        <v>2212.12</v>
+      </c>
+      <c r="K166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" t="s">
+        <v>100</v>
+      </c>
+      <c r="C167" t="s">
+        <v>101</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
+        <v>102</v>
+      </c>
+      <c r="F167" t="s">
+        <v>14</v>
+      </c>
+      <c r="G167" t="s">
+        <v>14</v>
+      </c>
+      <c r="H167" t="s">
+        <v>509</v>
+      </c>
+      <c r="I167">
+        <v>7</v>
+      </c>
+      <c r="J167">
+        <v>1726</v>
+      </c>
+      <c r="K167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" t="s">
+        <v>326</v>
+      </c>
+      <c r="C168" t="s">
+        <v>327</v>
+      </c>
+      <c r="D168" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
+        <v>14</v>
+      </c>
+      <c r="G168" t="s">
+        <v>14</v>
+      </c>
+      <c r="H168" t="s">
+        <v>510</v>
+      </c>
+      <c r="I168">
+        <v>4</v>
+      </c>
+      <c r="J168">
+        <v>1493</v>
+      </c>
+      <c r="K168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" t="s">
+        <v>81</v>
+      </c>
+      <c r="C169" t="s">
+        <v>82</v>
+      </c>
+      <c r="D169" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" t="s">
+        <v>83</v>
+      </c>
+      <c r="F169" t="s">
+        <v>14</v>
+      </c>
+      <c r="G169" t="s">
+        <v>14</v>
+      </c>
+      <c r="H169" t="s">
+        <v>511</v>
+      </c>
+      <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="J169">
+        <v>1704</v>
+      </c>
+      <c r="K169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" t="s">
+        <v>65</v>
+      </c>
+      <c r="C170" t="s">
+        <v>66</v>
+      </c>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s">
+        <v>67</v>
+      </c>
+      <c r="F170" t="s">
+        <v>14</v>
+      </c>
+      <c r="G170" t="s">
+        <v>14</v>
+      </c>
+      <c r="H170" t="s">
+        <v>512</v>
+      </c>
+      <c r="I170">
+        <v>10</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171" t="s">
+        <v>22</v>
+      </c>
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171" t="s">
+        <v>14</v>
+      </c>
+      <c r="G171" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" t="s">
+        <v>513</v>
+      </c>
+      <c r="I171">
+        <v>7</v>
+      </c>
+      <c r="J171">
+        <v>1202</v>
+      </c>
+      <c r="K171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" t="s">
+        <v>85</v>
+      </c>
+      <c r="C172" t="s">
+        <v>86</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" t="s">
+        <v>87</v>
+      </c>
+      <c r="F172" t="s">
+        <v>14</v>
+      </c>
+      <c r="G172" t="s">
+        <v>14</v>
+      </c>
+      <c r="H172" t="s">
+        <v>514</v>
+      </c>
+      <c r="I172">
+        <v>7</v>
+      </c>
+      <c r="J172">
+        <v>1339.51</v>
+      </c>
+      <c r="K172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" t="s">
+        <v>379</v>
+      </c>
+      <c r="C173" t="s">
+        <v>380</v>
+      </c>
+      <c r="D173" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" t="s">
+        <v>381</v>
+      </c>
+      <c r="F173" t="s">
+        <v>14</v>
+      </c>
+      <c r="G173" t="s">
+        <v>14</v>
+      </c>
+      <c r="H173" t="s">
+        <v>515</v>
+      </c>
+      <c r="I173">
+        <v>10</v>
+      </c>
+      <c r="J173">
+        <v>1391.75</v>
+      </c>
+      <c r="K173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" t="s">
+        <v>334</v>
+      </c>
+      <c r="C174" t="s">
+        <v>335</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" t="s">
+        <v>14</v>
+      </c>
+      <c r="G174" t="s">
+        <v>14</v>
+      </c>
+      <c r="H174" t="s">
+        <v>516</v>
+      </c>
+      <c r="I174">
+        <v>9</v>
+      </c>
+      <c r="J174">
+        <v>1533.25</v>
+      </c>
+      <c r="K174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" t="s">
+        <v>41</v>
+      </c>
+      <c r="C175" t="s">
+        <v>42</v>
+      </c>
+      <c r="D175" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175" t="s">
+        <v>43</v>
+      </c>
+      <c r="F175" t="s">
+        <v>14</v>
+      </c>
+      <c r="G175" t="s">
+        <v>14</v>
+      </c>
+      <c r="H175" t="s">
+        <v>517</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>0.5</v>
+      </c>
+      <c r="K175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" t="s">
+        <v>250</v>
+      </c>
+      <c r="C176" t="s">
+        <v>251</v>
+      </c>
+      <c r="D176" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" t="s">
+        <v>252</v>
+      </c>
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176" t="s">
+        <v>14</v>
+      </c>
+      <c r="H176" t="s">
+        <v>518</v>
+      </c>
+      <c r="I176">
+        <v>8</v>
+      </c>
+      <c r="J176">
+        <v>1130</v>
+      </c>
+      <c r="K176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" t="s">
+        <v>93</v>
+      </c>
+      <c r="C177" t="s">
+        <v>94</v>
+      </c>
+      <c r="D177" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" t="s">
+        <v>95</v>
+      </c>
+      <c r="F177" t="s">
+        <v>14</v>
+      </c>
+      <c r="G177" t="s">
+        <v>14</v>
+      </c>
+      <c r="H177" t="s">
+        <v>519</v>
+      </c>
+      <c r="I177">
+        <v>8</v>
+      </c>
+      <c r="J177">
+        <v>1305</v>
+      </c>
+      <c r="K177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" t="s">
+        <v>242</v>
+      </c>
+      <c r="C178" t="s">
+        <v>243</v>
+      </c>
+      <c r="D178" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178" t="s">
+        <v>244</v>
+      </c>
+      <c r="F178" t="s">
+        <v>14</v>
+      </c>
+      <c r="G178" t="s">
+        <v>14</v>
+      </c>
+      <c r="H178" t="s">
+        <v>520</v>
+      </c>
+      <c r="I178">
+        <v>10</v>
+      </c>
+      <c r="J178">
+        <v>960.13</v>
+      </c>
+      <c r="K178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" t="s">
+        <v>383</v>
+      </c>
+      <c r="C179" t="s">
+        <v>384</v>
+      </c>
+      <c r="D179" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" t="s">
+        <v>385</v>
+      </c>
+      <c r="F179" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179" t="s">
+        <v>14</v>
+      </c>
+      <c r="H179" t="s">
+        <v>521</v>
+      </c>
+      <c r="I179">
+        <v>9</v>
+      </c>
+      <c r="J179">
+        <v>1728.35</v>
+      </c>
+      <c r="K179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" t="s">
+        <v>29</v>
+      </c>
+      <c r="C180" t="s">
+        <v>30</v>
+      </c>
+      <c r="D180" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" t="s">
+        <v>31</v>
+      </c>
+      <c r="F180" t="s">
+        <v>14</v>
+      </c>
+      <c r="G180" t="s">
+        <v>14</v>
+      </c>
+      <c r="H180" t="s">
+        <v>522</v>
+      </c>
+      <c r="I180">
+        <v>10</v>
+      </c>
+      <c r="J180">
+        <v>1199.06</v>
+      </c>
+      <c r="K180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" t="s">
+        <v>298</v>
+      </c>
+      <c r="C181" t="s">
+        <v>299</v>
+      </c>
+      <c r="D181" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" t="s">
+        <v>300</v>
+      </c>
+      <c r="F181" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" t="s">
+        <v>14</v>
+      </c>
+      <c r="H181" t="s">
+        <v>523</v>
+      </c>
+      <c r="I181">
+        <v>7</v>
+      </c>
+      <c r="J181">
+        <v>1127.25</v>
+      </c>
+      <c r="K181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" t="s">
+        <v>222</v>
+      </c>
+      <c r="C182" t="s">
+        <v>223</v>
+      </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" t="s">
+        <v>224</v>
+      </c>
+      <c r="F182" t="s">
+        <v>14</v>
+      </c>
+      <c r="G182" t="s">
+        <v>14</v>
+      </c>
+      <c r="H182" t="s">
+        <v>524</v>
+      </c>
+      <c r="I182">
+        <v>5</v>
+      </c>
+      <c r="J182">
+        <v>1728</v>
+      </c>
+      <c r="K182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" t="s">
+        <v>525</v>
+      </c>
+      <c r="C183" t="s">
+        <v>451</v>
+      </c>
+      <c r="D183" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" t="s">
         <v>452</v>
       </c>
-      <c r="C113" t="s">
-        <v>453</v>
-      </c>
-      <c r="D113" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" t="s">
-        <v>454</v>
-      </c>
-      <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>14</v>
-      </c>
-      <c r="H113" t="s">
-        <v>455</v>
-      </c>
-      <c r="I113">
-        <v>33</v>
-      </c>
-      <c r="J113">
-        <v>3786.69</v>
-      </c>
-      <c r="K113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" t="s">
-        <v>456</v>
-      </c>
-      <c r="C114" t="s">
-        <v>457</v>
-      </c>
-      <c r="D114" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" t="s">
-        <v>458</v>
-      </c>
-      <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>14</v>
-      </c>
-      <c r="H114" t="s">
-        <v>459</v>
-      </c>
-      <c r="I114">
-        <v>33</v>
-      </c>
-      <c r="J114">
-        <v>10648</v>
-      </c>
-      <c r="K114" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>11</v>
-      </c>
-      <c r="B115" t="s">
-        <v>460</v>
-      </c>
-      <c r="C115" t="s">
-        <v>461</v>
-      </c>
-      <c r="D115" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" t="s">
-        <v>462</v>
-      </c>
-      <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" t="s">
-        <v>463</v>
-      </c>
-      <c r="I115">
-        <v>77</v>
-      </c>
-      <c r="J115">
-        <v>11143.5</v>
-      </c>
-      <c r="K115" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>11</v>
-      </c>
-      <c r="B116" t="s">
-        <v>464</v>
-      </c>
-      <c r="C116" t="s">
-        <v>465</v>
-      </c>
-      <c r="D116" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" t="s">
-        <v>466</v>
-      </c>
-      <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>14</v>
-      </c>
-      <c r="H116" t="s">
-        <v>467</v>
-      </c>
-      <c r="I116">
-        <v>47</v>
-      </c>
-      <c r="J116">
-        <v>11728.17</v>
-      </c>
-      <c r="K116" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" t="s">
-        <v>468</v>
-      </c>
-      <c r="C117" t="s">
-        <v>469</v>
-      </c>
-      <c r="D117" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117" t="s">
-        <v>470</v>
-      </c>
-      <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" t="s">
-        <v>471</v>
-      </c>
-      <c r="I117">
-        <v>37</v>
-      </c>
-      <c r="J117">
-        <v>11273</v>
-      </c>
-      <c r="K117" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" t="s">
-        <v>472</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="F183" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183" t="s">
+        <v>14</v>
+      </c>
+      <c r="H183" t="s">
+        <v>526</v>
+      </c>
+      <c r="I183">
+        <v>13</v>
+      </c>
+      <c r="J183">
+        <v>1921.91</v>
+      </c>
+      <c r="K183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" t="s">
+        <v>294</v>
+      </c>
+      <c r="C184" t="s">
+        <v>295</v>
+      </c>
+      <c r="D184" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" t="s">
+        <v>296</v>
+      </c>
+      <c r="F184" t="s">
+        <v>14</v>
+      </c>
+      <c r="G184" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" t="s">
+        <v>527</v>
+      </c>
+      <c r="I184">
+        <v>3</v>
+      </c>
+      <c r="J184">
+        <v>1406.28</v>
+      </c>
+      <c r="K184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" t="s">
+        <v>414</v>
+      </c>
+      <c r="C185" t="s">
+        <v>415</v>
+      </c>
+      <c r="D185" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" t="s">
+        <v>416</v>
+      </c>
+      <c r="F185" t="s">
+        <v>14</v>
+      </c>
+      <c r="G185" t="s">
+        <v>14</v>
+      </c>
+      <c r="H185" t="s">
+        <v>528</v>
+      </c>
+      <c r="I185">
+        <v>6</v>
+      </c>
+      <c r="J185">
+        <v>1561</v>
+      </c>
+      <c r="K185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>11</v>
+      </c>
+      <c r="B186" t="s">
+        <v>430</v>
+      </c>
+      <c r="C186" t="s">
+        <v>431</v>
+      </c>
+      <c r="D186" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" t="s">
+        <v>432</v>
+      </c>
+      <c r="F186" t="s">
+        <v>14</v>
+      </c>
+      <c r="G186" t="s">
+        <v>14</v>
+      </c>
+      <c r="H186" t="s">
+        <v>529</v>
+      </c>
+      <c r="I186">
+        <v>7</v>
+      </c>
+      <c r="J186">
+        <v>1397</v>
+      </c>
+      <c r="K186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>11</v>
+      </c>
+      <c r="B187" t="s">
+        <v>127</v>
+      </c>
+      <c r="C187" t="s">
+        <v>128</v>
+      </c>
+      <c r="D187" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" t="s">
+        <v>129</v>
+      </c>
+      <c r="F187" t="s">
+        <v>14</v>
+      </c>
+      <c r="G187" t="s">
+        <v>14</v>
+      </c>
+      <c r="H187" t="s">
+        <v>530</v>
+      </c>
+      <c r="I187">
+        <v>11</v>
+      </c>
+      <c r="J187">
+        <v>1160</v>
+      </c>
+      <c r="K187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" t="s">
+        <v>214</v>
+      </c>
+      <c r="C188" t="s">
+        <v>215</v>
+      </c>
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" t="s">
+        <v>216</v>
+      </c>
+      <c r="F188" t="s">
+        <v>14</v>
+      </c>
+      <c r="G188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H188" t="s">
         <v>473</v>
       </c>
-      <c r="D118" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" t="s">
-        <v>474</v>
-      </c>
-      <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>14</v>
-      </c>
-      <c r="H118" t="s">
-        <v>475</v>
-      </c>
-      <c r="I118">
-        <v>52</v>
-      </c>
-      <c r="J118">
-        <v>5426</v>
-      </c>
-      <c r="K118" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" t="s">
-        <v>476</v>
-      </c>
-      <c r="C119" t="s">
-        <v>477</v>
-      </c>
-      <c r="D119" t="s">
-        <v>14</v>
-      </c>
-      <c r="E119" t="s">
-        <v>478</v>
-      </c>
-      <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>14</v>
-      </c>
-      <c r="H119" t="s">
-        <v>479</v>
-      </c>
-      <c r="I119">
+      <c r="I188">
+        <v>7</v>
+      </c>
+      <c r="J188">
+        <v>1797.69</v>
+      </c>
+      <c r="K188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189" t="s">
+        <v>61</v>
+      </c>
+      <c r="C189" t="s">
+        <v>62</v>
+      </c>
+      <c r="D189" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" t="s">
+        <v>63</v>
+      </c>
+      <c r="F189" t="s">
+        <v>14</v>
+      </c>
+      <c r="G189" t="s">
+        <v>14</v>
+      </c>
+      <c r="H189" t="s">
+        <v>531</v>
+      </c>
+      <c r="I189">
+        <v>6</v>
+      </c>
+      <c r="J189">
+        <v>906.63</v>
+      </c>
+      <c r="K189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" t="s">
+        <v>49</v>
+      </c>
+      <c r="C190" t="s">
+        <v>50</v>
+      </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" t="s">
+        <v>51</v>
+      </c>
+      <c r="F190" t="s">
+        <v>14</v>
+      </c>
+      <c r="G190" t="s">
+        <v>14</v>
+      </c>
+      <c r="H190" t="s">
+        <v>532</v>
+      </c>
+      <c r="I190">
+        <v>7</v>
+      </c>
+      <c r="J190">
+        <v>1250</v>
+      </c>
+      <c r="K190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" t="s">
+        <v>134</v>
+      </c>
+      <c r="C191" t="s">
+        <v>135</v>
+      </c>
+      <c r="D191" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" t="s">
+        <v>136</v>
+      </c>
+      <c r="F191" t="s">
+        <v>14</v>
+      </c>
+      <c r="G191" t="s">
+        <v>14</v>
+      </c>
+      <c r="H191" t="s">
+        <v>533</v>
+      </c>
+      <c r="I191">
+        <v>7</v>
+      </c>
+      <c r="J191">
+        <v>2433</v>
+      </c>
+      <c r="K191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>11</v>
+      </c>
+      <c r="B192" t="s">
+        <v>419</v>
+      </c>
+      <c r="C192" t="s">
+        <v>419</v>
+      </c>
+      <c r="D192" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" t="s">
+        <v>420</v>
+      </c>
+      <c r="F192" t="s">
+        <v>14</v>
+      </c>
+      <c r="G192" t="s">
+        <v>14</v>
+      </c>
+      <c r="H192" t="s">
+        <v>534</v>
+      </c>
+      <c r="I192">
+        <v>6</v>
+      </c>
+      <c r="J192">
+        <v>1575.13</v>
+      </c>
+      <c r="K192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" t="s">
+        <v>342</v>
+      </c>
+      <c r="C193" t="s">
+        <v>343</v>
+      </c>
+      <c r="D193" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193" t="s">
+        <v>344</v>
+      </c>
+      <c r="F193" t="s">
+        <v>14</v>
+      </c>
+      <c r="G193" t="s">
+        <v>14</v>
+      </c>
+      <c r="H193" t="s">
+        <v>535</v>
+      </c>
+      <c r="I193">
+        <v>9</v>
+      </c>
+      <c r="J193">
+        <v>1764.64</v>
+      </c>
+      <c r="K193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>11</v>
+      </c>
+      <c r="B194" t="s">
+        <v>418</v>
+      </c>
+      <c r="C194" t="s">
+        <v>38</v>
+      </c>
+      <c r="D194" t="s">
+        <v>14</v>
+      </c>
+      <c r="E194" t="s">
         <v>39</v>
       </c>
-      <c r="J119">
-        <v>6472.98</v>
-      </c>
-      <c r="K119" t="s">
+      <c r="F194" t="s">
+        <v>14</v>
+      </c>
+      <c r="G194" t="s">
+        <v>14</v>
+      </c>
+      <c r="H194" t="s">
+        <v>536</v>
+      </c>
+      <c r="I194">
+        <v>10</v>
+      </c>
+      <c r="J194">
+        <v>176.76</v>
+      </c>
+      <c r="K194" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" t="s">
+        <v>57</v>
+      </c>
+      <c r="C195" t="s">
+        <v>58</v>
+      </c>
+      <c r="D195" t="s">
+        <v>14</v>
+      </c>
+      <c r="E195" t="s">
+        <v>59</v>
+      </c>
+      <c r="F195" t="s">
+        <v>14</v>
+      </c>
+      <c r="G195" t="s">
+        <v>14</v>
+      </c>
+      <c r="H195" t="s">
+        <v>537</v>
+      </c>
+      <c r="I195">
+        <v>5</v>
+      </c>
+      <c r="J195">
+        <v>2414.34</v>
+      </c>
+      <c r="K195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>11</v>
+      </c>
+      <c r="B196" t="s">
+        <v>69</v>
+      </c>
+      <c r="C196" t="s">
+        <v>70</v>
+      </c>
+      <c r="D196" t="s">
+        <v>14</v>
+      </c>
+      <c r="E196" t="s">
+        <v>71</v>
+      </c>
+      <c r="F196" t="s">
+        <v>14</v>
+      </c>
+      <c r="G196" t="s">
+        <v>14</v>
+      </c>
+      <c r="H196" t="s">
+        <v>538</v>
+      </c>
+      <c r="I196">
+        <v>9</v>
+      </c>
+      <c r="J196">
+        <v>1776</v>
+      </c>
+      <c r="K196" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>11</v>
+      </c>
+      <c r="B197" t="s">
+        <v>234</v>
+      </c>
+      <c r="C197" t="s">
+        <v>235</v>
+      </c>
+      <c r="D197" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197" t="s">
+        <v>236</v>
+      </c>
+      <c r="F197" t="s">
+        <v>14</v>
+      </c>
+      <c r="G197" t="s">
+        <v>14</v>
+      </c>
+      <c r="H197" t="s">
+        <v>539</v>
+      </c>
+      <c r="I197">
+        <v>7</v>
+      </c>
+      <c r="J197">
+        <v>1718</v>
+      </c>
+      <c r="K197" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>11</v>
+      </c>
+      <c r="B198" t="s">
+        <v>142</v>
+      </c>
+      <c r="C198" t="s">
+        <v>143</v>
+      </c>
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" t="s">
+        <v>144</v>
+      </c>
+      <c r="F198" t="s">
+        <v>14</v>
+      </c>
+      <c r="G198" t="s">
+        <v>14</v>
+      </c>
+      <c r="H198" t="s">
+        <v>540</v>
+      </c>
+      <c r="I198">
+        <v>6</v>
+      </c>
+      <c r="J198">
+        <v>55184.39</v>
+      </c>
+      <c r="K198" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" t="s">
+        <v>14</v>
+      </c>
+      <c r="E199" t="s">
+        <v>15</v>
+      </c>
+      <c r="F199" t="s">
+        <v>14</v>
+      </c>
+      <c r="G199" t="s">
+        <v>14</v>
+      </c>
+      <c r="H199" t="s">
+        <v>541</v>
+      </c>
+      <c r="I199">
+        <v>11</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>11</v>
+      </c>
+      <c r="B200" t="s">
+        <v>266</v>
+      </c>
+      <c r="C200" t="s">
+        <v>267</v>
+      </c>
+      <c r="D200" t="s">
+        <v>14</v>
+      </c>
+      <c r="E200" t="s">
+        <v>268</v>
+      </c>
+      <c r="F200" t="s">
+        <v>14</v>
+      </c>
+      <c r="G200" t="s">
+        <v>14</v>
+      </c>
+      <c r="H200" t="s">
+        <v>542</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0.5</v>
+      </c>
+      <c r="K200" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>11</v>
+      </c>
+      <c r="B201" t="s">
+        <v>395</v>
+      </c>
+      <c r="C201" t="s">
+        <v>396</v>
+      </c>
+      <c r="D201" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" t="s">
+        <v>397</v>
+      </c>
+      <c r="F201" t="s">
+        <v>14</v>
+      </c>
+      <c r="G201" t="s">
+        <v>14</v>
+      </c>
+      <c r="H201" t="s">
+        <v>543</v>
+      </c>
+      <c r="I201">
+        <v>13</v>
+      </c>
+      <c r="J201">
+        <v>1394.63</v>
+      </c>
+      <c r="K201" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202" t="s">
+        <v>286</v>
+      </c>
+      <c r="C202" t="s">
+        <v>287</v>
+      </c>
+      <c r="D202" t="s">
+        <v>14</v>
+      </c>
+      <c r="E202" t="s">
+        <v>288</v>
+      </c>
+      <c r="F202" t="s">
+        <v>14</v>
+      </c>
+      <c r="G202" t="s">
+        <v>14</v>
+      </c>
+      <c r="H202" t="s">
+        <v>544</v>
+      </c>
+      <c r="I202">
+        <v>7</v>
+      </c>
+      <c r="J202">
+        <v>1573.25</v>
+      </c>
+      <c r="K202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>11</v>
+      </c>
+      <c r="B203" t="s">
+        <v>446</v>
+      </c>
+      <c r="C203" t="s">
+        <v>447</v>
+      </c>
+      <c r="D203" t="s">
+        <v>14</v>
+      </c>
+      <c r="E203" t="s">
+        <v>448</v>
+      </c>
+      <c r="F203" t="s">
+        <v>14</v>
+      </c>
+      <c r="G203" t="s">
+        <v>14</v>
+      </c>
+      <c r="H203" t="s">
+        <v>545</v>
+      </c>
+      <c r="I203">
+        <v>6</v>
+      </c>
+      <c r="J203">
+        <v>1252.25</v>
+      </c>
+      <c r="K203" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>11</v>
+      </c>
+      <c r="B204" t="s">
+        <v>210</v>
+      </c>
+      <c r="C204" t="s">
+        <v>211</v>
+      </c>
+      <c r="D204" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204" t="s">
+        <v>212</v>
+      </c>
+      <c r="F204" t="s">
+        <v>14</v>
+      </c>
+      <c r="G204" t="s">
+        <v>14</v>
+      </c>
+      <c r="H204" t="s">
+        <v>546</v>
+      </c>
+      <c r="I204">
+        <v>7</v>
+      </c>
+      <c r="J204">
+        <v>1435.71</v>
+      </c>
+      <c r="K204" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>11</v>
+      </c>
+      <c r="B205" t="s">
+        <v>306</v>
+      </c>
+      <c r="C205" t="s">
+        <v>307</v>
+      </c>
+      <c r="D205" t="s">
+        <v>14</v>
+      </c>
+      <c r="E205" t="s">
+        <v>308</v>
+      </c>
+      <c r="F205" t="s">
+        <v>14</v>
+      </c>
+      <c r="G205" t="s">
+        <v>14</v>
+      </c>
+      <c r="H205" t="s">
+        <v>547</v>
+      </c>
+      <c r="I205">
+        <v>6</v>
+      </c>
+      <c r="J205">
+        <v>1784.47</v>
+      </c>
+      <c r="K205" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>11</v>
+      </c>
+      <c r="B206" t="s">
+        <v>391</v>
+      </c>
+      <c r="C206" t="s">
+        <v>392</v>
+      </c>
+      <c r="D206" t="s">
+        <v>14</v>
+      </c>
+      <c r="E206" t="s">
+        <v>393</v>
+      </c>
+      <c r="F206" t="s">
+        <v>14</v>
+      </c>
+      <c r="G206" t="s">
+        <v>14</v>
+      </c>
+      <c r="H206" t="s">
+        <v>548</v>
+      </c>
+      <c r="I206">
+        <v>7</v>
+      </c>
+      <c r="J206">
+        <v>1647.88</v>
+      </c>
+      <c r="K206" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>11</v>
+      </c>
+      <c r="B207" t="s">
+        <v>238</v>
+      </c>
+      <c r="C207" t="s">
+        <v>54</v>
+      </c>
+      <c r="D207" t="s">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>55</v>
+      </c>
+      <c r="F207" t="s">
+        <v>14</v>
+      </c>
+      <c r="G207" t="s">
+        <v>14</v>
+      </c>
+      <c r="H207" t="s">
+        <v>549</v>
+      </c>
+      <c r="I207">
+        <v>6</v>
+      </c>
+      <c r="J207">
+        <v>1944.9</v>
+      </c>
+      <c r="K207" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" t="s">
+        <v>422</v>
+      </c>
+      <c r="C208" t="s">
+        <v>423</v>
+      </c>
+      <c r="D208" t="s">
+        <v>14</v>
+      </c>
+      <c r="E208" t="s">
+        <v>424</v>
+      </c>
+      <c r="F208" t="s">
+        <v>14</v>
+      </c>
+      <c r="G208" t="s">
+        <v>14</v>
+      </c>
+      <c r="H208" t="s">
+        <v>550</v>
+      </c>
+      <c r="I208">
+        <v>7</v>
+      </c>
+      <c r="J208">
+        <v>2095.0100000000002</v>
+      </c>
+      <c r="K208" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>11</v>
+      </c>
+      <c r="B209" t="s">
+        <v>119</v>
+      </c>
+      <c r="C209" t="s">
+        <v>120</v>
+      </c>
+      <c r="D209" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" t="s">
+        <v>121</v>
+      </c>
+      <c r="F209" t="s">
+        <v>14</v>
+      </c>
+      <c r="G209" t="s">
+        <v>14</v>
+      </c>
+      <c r="H209" t="s">
+        <v>551</v>
+      </c>
+      <c r="I209">
+        <v>8</v>
+      </c>
+      <c r="J209">
+        <v>1971</v>
+      </c>
+      <c r="K209" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>11</v>
+      </c>
+      <c r="B210" t="s">
+        <v>346</v>
+      </c>
+      <c r="C210" t="s">
+        <v>347</v>
+      </c>
+      <c r="D210" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210" t="s">
+        <v>348</v>
+      </c>
+      <c r="F210" t="s">
+        <v>14</v>
+      </c>
+      <c r="G210" t="s">
+        <v>14</v>
+      </c>
+      <c r="H210" t="s">
+        <v>552</v>
+      </c>
+      <c r="I210">
+        <v>3</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>11</v>
+      </c>
+      <c r="B211" t="s">
+        <v>178</v>
+      </c>
+      <c r="C211" t="s">
+        <v>179</v>
+      </c>
+      <c r="D211" t="s">
+        <v>14</v>
+      </c>
+      <c r="E211" t="s">
+        <v>180</v>
+      </c>
+      <c r="F211" t="s">
+        <v>14</v>
+      </c>
+      <c r="G211" t="s">
+        <v>14</v>
+      </c>
+      <c r="H211" t="s">
+        <v>553</v>
+      </c>
+      <c r="I211">
+        <v>11</v>
+      </c>
+      <c r="J211">
+        <v>1138.6300000000001</v>
+      </c>
+      <c r="K211" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" t="s">
+        <v>230</v>
+      </c>
+      <c r="C212" t="s">
+        <v>231</v>
+      </c>
+      <c r="D212" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212" t="s">
+        <v>232</v>
+      </c>
+      <c r="F212" t="s">
+        <v>14</v>
+      </c>
+      <c r="G212" t="s">
+        <v>14</v>
+      </c>
+      <c r="H212" t="s">
+        <v>554</v>
+      </c>
+      <c r="I212">
+        <v>6</v>
+      </c>
+      <c r="J212">
+        <v>2009</v>
+      </c>
+      <c r="K212" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213" t="s">
+        <v>338</v>
+      </c>
+      <c r="C213" t="s">
+        <v>339</v>
+      </c>
+      <c r="D213" t="s">
+        <v>14</v>
+      </c>
+      <c r="E213" t="s">
+        <v>340</v>
+      </c>
+      <c r="F213" t="s">
+        <v>14</v>
+      </c>
+      <c r="G213" t="s">
+        <v>14</v>
+      </c>
+      <c r="H213" t="s">
+        <v>555</v>
+      </c>
+      <c r="I213">
+        <v>4</v>
+      </c>
+      <c r="J213">
+        <v>752</v>
+      </c>
+      <c r="K213" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214" t="s">
+        <v>202</v>
+      </c>
+      <c r="C214" t="s">
+        <v>203</v>
+      </c>
+      <c r="D214" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214" t="s">
+        <v>204</v>
+      </c>
+      <c r="F214" t="s">
+        <v>14</v>
+      </c>
+      <c r="G214" t="s">
+        <v>14</v>
+      </c>
+      <c r="H214" t="s">
+        <v>556</v>
+      </c>
+      <c r="I214">
+        <v>6</v>
+      </c>
+      <c r="J214">
+        <v>890</v>
+      </c>
+      <c r="K214" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" t="s">
+        <v>557</v>
+      </c>
+      <c r="C215" t="s">
+        <v>139</v>
+      </c>
+      <c r="D215" t="s">
+        <v>14</v>
+      </c>
+      <c r="E215" t="s">
+        <v>140</v>
+      </c>
+      <c r="F215" t="s">
+        <v>14</v>
+      </c>
+      <c r="G215" t="s">
+        <v>14</v>
+      </c>
+      <c r="H215" t="s">
+        <v>558</v>
+      </c>
+      <c r="I215">
+        <v>7</v>
+      </c>
+      <c r="J215">
+        <v>1084</v>
+      </c>
+      <c r="K215" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>11</v>
+      </c>
+      <c r="B216" t="s">
+        <v>104</v>
+      </c>
+      <c r="C216" t="s">
+        <v>105</v>
+      </c>
+      <c r="D216" t="s">
+        <v>14</v>
+      </c>
+      <c r="E216" t="s">
+        <v>106</v>
+      </c>
+      <c r="F216" t="s">
+        <v>14</v>
+      </c>
+      <c r="G216" t="s">
+        <v>14</v>
+      </c>
+      <c r="H216" t="s">
+        <v>559</v>
+      </c>
+      <c r="I216">
+        <v>7</v>
+      </c>
+      <c r="J216">
+        <v>1363.13</v>
+      </c>
+      <c r="K216" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>11</v>
+      </c>
+      <c r="B217" t="s">
+        <v>146</v>
+      </c>
+      <c r="C217" t="s">
+        <v>147</v>
+      </c>
+      <c r="D217" t="s">
+        <v>14</v>
+      </c>
+      <c r="E217" t="s">
+        <v>148</v>
+      </c>
+      <c r="F217" t="s">
+        <v>14</v>
+      </c>
+      <c r="G217" t="s">
+        <v>14</v>
+      </c>
+      <c r="H217" t="s">
+        <v>560</v>
+      </c>
+      <c r="I217">
+        <v>8</v>
+      </c>
+      <c r="J217">
+        <v>1634.48</v>
+      </c>
+      <c r="K217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>11</v>
+      </c>
+      <c r="B218" t="s">
+        <v>194</v>
+      </c>
+      <c r="C218" t="s">
+        <v>195</v>
+      </c>
+      <c r="D218" t="s">
+        <v>14</v>
+      </c>
+      <c r="E218" t="s">
+        <v>196</v>
+      </c>
+      <c r="F218" t="s">
+        <v>14</v>
+      </c>
+      <c r="G218" t="s">
+        <v>14</v>
+      </c>
+      <c r="H218" t="s">
+        <v>561</v>
+      </c>
+      <c r="I218">
+        <v>9</v>
+      </c>
+      <c r="J218">
+        <v>1631.78</v>
+      </c>
+      <c r="K218" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="C113:C218">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K119" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K55 A85:K86 A87:K112 A56:K84" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/distances_26_11_03_12.xlsx
+++ b/distances_26_11_03_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\consumo-bca-dashboard-limpio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB83028-C165-458A-A845-3DD4423BA840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA2A2C6-5E02-40A3-8DE3-D12C310F0B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="668">
   <si>
     <t>Grupo</t>
   </si>
@@ -1709,6 +1709,324 @@
   </si>
   <si>
     <t>29:47:24</t>
+  </si>
+  <si>
+    <t>15:37:48</t>
+  </si>
+  <si>
+    <t>03:07:48</t>
+  </si>
+  <si>
+    <t>13:29:24</t>
+  </si>
+  <si>
+    <t>07:55:48</t>
+  </si>
+  <si>
+    <t>10:21:36</t>
+  </si>
+  <si>
+    <t>15:12:00</t>
+  </si>
+  <si>
+    <t>14:16:48</t>
+  </si>
+  <si>
+    <t>03:28:48</t>
+  </si>
+  <si>
+    <t>13:07:48</t>
+  </si>
+  <si>
+    <t>15:19:12</t>
+  </si>
+  <si>
+    <t>17:39:36</t>
+  </si>
+  <si>
+    <t>16:04:12</t>
+  </si>
+  <si>
+    <t>04:37:48</t>
+  </si>
+  <si>
+    <t>12:20:24</t>
+  </si>
+  <si>
+    <t>14:27:36</t>
+  </si>
+  <si>
+    <t>19:09:36</t>
+  </si>
+  <si>
+    <t>10:22:48</t>
+  </si>
+  <si>
+    <t>12:54:36</t>
+  </si>
+  <si>
+    <t>21:24:00</t>
+  </si>
+  <si>
+    <t>13:16:48</t>
+  </si>
+  <si>
+    <t>00:32:24</t>
+  </si>
+  <si>
+    <t>06:42:00</t>
+  </si>
+  <si>
+    <t>12:03:36</t>
+  </si>
+  <si>
+    <t>12:04:48</t>
+  </si>
+  <si>
+    <t>15:30:36</t>
+  </si>
+  <si>
+    <t>Roso Adriana</t>
+  </si>
+  <si>
+    <t>04:45:00</t>
+  </si>
+  <si>
+    <t>10:07:12</t>
+  </si>
+  <si>
+    <t>13:58:12</t>
+  </si>
+  <si>
+    <t>04:55:12</t>
+  </si>
+  <si>
+    <t>16:55:12</t>
+  </si>
+  <si>
+    <t>15:09:36</t>
+  </si>
+  <si>
+    <t>16:00:36</t>
+  </si>
+  <si>
+    <t>16:03:00</t>
+  </si>
+  <si>
+    <t>09:12:36</t>
+  </si>
+  <si>
+    <t>14:21:00</t>
+  </si>
+  <si>
+    <t>12:11:24</t>
+  </si>
+  <si>
+    <t>16:13:48</t>
+  </si>
+  <si>
+    <t>14:49:48</t>
+  </si>
+  <si>
+    <t>12:35:24</t>
+  </si>
+  <si>
+    <t>12:30:00</t>
+  </si>
+  <si>
+    <t>13:28:12</t>
+  </si>
+  <si>
+    <t>10:44:24</t>
+  </si>
+  <si>
+    <t>13:09:00</t>
+  </si>
+  <si>
+    <t>20:51:00</t>
+  </si>
+  <si>
+    <t>15:11:24</t>
+  </si>
+  <si>
+    <t>12:32:24</t>
+  </si>
+  <si>
+    <t>09:23:24</t>
+  </si>
+  <si>
+    <t>15:21:36</t>
+  </si>
+  <si>
+    <t>14:46:12</t>
+  </si>
+  <si>
+    <t>14:01:48</t>
+  </si>
+  <si>
+    <t>14:39:00</t>
+  </si>
+  <si>
+    <t>16:49:12</t>
+  </si>
+  <si>
+    <t>10:20:24</t>
+  </si>
+  <si>
+    <t>13:31:48</t>
+  </si>
+  <si>
+    <t>14:10:12</t>
+  </si>
+  <si>
+    <t>16:15:00</t>
+  </si>
+  <si>
+    <t>04:18:36</t>
+  </si>
+  <si>
+    <t>13:43:48</t>
+  </si>
+  <si>
+    <t>05:33:00</t>
+  </si>
+  <si>
+    <t>11:10:48</t>
+  </si>
+  <si>
+    <t>08:21:00</t>
+  </si>
+  <si>
+    <t>Zapata Marcelo</t>
+  </si>
+  <si>
+    <t>04:12:36</t>
+  </si>
+  <si>
+    <t>10:30:36</t>
+  </si>
+  <si>
+    <t>09:54:00</t>
+  </si>
+  <si>
+    <t>11:24:00</t>
+  </si>
+  <si>
+    <t>04:15:36</t>
+  </si>
+  <si>
+    <t>19:55:48</t>
+  </si>
+  <si>
+    <t>12:15:36</t>
+  </si>
+  <si>
+    <t>18:08:24</t>
+  </si>
+  <si>
+    <t>16:47:24</t>
+  </si>
+  <si>
+    <t>09:40:48</t>
+  </si>
+  <si>
+    <t>24:54:36</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>14:30:00</t>
+  </si>
+  <si>
+    <t>15:18:00</t>
+  </si>
+  <si>
+    <t>17:38:24</t>
+  </si>
+  <si>
+    <t>12:19:48</t>
+  </si>
+  <si>
+    <t>00:45:36</t>
+  </si>
+  <si>
+    <t>11:46:12</t>
+  </si>
+  <si>
+    <t>Bonffantino Esteban</t>
+  </si>
+  <si>
+    <t>05:24:36</t>
+  </si>
+  <si>
+    <t>14:25:12</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>13:01:12</t>
+  </si>
+  <si>
+    <t>19:56:24</t>
+  </si>
+  <si>
+    <t>14:17:24</t>
+  </si>
+  <si>
+    <t>16:40:48</t>
+  </si>
+  <si>
+    <t>04:32:24</t>
+  </si>
+  <si>
+    <t>14:33:36</t>
+  </si>
+  <si>
+    <t>11:01:48</t>
+  </si>
+  <si>
+    <t>40:25:48</t>
+  </si>
+  <si>
+    <t>02:27:00</t>
+  </si>
+  <si>
+    <t>08:41:24</t>
+  </si>
+  <si>
+    <t>15:07:12</t>
+  </si>
+  <si>
+    <t>00:22:12</t>
+  </si>
+  <si>
+    <t>10:54:00</t>
+  </si>
+  <si>
+    <t>08:15:00</t>
+  </si>
+  <si>
+    <t>18:43:12</t>
+  </si>
+  <si>
+    <t>19:28:48</t>
+  </si>
+  <si>
+    <t>19:28:12</t>
+  </si>
+  <si>
+    <t>18:16:12</t>
+  </si>
+  <si>
+    <t>10:16:48</t>
+  </si>
+  <si>
+    <t>Morales Jose Luis</t>
+  </si>
+  <si>
+    <t>05:40:48</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +2076,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2104,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K218"/>
+  <dimension ref="A1:K321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="K211" sqref="K211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8056,7 +8384,7 @@
         <v>10</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="K170" t="s">
         <v>14</v>
@@ -9739,13 +10067,3621 @@
         <v>1631.78</v>
       </c>
       <c r="K218" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>11</v>
+      </c>
+      <c r="B219" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" t="s">
+        <v>14</v>
+      </c>
+      <c r="E219" t="s">
+        <v>15</v>
+      </c>
+      <c r="F219" t="s">
+        <v>14</v>
+      </c>
+      <c r="G219" t="s">
+        <v>14</v>
+      </c>
+      <c r="H219" t="s">
+        <v>562</v>
+      </c>
+      <c r="I219">
+        <v>4</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>11</v>
+      </c>
+      <c r="B220" t="s">
+        <v>18</v>
+      </c>
+      <c r="C220" t="s">
+        <v>18</v>
+      </c>
+      <c r="D220" t="s">
+        <v>14</v>
+      </c>
+      <c r="E220" t="s">
+        <v>19</v>
+      </c>
+      <c r="F220" t="s">
+        <v>14</v>
+      </c>
+      <c r="G220" t="s">
+        <v>14</v>
+      </c>
+      <c r="H220" t="s">
+        <v>563</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220">
+        <v>136.66</v>
+      </c>
+      <c r="K220" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221" t="s">
+        <v>21</v>
+      </c>
+      <c r="C221" t="s">
+        <v>22</v>
+      </c>
+      <c r="D221" t="s">
+        <v>14</v>
+      </c>
+      <c r="E221" t="s">
+        <v>23</v>
+      </c>
+      <c r="F221" t="s">
+        <v>14</v>
+      </c>
+      <c r="G221" t="s">
+        <v>14</v>
+      </c>
+      <c r="H221" t="s">
+        <v>564</v>
+      </c>
+      <c r="I221">
+        <v>5</v>
+      </c>
+      <c r="J221">
+        <v>830</v>
+      </c>
+      <c r="K221" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>11</v>
+      </c>
+      <c r="B222" t="s">
+        <v>489</v>
+      </c>
+      <c r="C222" t="s">
+        <v>26</v>
+      </c>
+      <c r="D222" t="s">
+        <v>14</v>
+      </c>
+      <c r="E222" t="s">
+        <v>27</v>
+      </c>
+      <c r="F222" t="s">
+        <v>14</v>
+      </c>
+      <c r="G222" t="s">
+        <v>14</v>
+      </c>
+      <c r="H222" t="s">
+        <v>565</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222">
+        <v>493</v>
+      </c>
+      <c r="K222" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223" t="s">
+        <v>29</v>
+      </c>
+      <c r="C223" t="s">
+        <v>30</v>
+      </c>
+      <c r="D223" t="s">
+        <v>14</v>
+      </c>
+      <c r="E223" t="s">
+        <v>31</v>
+      </c>
+      <c r="F223" t="s">
+        <v>14</v>
+      </c>
+      <c r="G223" t="s">
+        <v>14</v>
+      </c>
+      <c r="H223" t="s">
+        <v>566</v>
+      </c>
+      <c r="I223">
+        <v>4</v>
+      </c>
+      <c r="J223">
+        <v>290.94</v>
+      </c>
+      <c r="K223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224" t="s">
+        <v>33</v>
+      </c>
+      <c r="C224" t="s">
+        <v>34</v>
+      </c>
+      <c r="D224" t="s">
+        <v>14</v>
+      </c>
+      <c r="E224" t="s">
+        <v>35</v>
+      </c>
+      <c r="F224" t="s">
+        <v>14</v>
+      </c>
+      <c r="G224" t="s">
+        <v>14</v>
+      </c>
+      <c r="H224" t="s">
+        <v>567</v>
+      </c>
+      <c r="I224">
+        <v>3</v>
+      </c>
+      <c r="J224">
+        <v>561</v>
+      </c>
+      <c r="K224" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>11</v>
+      </c>
+      <c r="B225" t="s">
+        <v>418</v>
+      </c>
+      <c r="C225" t="s">
+        <v>38</v>
+      </c>
+      <c r="D225" t="s">
+        <v>14</v>
+      </c>
+      <c r="E225" t="s">
+        <v>39</v>
+      </c>
+      <c r="F225" t="s">
+        <v>14</v>
+      </c>
+      <c r="G225" t="s">
+        <v>14</v>
+      </c>
+      <c r="H225" t="s">
+        <v>568</v>
+      </c>
+      <c r="I225">
+        <v>10</v>
+      </c>
+      <c r="J225">
+        <v>653.38</v>
+      </c>
+      <c r="K225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" t="s">
+        <v>41</v>
+      </c>
+      <c r="C226" t="s">
+        <v>42</v>
+      </c>
+      <c r="D226" t="s">
+        <v>14</v>
+      </c>
+      <c r="E226" t="s">
+        <v>43</v>
+      </c>
+      <c r="F226" t="s">
+        <v>14</v>
+      </c>
+      <c r="G226" t="s">
+        <v>14</v>
+      </c>
+      <c r="H226" t="s">
+        <v>569</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226">
+        <v>97.94</v>
+      </c>
+      <c r="K226" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>11</v>
+      </c>
+      <c r="B227" t="s">
+        <v>45</v>
+      </c>
+      <c r="C227" t="s">
+        <v>46</v>
+      </c>
+      <c r="D227" t="s">
+        <v>14</v>
+      </c>
+      <c r="E227" t="s">
+        <v>47</v>
+      </c>
+      <c r="F227" t="s">
+        <v>14</v>
+      </c>
+      <c r="G227" t="s">
+        <v>14</v>
+      </c>
+      <c r="H227" t="s">
+        <v>570</v>
+      </c>
+      <c r="I227">
+        <v>6</v>
+      </c>
+      <c r="J227">
+        <v>793.75</v>
+      </c>
+      <c r="K227" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228" t="s">
+        <v>49</v>
+      </c>
+      <c r="C228" t="s">
+        <v>50</v>
+      </c>
+      <c r="D228" t="s">
+        <v>14</v>
+      </c>
+      <c r="E228" t="s">
+        <v>51</v>
+      </c>
+      <c r="F228" t="s">
+        <v>14</v>
+      </c>
+      <c r="G228" t="s">
+        <v>14</v>
+      </c>
+      <c r="H228" t="s">
+        <v>571</v>
+      </c>
+      <c r="I228">
+        <v>3</v>
+      </c>
+      <c r="J228">
+        <v>751</v>
+      </c>
+      <c r="K228" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>11</v>
+      </c>
+      <c r="B229" t="s">
+        <v>238</v>
+      </c>
+      <c r="C229" t="s">
+        <v>54</v>
+      </c>
+      <c r="D229" t="s">
+        <v>14</v>
+      </c>
+      <c r="E229" t="s">
+        <v>55</v>
+      </c>
+      <c r="F229" t="s">
+        <v>14</v>
+      </c>
+      <c r="G229" t="s">
+        <v>14</v>
+      </c>
+      <c r="H229" t="s">
+        <v>572</v>
+      </c>
+      <c r="I229">
+        <v>6</v>
+      </c>
+      <c r="J229">
+        <v>1004</v>
+      </c>
+      <c r="K229" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" t="s">
+        <v>57</v>
+      </c>
+      <c r="C230" t="s">
+        <v>58</v>
+      </c>
+      <c r="D230" t="s">
+        <v>14</v>
+      </c>
+      <c r="E230" t="s">
+        <v>59</v>
+      </c>
+      <c r="F230" t="s">
+        <v>14</v>
+      </c>
+      <c r="G230" t="s">
+        <v>14</v>
+      </c>
+      <c r="H230" t="s">
+        <v>573</v>
+      </c>
+      <c r="I230">
+        <v>3</v>
+      </c>
+      <c r="J230">
+        <v>526.53</v>
+      </c>
+      <c r="K230" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>11</v>
+      </c>
+      <c r="B231" t="s">
+        <v>61</v>
+      </c>
+      <c r="C231" t="s">
+        <v>62</v>
+      </c>
+      <c r="D231" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231" t="s">
+        <v>63</v>
+      </c>
+      <c r="F231" t="s">
+        <v>14</v>
+      </c>
+      <c r="G231" t="s">
+        <v>14</v>
+      </c>
+      <c r="H231" t="s">
+        <v>574</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>11</v>
+      </c>
+      <c r="B232" t="s">
+        <v>65</v>
+      </c>
+      <c r="C232" t="s">
+        <v>66</v>
+      </c>
+      <c r="D232" t="s">
+        <v>14</v>
+      </c>
+      <c r="E232" t="s">
+        <v>67</v>
+      </c>
+      <c r="F232" t="s">
+        <v>14</v>
+      </c>
+      <c r="G232" t="s">
+        <v>14</v>
+      </c>
+      <c r="H232" t="s">
+        <v>575</v>
+      </c>
+      <c r="I232">
+        <v>3</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233" t="s">
+        <v>69</v>
+      </c>
+      <c r="C233" t="s">
+        <v>70</v>
+      </c>
+      <c r="D233" t="s">
+        <v>14</v>
+      </c>
+      <c r="E233" t="s">
+        <v>71</v>
+      </c>
+      <c r="F233" t="s">
+        <v>14</v>
+      </c>
+      <c r="G233" t="s">
+        <v>14</v>
+      </c>
+      <c r="H233" t="s">
+        <v>576</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>514</v>
+      </c>
+      <c r="K233" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>11</v>
+      </c>
+      <c r="B234" t="s">
+        <v>73</v>
+      </c>
+      <c r="C234" t="s">
+        <v>74</v>
+      </c>
+      <c r="D234" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234" t="s">
+        <v>75</v>
+      </c>
+      <c r="F234" t="s">
+        <v>14</v>
+      </c>
+      <c r="G234" t="s">
+        <v>14</v>
+      </c>
+      <c r="H234" t="s">
+        <v>577</v>
+      </c>
+      <c r="I234">
+        <v>5</v>
+      </c>
+      <c r="J234">
+        <v>885.75</v>
+      </c>
+      <c r="K234" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>11</v>
+      </c>
+      <c r="B235" t="s">
+        <v>77</v>
+      </c>
+      <c r="C235" t="s">
+        <v>78</v>
+      </c>
+      <c r="D235" t="s">
+        <v>14</v>
+      </c>
+      <c r="E235" t="s">
+        <v>79</v>
+      </c>
+      <c r="F235" t="s">
+        <v>14</v>
+      </c>
+      <c r="G235" t="s">
+        <v>14</v>
+      </c>
+      <c r="H235" t="s">
+        <v>578</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235">
+        <v>431</v>
+      </c>
+      <c r="K235" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" t="s">
+        <v>81</v>
+      </c>
+      <c r="C236" t="s">
+        <v>82</v>
+      </c>
+      <c r="D236" t="s">
+        <v>14</v>
+      </c>
+      <c r="E236" t="s">
+        <v>83</v>
+      </c>
+      <c r="F236" t="s">
+        <v>14</v>
+      </c>
+      <c r="G236" t="s">
+        <v>14</v>
+      </c>
+      <c r="H236" t="s">
+        <v>579</v>
+      </c>
+      <c r="I236">
+        <v>2</v>
+      </c>
+      <c r="J236">
+        <v>679</v>
+      </c>
+      <c r="K236" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>11</v>
+      </c>
+      <c r="B237" t="s">
+        <v>85</v>
+      </c>
+      <c r="C237" t="s">
+        <v>86</v>
+      </c>
+      <c r="D237" t="s">
+        <v>14</v>
+      </c>
+      <c r="E237" t="s">
+        <v>87</v>
+      </c>
+      <c r="F237" t="s">
+        <v>14</v>
+      </c>
+      <c r="G237" t="s">
+        <v>14</v>
+      </c>
+      <c r="H237" t="s">
+        <v>580</v>
+      </c>
+      <c r="I237">
+        <v>3</v>
+      </c>
+      <c r="J237">
+        <v>920.66</v>
+      </c>
+      <c r="K237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238" t="s">
+        <v>89</v>
+      </c>
+      <c r="C238" t="s">
+        <v>90</v>
+      </c>
+      <c r="D238" t="s">
+        <v>14</v>
+      </c>
+      <c r="E238" t="s">
+        <v>91</v>
+      </c>
+      <c r="F238" t="s">
+        <v>14</v>
+      </c>
+      <c r="G238" t="s">
+        <v>14</v>
+      </c>
+      <c r="H238" t="s">
+        <v>581</v>
+      </c>
+      <c r="I238">
+        <v>4</v>
+      </c>
+      <c r="J238">
+        <v>815.13</v>
+      </c>
+      <c r="K238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" t="s">
+        <v>93</v>
+      </c>
+      <c r="C239" t="s">
+        <v>94</v>
+      </c>
+      <c r="D239" t="s">
+        <v>14</v>
+      </c>
+      <c r="E239" t="s">
+        <v>95</v>
+      </c>
+      <c r="F239" t="s">
+        <v>14</v>
+      </c>
+      <c r="G239" t="s">
+        <v>14</v>
+      </c>
+      <c r="H239" t="s">
+        <v>582</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>11</v>
+      </c>
+      <c r="B240" t="s">
+        <v>100</v>
+      </c>
+      <c r="C240" t="s">
+        <v>101</v>
+      </c>
+      <c r="D240" t="s">
+        <v>14</v>
+      </c>
+      <c r="E240" t="s">
+        <v>102</v>
+      </c>
+      <c r="F240" t="s">
+        <v>14</v>
+      </c>
+      <c r="G240" t="s">
+        <v>14</v>
+      </c>
+      <c r="H240" t="s">
+        <v>583</v>
+      </c>
+      <c r="I240">
+        <v>2</v>
+      </c>
+      <c r="J240">
+        <v>373</v>
+      </c>
+      <c r="K240" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" t="s">
+        <v>104</v>
+      </c>
+      <c r="C241" t="s">
+        <v>105</v>
+      </c>
+      <c r="D241" t="s">
+        <v>14</v>
+      </c>
+      <c r="E241" t="s">
+        <v>106</v>
+      </c>
+      <c r="F241" t="s">
+        <v>14</v>
+      </c>
+      <c r="G241" t="s">
+        <v>14</v>
+      </c>
+      <c r="H241" t="s">
+        <v>584</v>
+      </c>
+      <c r="I241">
+        <v>3</v>
+      </c>
+      <c r="J241">
+        <v>606</v>
+      </c>
+      <c r="K241" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>11</v>
+      </c>
+      <c r="B242" t="s">
+        <v>108</v>
+      </c>
+      <c r="C242" t="s">
+        <v>109</v>
+      </c>
+      <c r="D242" t="s">
+        <v>14</v>
+      </c>
+      <c r="E242" t="s">
+        <v>110</v>
+      </c>
+      <c r="F242" t="s">
+        <v>14</v>
+      </c>
+      <c r="G242" t="s">
+        <v>14</v>
+      </c>
+      <c r="H242" t="s">
+        <v>585</v>
+      </c>
+      <c r="I242">
+        <v>9</v>
+      </c>
+      <c r="J242">
+        <v>655</v>
+      </c>
+      <c r="K242" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>11</v>
+      </c>
+      <c r="B243" t="s">
+        <v>112</v>
+      </c>
+      <c r="C243" t="s">
+        <v>113</v>
+      </c>
+      <c r="D243" t="s">
+        <v>14</v>
+      </c>
+      <c r="E243" t="s">
+        <v>114</v>
+      </c>
+      <c r="F243" t="s">
+        <v>14</v>
+      </c>
+      <c r="G243" t="s">
+        <v>14</v>
+      </c>
+      <c r="H243" t="s">
+        <v>586</v>
+      </c>
+      <c r="I243">
+        <v>4</v>
+      </c>
+      <c r="J243">
+        <v>731.56</v>
+      </c>
+      <c r="K243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244" t="s">
+        <v>587</v>
+      </c>
+      <c r="C244" t="s">
+        <v>116</v>
+      </c>
+      <c r="D244" t="s">
+        <v>14</v>
+      </c>
+      <c r="E244" t="s">
+        <v>117</v>
+      </c>
+      <c r="F244" t="s">
+        <v>14</v>
+      </c>
+      <c r="G244" t="s">
+        <v>14</v>
+      </c>
+      <c r="H244" t="s">
+        <v>588</v>
+      </c>
+      <c r="I244">
+        <v>3</v>
+      </c>
+      <c r="J244">
+        <v>167</v>
+      </c>
+      <c r="K244" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>11</v>
+      </c>
+      <c r="B245" t="s">
+        <v>119</v>
+      </c>
+      <c r="C245" t="s">
+        <v>120</v>
+      </c>
+      <c r="D245" t="s">
+        <v>14</v>
+      </c>
+      <c r="E245" t="s">
+        <v>121</v>
+      </c>
+      <c r="F245" t="s">
+        <v>14</v>
+      </c>
+      <c r="G245" t="s">
+        <v>14</v>
+      </c>
+      <c r="H245" t="s">
+        <v>589</v>
+      </c>
+      <c r="I245">
+        <v>2</v>
+      </c>
+      <c r="J245">
+        <v>409</v>
+      </c>
+      <c r="K245" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" t="s">
+        <v>123</v>
+      </c>
+      <c r="C246" t="s">
+        <v>124</v>
+      </c>
+      <c r="D246" t="s">
+        <v>14</v>
+      </c>
+      <c r="E246" t="s">
+        <v>125</v>
+      </c>
+      <c r="F246" t="s">
+        <v>14</v>
+      </c>
+      <c r="G246" t="s">
+        <v>14</v>
+      </c>
+      <c r="H246" t="s">
+        <v>590</v>
+      </c>
+      <c r="I246">
+        <v>2</v>
+      </c>
+      <c r="J246">
+        <v>701.5</v>
+      </c>
+      <c r="K246" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>11</v>
+      </c>
+      <c r="B247" t="s">
+        <v>127</v>
+      </c>
+      <c r="C247" t="s">
+        <v>128</v>
+      </c>
+      <c r="D247" t="s">
+        <v>14</v>
+      </c>
+      <c r="E247" t="s">
+        <v>129</v>
+      </c>
+      <c r="F247" t="s">
+        <v>14</v>
+      </c>
+      <c r="G247" t="s">
+        <v>14</v>
+      </c>
+      <c r="H247" t="s">
+        <v>591</v>
+      </c>
+      <c r="I247">
+        <v>4</v>
+      </c>
+      <c r="J247">
+        <v>160</v>
+      </c>
+      <c r="K247" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>11</v>
+      </c>
+      <c r="B248" t="s">
+        <v>134</v>
+      </c>
+      <c r="C248" t="s">
+        <v>135</v>
+      </c>
+      <c r="D248" t="s">
+        <v>14</v>
+      </c>
+      <c r="E248" t="s">
+        <v>136</v>
+      </c>
+      <c r="F248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G248" t="s">
+        <v>14</v>
+      </c>
+      <c r="H248" t="s">
+        <v>592</v>
+      </c>
+      <c r="I248">
+        <v>6</v>
+      </c>
+      <c r="J248">
+        <v>1121</v>
+      </c>
+      <c r="K248" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" t="s">
+        <v>557</v>
+      </c>
+      <c r="C249" t="s">
+        <v>139</v>
+      </c>
+      <c r="D249" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249" t="s">
+        <v>140</v>
+      </c>
+      <c r="F249" t="s">
+        <v>14</v>
+      </c>
+      <c r="G249" t="s">
+        <v>14</v>
+      </c>
+      <c r="H249" t="s">
+        <v>593</v>
+      </c>
+      <c r="I249">
+        <v>2</v>
+      </c>
+      <c r="J249">
+        <v>689</v>
+      </c>
+      <c r="K249" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>11</v>
+      </c>
+      <c r="B250" t="s">
+        <v>142</v>
+      </c>
+      <c r="C250" t="s">
+        <v>143</v>
+      </c>
+      <c r="D250" t="s">
+        <v>14</v>
+      </c>
+      <c r="E250" t="s">
+        <v>144</v>
+      </c>
+      <c r="F250" t="s">
+        <v>14</v>
+      </c>
+      <c r="G250" t="s">
+        <v>14</v>
+      </c>
+      <c r="H250" t="s">
+        <v>594</v>
+      </c>
+      <c r="I250">
+        <v>2</v>
+      </c>
+      <c r="J250">
+        <v>55085.88</v>
+      </c>
+      <c r="K250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>11</v>
+      </c>
+      <c r="B251" t="s">
+        <v>146</v>
+      </c>
+      <c r="C251" t="s">
+        <v>147</v>
+      </c>
+      <c r="D251" t="s">
+        <v>14</v>
+      </c>
+      <c r="E251" t="s">
+        <v>148</v>
+      </c>
+      <c r="F251" t="s">
+        <v>14</v>
+      </c>
+      <c r="G251" t="s">
+        <v>14</v>
+      </c>
+      <c r="H251" t="s">
+        <v>595</v>
+      </c>
+      <c r="I251">
+        <v>3</v>
+      </c>
+      <c r="J251">
+        <v>877.38</v>
+      </c>
+      <c r="K251" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252" t="s">
+        <v>525</v>
+      </c>
+      <c r="C252" t="s">
+        <v>151</v>
+      </c>
+      <c r="D252" t="s">
+        <v>14</v>
+      </c>
+      <c r="E252" t="s">
+        <v>152</v>
+      </c>
+      <c r="F252" t="s">
+        <v>14</v>
+      </c>
+      <c r="G252" t="s">
+        <v>14</v>
+      </c>
+      <c r="H252" t="s">
+        <v>596</v>
+      </c>
+      <c r="I252">
+        <v>5</v>
+      </c>
+      <c r="J252">
+        <v>434.27</v>
+      </c>
+      <c r="K252" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253" t="s">
+        <v>154</v>
+      </c>
+      <c r="C253" t="s">
+        <v>155</v>
+      </c>
+      <c r="D253" t="s">
+        <v>14</v>
+      </c>
+      <c r="E253" t="s">
+        <v>156</v>
+      </c>
+      <c r="F253" t="s">
+        <v>14</v>
+      </c>
+      <c r="G253" t="s">
+        <v>14</v>
+      </c>
+      <c r="H253" t="s">
+        <v>597</v>
+      </c>
+      <c r="I253">
+        <v>4</v>
+      </c>
+      <c r="J253">
+        <v>961</v>
+      </c>
+      <c r="K253" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" t="s">
+        <v>158</v>
+      </c>
+      <c r="C254" t="s">
+        <v>159</v>
+      </c>
+      <c r="D254" t="s">
+        <v>14</v>
+      </c>
+      <c r="E254" t="s">
+        <v>160</v>
+      </c>
+      <c r="F254" t="s">
+        <v>14</v>
+      </c>
+      <c r="G254" t="s">
+        <v>14</v>
+      </c>
+      <c r="H254" t="s">
+        <v>598</v>
+      </c>
+      <c r="I254">
+        <v>3</v>
+      </c>
+      <c r="J254">
+        <v>796</v>
+      </c>
+      <c r="K254" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>11</v>
+      </c>
+      <c r="B255" t="s">
+        <v>162</v>
+      </c>
+      <c r="C255" t="s">
+        <v>163</v>
+      </c>
+      <c r="D255" t="s">
+        <v>14</v>
+      </c>
+      <c r="E255" t="s">
+        <v>164</v>
+      </c>
+      <c r="F255" t="s">
+        <v>14</v>
+      </c>
+      <c r="G255" t="s">
+        <v>14</v>
+      </c>
+      <c r="H255" t="s">
+        <v>599</v>
+      </c>
+      <c r="I255">
+        <v>5</v>
+      </c>
+      <c r="J255">
+        <v>699.72</v>
+      </c>
+      <c r="K255" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>11</v>
+      </c>
+      <c r="B256" t="s">
+        <v>166</v>
+      </c>
+      <c r="C256" t="s">
+        <v>167</v>
+      </c>
+      <c r="D256" t="s">
+        <v>14</v>
+      </c>
+      <c r="E256" t="s">
+        <v>168</v>
+      </c>
+      <c r="F256" t="s">
+        <v>14</v>
+      </c>
+      <c r="G256" t="s">
+        <v>14</v>
+      </c>
+      <c r="H256" t="s">
+        <v>600</v>
+      </c>
+      <c r="I256">
+        <v>6</v>
+      </c>
+      <c r="J256">
+        <v>810.68</v>
+      </c>
+      <c r="K256" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>11</v>
+      </c>
+      <c r="B257" t="s">
+        <v>170</v>
+      </c>
+      <c r="C257" t="s">
+        <v>171</v>
+      </c>
+      <c r="D257" t="s">
+        <v>14</v>
+      </c>
+      <c r="E257" t="s">
+        <v>172</v>
+      </c>
+      <c r="F257" t="s">
+        <v>14</v>
+      </c>
+      <c r="G257" t="s">
+        <v>14</v>
+      </c>
+      <c r="H257" t="s">
+        <v>601</v>
+      </c>
+      <c r="I257">
+        <v>5</v>
+      </c>
+      <c r="J257">
+        <v>799</v>
+      </c>
+      <c r="K257" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>11</v>
+      </c>
+      <c r="B258" t="s">
+        <v>174</v>
+      </c>
+      <c r="C258" t="s">
+        <v>175</v>
+      </c>
+      <c r="D258" t="s">
+        <v>14</v>
+      </c>
+      <c r="E258" t="s">
+        <v>176</v>
+      </c>
+      <c r="F258" t="s">
+        <v>14</v>
+      </c>
+      <c r="G258" t="s">
+        <v>14</v>
+      </c>
+      <c r="H258" t="s">
+        <v>602</v>
+      </c>
+      <c r="I258">
+        <v>3</v>
+      </c>
+      <c r="J258">
+        <v>771</v>
+      </c>
+      <c r="K258" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" t="s">
+        <v>178</v>
+      </c>
+      <c r="C259" t="s">
+        <v>179</v>
+      </c>
+      <c r="D259" t="s">
+        <v>14</v>
+      </c>
+      <c r="E259" t="s">
+        <v>180</v>
+      </c>
+      <c r="F259" t="s">
+        <v>14</v>
+      </c>
+      <c r="G259" t="s">
+        <v>14</v>
+      </c>
+      <c r="H259" t="s">
+        <v>603</v>
+      </c>
+      <c r="I259">
+        <v>4</v>
+      </c>
+      <c r="J259">
+        <v>765.81</v>
+      </c>
+      <c r="K259" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>11</v>
+      </c>
+      <c r="B260" t="s">
+        <v>182</v>
+      </c>
+      <c r="C260" t="s">
+        <v>183</v>
+      </c>
+      <c r="D260" t="s">
+        <v>14</v>
+      </c>
+      <c r="E260" t="s">
+        <v>184</v>
+      </c>
+      <c r="F260" t="s">
+        <v>14</v>
+      </c>
+      <c r="G260" t="s">
+        <v>14</v>
+      </c>
+      <c r="H260" t="s">
+        <v>604</v>
+      </c>
+      <c r="I260">
+        <v>2</v>
+      </c>
+      <c r="J260">
+        <v>434.59</v>
+      </c>
+      <c r="K260" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>11</v>
+      </c>
+      <c r="B261" t="s">
+        <v>186</v>
+      </c>
+      <c r="C261" t="s">
+        <v>187</v>
+      </c>
+      <c r="D261" t="s">
+        <v>14</v>
+      </c>
+      <c r="E261" t="s">
+        <v>188</v>
+      </c>
+      <c r="F261" t="s">
+        <v>14</v>
+      </c>
+      <c r="G261" t="s">
+        <v>14</v>
+      </c>
+      <c r="H261" t="s">
+        <v>605</v>
+      </c>
+      <c r="I261">
+        <v>6</v>
+      </c>
+      <c r="J261">
+        <v>802</v>
+      </c>
+      <c r="K261" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262" t="s">
+        <v>190</v>
+      </c>
+      <c r="C262" t="s">
+        <v>191</v>
+      </c>
+      <c r="D262" t="s">
+        <v>14</v>
+      </c>
+      <c r="E262" t="s">
+        <v>192</v>
+      </c>
+      <c r="F262" t="s">
+        <v>14</v>
+      </c>
+      <c r="G262" t="s">
+        <v>14</v>
+      </c>
+      <c r="H262" t="s">
+        <v>606</v>
+      </c>
+      <c r="I262">
+        <v>5</v>
+      </c>
+      <c r="J262">
+        <v>1150</v>
+      </c>
+      <c r="K262" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>11</v>
+      </c>
+      <c r="B263" t="s">
+        <v>194</v>
+      </c>
+      <c r="C263" t="s">
+        <v>195</v>
+      </c>
+      <c r="D263" t="s">
+        <v>14</v>
+      </c>
+      <c r="E263" t="s">
+        <v>196</v>
+      </c>
+      <c r="F263" t="s">
+        <v>14</v>
+      </c>
+      <c r="G263" t="s">
+        <v>14</v>
+      </c>
+      <c r="H263" t="s">
+        <v>607</v>
+      </c>
+      <c r="I263">
+        <v>4</v>
+      </c>
+      <c r="J263">
+        <v>940.03</v>
+      </c>
+      <c r="K263" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>11</v>
+      </c>
+      <c r="B264" t="s">
+        <v>198</v>
+      </c>
+      <c r="C264" t="s">
+        <v>199</v>
+      </c>
+      <c r="D264" t="s">
+        <v>14</v>
+      </c>
+      <c r="E264" t="s">
+        <v>200</v>
+      </c>
+      <c r="F264" t="s">
+        <v>14</v>
+      </c>
+      <c r="G264" t="s">
+        <v>14</v>
+      </c>
+      <c r="H264" t="s">
+        <v>608</v>
+      </c>
+      <c r="I264">
+        <v>4</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>11</v>
+      </c>
+      <c r="B265" t="s">
+        <v>202</v>
+      </c>
+      <c r="C265" t="s">
+        <v>203</v>
+      </c>
+      <c r="D265" t="s">
+        <v>14</v>
+      </c>
+      <c r="E265" t="s">
+        <v>204</v>
+      </c>
+      <c r="F265" t="s">
+        <v>14</v>
+      </c>
+      <c r="G265" t="s">
+        <v>14</v>
+      </c>
+      <c r="H265" t="s">
+        <v>609</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>513</v>
+      </c>
+      <c r="K265" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266" t="s">
+        <v>206</v>
+      </c>
+      <c r="C266" t="s">
+        <v>207</v>
+      </c>
+      <c r="D266" t="s">
+        <v>14</v>
+      </c>
+      <c r="E266" t="s">
+        <v>208</v>
+      </c>
+      <c r="F266" t="s">
+        <v>14</v>
+      </c>
+      <c r="G266" t="s">
+        <v>14</v>
+      </c>
+      <c r="H266" t="s">
+        <v>610</v>
+      </c>
+      <c r="I266">
+        <v>3</v>
+      </c>
+      <c r="J266">
+        <v>985</v>
+      </c>
+      <c r="K266" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>11</v>
+      </c>
+      <c r="B267" t="s">
+        <v>210</v>
+      </c>
+      <c r="C267" t="s">
+        <v>211</v>
+      </c>
+      <c r="D267" t="s">
+        <v>14</v>
+      </c>
+      <c r="E267" t="s">
+        <v>212</v>
+      </c>
+      <c r="F267" t="s">
+        <v>14</v>
+      </c>
+      <c r="G267" t="s">
+        <v>14</v>
+      </c>
+      <c r="H267" t="s">
+        <v>611</v>
+      </c>
+      <c r="I267">
+        <v>3</v>
+      </c>
+      <c r="J267">
+        <v>942.6</v>
+      </c>
+      <c r="K267" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>11</v>
+      </c>
+      <c r="B268" t="s">
+        <v>214</v>
+      </c>
+      <c r="C268" t="s">
+        <v>215</v>
+      </c>
+      <c r="D268" t="s">
+        <v>14</v>
+      </c>
+      <c r="E268" t="s">
+        <v>216</v>
+      </c>
+      <c r="F268" t="s">
+        <v>14</v>
+      </c>
+      <c r="G268" t="s">
+        <v>14</v>
+      </c>
+      <c r="H268" t="s">
+        <v>612</v>
+      </c>
+      <c r="I268">
+        <v>2</v>
+      </c>
+      <c r="J268">
+        <v>706.51</v>
+      </c>
+      <c r="K268" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>11</v>
+      </c>
+      <c r="B269" t="s">
+        <v>222</v>
+      </c>
+      <c r="C269" t="s">
+        <v>223</v>
+      </c>
+      <c r="D269" t="s">
+        <v>14</v>
+      </c>
+      <c r="E269" t="s">
+        <v>224</v>
+      </c>
+      <c r="F269" t="s">
+        <v>14</v>
+      </c>
+      <c r="G269" t="s">
+        <v>14</v>
+      </c>
+      <c r="H269" t="s">
+        <v>613</v>
+      </c>
+      <c r="I269">
+        <v>3</v>
+      </c>
+      <c r="J269">
+        <v>719</v>
+      </c>
+      <c r="K269" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>11</v>
+      </c>
+      <c r="B270" t="s">
+        <v>226</v>
+      </c>
+      <c r="C270" t="s">
+        <v>227</v>
+      </c>
+      <c r="D270" t="s">
+        <v>14</v>
+      </c>
+      <c r="E270" t="s">
+        <v>228</v>
+      </c>
+      <c r="F270" t="s">
+        <v>14</v>
+      </c>
+      <c r="G270" t="s">
+        <v>14</v>
+      </c>
+      <c r="H270" t="s">
+        <v>614</v>
+      </c>
+      <c r="I270">
+        <v>3</v>
+      </c>
+      <c r="J270">
+        <v>977</v>
+      </c>
+      <c r="K270" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>11</v>
+      </c>
+      <c r="B271" t="s">
+        <v>230</v>
+      </c>
+      <c r="C271" t="s">
+        <v>231</v>
+      </c>
+      <c r="D271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E271" t="s">
+        <v>232</v>
+      </c>
+      <c r="F271" t="s">
+        <v>14</v>
+      </c>
+      <c r="G271" t="s">
+        <v>14</v>
+      </c>
+      <c r="H271" t="s">
+        <v>615</v>
+      </c>
+      <c r="I271">
+        <v>4</v>
+      </c>
+      <c r="J271">
+        <v>594</v>
+      </c>
+      <c r="K271" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>11</v>
+      </c>
+      <c r="B272" t="s">
+        <v>234</v>
+      </c>
+      <c r="C272" t="s">
+        <v>235</v>
+      </c>
+      <c r="D272" t="s">
+        <v>14</v>
+      </c>
+      <c r="E272" t="s">
+        <v>236</v>
+      </c>
+      <c r="F272" t="s">
+        <v>14</v>
+      </c>
+      <c r="G272" t="s">
+        <v>14</v>
+      </c>
+      <c r="H272" t="s">
+        <v>616</v>
+      </c>
+      <c r="I272">
+        <v>4</v>
+      </c>
+      <c r="J272">
+        <v>825</v>
+      </c>
+      <c r="K272" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>11</v>
+      </c>
+      <c r="B273" t="s">
+        <v>53</v>
+      </c>
+      <c r="C273" t="s">
+        <v>239</v>
+      </c>
+      <c r="D273" t="s">
+        <v>14</v>
+      </c>
+      <c r="E273" t="s">
+        <v>240</v>
+      </c>
+      <c r="F273" t="s">
+        <v>14</v>
+      </c>
+      <c r="G273" t="s">
+        <v>14</v>
+      </c>
+      <c r="H273" t="s">
+        <v>617</v>
+      </c>
+      <c r="I273">
+        <v>4</v>
+      </c>
+      <c r="J273">
+        <v>717.78</v>
+      </c>
+      <c r="K273" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274" t="s">
+        <v>242</v>
+      </c>
+      <c r="C274" t="s">
+        <v>243</v>
+      </c>
+      <c r="D274" t="s">
+        <v>14</v>
+      </c>
+      <c r="E274" t="s">
+        <v>244</v>
+      </c>
+      <c r="F274" t="s">
+        <v>14</v>
+      </c>
+      <c r="G274" t="s">
+        <v>14</v>
+      </c>
+      <c r="H274" t="s">
+        <v>618</v>
+      </c>
+      <c r="I274">
+        <v>4</v>
+      </c>
+      <c r="J274">
+        <v>435.75</v>
+      </c>
+      <c r="K274" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>11</v>
+      </c>
+      <c r="B275" t="s">
+        <v>246</v>
+      </c>
+      <c r="C275" t="s">
+        <v>247</v>
+      </c>
+      <c r="D275" t="s">
+        <v>14</v>
+      </c>
+      <c r="E275" t="s">
+        <v>248</v>
+      </c>
+      <c r="F275" t="s">
+        <v>14</v>
+      </c>
+      <c r="G275" t="s">
+        <v>14</v>
+      </c>
+      <c r="H275" t="s">
+        <v>619</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>258</v>
+      </c>
+      <c r="K275" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>11</v>
+      </c>
+      <c r="B276" t="s">
+        <v>250</v>
+      </c>
+      <c r="C276" t="s">
+        <v>251</v>
+      </c>
+      <c r="D276" t="s">
+        <v>14</v>
+      </c>
+      <c r="E276" t="s">
+        <v>252</v>
+      </c>
+      <c r="F276" t="s">
+        <v>14</v>
+      </c>
+      <c r="G276" t="s">
+        <v>14</v>
+      </c>
+      <c r="H276" t="s">
+        <v>620</v>
+      </c>
+      <c r="I276">
+        <v>4</v>
+      </c>
+      <c r="J276">
+        <v>797</v>
+      </c>
+      <c r="K276" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" t="s">
+        <v>254</v>
+      </c>
+      <c r="C277" t="s">
+        <v>255</v>
+      </c>
+      <c r="D277" t="s">
+        <v>14</v>
+      </c>
+      <c r="E277" t="s">
+        <v>256</v>
+      </c>
+      <c r="F277" t="s">
+        <v>14</v>
+      </c>
+      <c r="G277" t="s">
+        <v>14</v>
+      </c>
+      <c r="H277" t="s">
+        <v>621</v>
+      </c>
+      <c r="I277">
+        <v>7</v>
+      </c>
+      <c r="J277">
+        <v>82</v>
+      </c>
+      <c r="K277" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>11</v>
+      </c>
+      <c r="B278" t="s">
+        <v>258</v>
+      </c>
+      <c r="C278" t="s">
+        <v>259</v>
+      </c>
+      <c r="D278" t="s">
+        <v>14</v>
+      </c>
+      <c r="E278" t="s">
+        <v>260</v>
+      </c>
+      <c r="F278" t="s">
+        <v>14</v>
+      </c>
+      <c r="G278" t="s">
+        <v>14</v>
+      </c>
+      <c r="H278" t="s">
+        <v>622</v>
+      </c>
+      <c r="I278">
+        <v>3</v>
+      </c>
+      <c r="J278">
+        <v>572</v>
+      </c>
+      <c r="K278" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>11</v>
+      </c>
+      <c r="B279" t="s">
+        <v>262</v>
+      </c>
+      <c r="C279" t="s">
+        <v>263</v>
+      </c>
+      <c r="D279" t="s">
+        <v>14</v>
+      </c>
+      <c r="E279" t="s">
+        <v>264</v>
+      </c>
+      <c r="F279" t="s">
+        <v>14</v>
+      </c>
+      <c r="G279" t="s">
+        <v>14</v>
+      </c>
+      <c r="H279" t="s">
+        <v>623</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280" t="s">
+        <v>624</v>
+      </c>
+      <c r="C280" t="s">
+        <v>267</v>
+      </c>
+      <c r="D280" t="s">
+        <v>14</v>
+      </c>
+      <c r="E280" t="s">
+        <v>268</v>
+      </c>
+      <c r="F280" t="s">
+        <v>14</v>
+      </c>
+      <c r="G280" t="s">
+        <v>14</v>
+      </c>
+      <c r="H280" t="s">
+        <v>625</v>
+      </c>
+      <c r="I280">
+        <v>3</v>
+      </c>
+      <c r="J280">
+        <v>96.88</v>
+      </c>
+      <c r="K280" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>11</v>
+      </c>
+      <c r="B281" t="s">
+        <v>270</v>
+      </c>
+      <c r="C281" t="s">
+        <v>271</v>
+      </c>
+      <c r="D281" t="s">
+        <v>14</v>
+      </c>
+      <c r="E281" t="s">
+        <v>272</v>
+      </c>
+      <c r="F281" t="s">
+        <v>14</v>
+      </c>
+      <c r="G281" t="s">
+        <v>14</v>
+      </c>
+      <c r="H281" t="s">
+        <v>626</v>
+      </c>
+      <c r="I281">
+        <v>2</v>
+      </c>
+      <c r="J281">
+        <v>397</v>
+      </c>
+      <c r="K281" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>11</v>
+      </c>
+      <c r="B282" t="s">
+        <v>274</v>
+      </c>
+      <c r="C282" t="s">
+        <v>275</v>
+      </c>
+      <c r="D282" t="s">
+        <v>14</v>
+      </c>
+      <c r="E282" t="s">
+        <v>276</v>
+      </c>
+      <c r="F282" t="s">
+        <v>14</v>
+      </c>
+      <c r="G282" t="s">
+        <v>14</v>
+      </c>
+      <c r="H282" t="s">
+        <v>627</v>
+      </c>
+      <c r="I282">
+        <v>6</v>
+      </c>
+      <c r="J282">
+        <v>407.38</v>
+      </c>
+      <c r="K282" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>11</v>
+      </c>
+      <c r="B283" t="s">
+        <v>282</v>
+      </c>
+      <c r="C283" t="s">
+        <v>283</v>
+      </c>
+      <c r="D283" t="s">
+        <v>14</v>
+      </c>
+      <c r="E283" t="s">
+        <v>284</v>
+      </c>
+      <c r="F283" t="s">
+        <v>14</v>
+      </c>
+      <c r="G283" t="s">
+        <v>14</v>
+      </c>
+      <c r="H283" t="s">
+        <v>628</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283">
+        <v>748</v>
+      </c>
+      <c r="K283" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>11</v>
+      </c>
+      <c r="B284" t="s">
+        <v>286</v>
+      </c>
+      <c r="C284" t="s">
+        <v>287</v>
+      </c>
+      <c r="D284" t="s">
+        <v>14</v>
+      </c>
+      <c r="E284" t="s">
+        <v>288</v>
+      </c>
+      <c r="F284" t="s">
+        <v>14</v>
+      </c>
+      <c r="G284" t="s">
+        <v>14</v>
+      </c>
+      <c r="H284" t="s">
+        <v>629</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>254.13</v>
+      </c>
+      <c r="K284" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285" t="s">
+        <v>290</v>
+      </c>
+      <c r="C285" t="s">
+        <v>291</v>
+      </c>
+      <c r="D285" t="s">
+        <v>14</v>
+      </c>
+      <c r="E285" t="s">
+        <v>292</v>
+      </c>
+      <c r="F285" t="s">
+        <v>14</v>
+      </c>
+      <c r="G285" t="s">
+        <v>14</v>
+      </c>
+      <c r="H285" t="s">
+        <v>630</v>
+      </c>
+      <c r="I285">
+        <v>3</v>
+      </c>
+      <c r="J285">
+        <v>818</v>
+      </c>
+      <c r="K285" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>11</v>
+      </c>
+      <c r="B286" t="s">
+        <v>294</v>
+      </c>
+      <c r="C286" t="s">
+        <v>295</v>
+      </c>
+      <c r="D286" t="s">
+        <v>14</v>
+      </c>
+      <c r="E286" t="s">
+        <v>296</v>
+      </c>
+      <c r="F286" t="s">
+        <v>14</v>
+      </c>
+      <c r="G286" t="s">
+        <v>14</v>
+      </c>
+      <c r="H286" t="s">
+        <v>631</v>
+      </c>
+      <c r="I286">
+        <v>4</v>
+      </c>
+      <c r="J286">
+        <v>780.25</v>
+      </c>
+      <c r="K286" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>11</v>
+      </c>
+      <c r="B287" t="s">
+        <v>298</v>
+      </c>
+      <c r="C287" t="s">
+        <v>299</v>
+      </c>
+      <c r="D287" t="s">
+        <v>14</v>
+      </c>
+      <c r="E287" t="s">
+        <v>300</v>
+      </c>
+      <c r="F287" t="s">
+        <v>14</v>
+      </c>
+      <c r="G287" t="s">
+        <v>14</v>
+      </c>
+      <c r="H287" t="s">
+        <v>632</v>
+      </c>
+      <c r="I287">
+        <v>4</v>
+      </c>
+      <c r="J287">
+        <v>838</v>
+      </c>
+      <c r="K287" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>11</v>
+      </c>
+      <c r="B288" t="s">
+        <v>306</v>
+      </c>
+      <c r="C288" t="s">
+        <v>307</v>
+      </c>
+      <c r="D288" t="s">
+        <v>14</v>
+      </c>
+      <c r="E288" t="s">
+        <v>308</v>
+      </c>
+      <c r="F288" t="s">
+        <v>14</v>
+      </c>
+      <c r="G288" t="s">
+        <v>14</v>
+      </c>
+      <c r="H288" t="s">
+        <v>633</v>
+      </c>
+      <c r="I288">
+        <v>3</v>
+      </c>
+      <c r="J288">
+        <v>725.13</v>
+      </c>
+      <c r="K288" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>11</v>
+      </c>
+      <c r="B289" t="s">
+        <v>314</v>
+      </c>
+      <c r="C289" t="s">
+        <v>315</v>
+      </c>
+      <c r="D289" t="s">
+        <v>14</v>
+      </c>
+      <c r="E289" t="s">
+        <v>316</v>
+      </c>
+      <c r="F289" t="s">
+        <v>14</v>
+      </c>
+      <c r="G289" t="s">
+        <v>14</v>
+      </c>
+      <c r="H289" t="s">
+        <v>634</v>
+      </c>
+      <c r="I289">
+        <v>5</v>
+      </c>
+      <c r="J289">
+        <v>546</v>
+      </c>
+      <c r="K289" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>11</v>
+      </c>
+      <c r="B290" t="s">
+        <v>318</v>
+      </c>
+      <c r="C290" t="s">
+        <v>319</v>
+      </c>
+      <c r="D290" t="s">
+        <v>14</v>
+      </c>
+      <c r="E290" t="s">
+        <v>320</v>
+      </c>
+      <c r="F290" t="s">
+        <v>14</v>
+      </c>
+      <c r="G290" t="s">
+        <v>14</v>
+      </c>
+      <c r="H290" t="s">
+        <v>635</v>
+      </c>
+      <c r="I290">
+        <v>4</v>
+      </c>
+      <c r="J290">
+        <v>1351.44</v>
+      </c>
+      <c r="K290" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291" t="s">
+        <v>322</v>
+      </c>
+      <c r="C291" t="s">
+        <v>323</v>
+      </c>
+      <c r="D291" t="s">
+        <v>14</v>
+      </c>
+      <c r="E291" t="s">
+        <v>324</v>
+      </c>
+      <c r="F291" t="s">
+        <v>14</v>
+      </c>
+      <c r="G291" t="s">
+        <v>14</v>
+      </c>
+      <c r="H291" t="s">
+        <v>636</v>
+      </c>
+      <c r="I291">
+        <v>4</v>
+      </c>
+      <c r="J291">
+        <v>528.19000000000005</v>
+      </c>
+      <c r="K291" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>11</v>
+      </c>
+      <c r="B292" t="s">
+        <v>326</v>
+      </c>
+      <c r="C292" t="s">
+        <v>327</v>
+      </c>
+      <c r="D292" t="s">
+        <v>14</v>
+      </c>
+      <c r="E292" t="s">
+        <v>328</v>
+      </c>
+      <c r="F292" t="s">
+        <v>14</v>
+      </c>
+      <c r="G292" t="s">
+        <v>14</v>
+      </c>
+      <c r="H292" t="s">
+        <v>637</v>
+      </c>
+      <c r="I292">
+        <v>3</v>
+      </c>
+      <c r="J292">
+        <v>808</v>
+      </c>
+      <c r="K292" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>11</v>
+      </c>
+      <c r="B293" t="s">
+        <v>330</v>
+      </c>
+      <c r="C293" t="s">
+        <v>331</v>
+      </c>
+      <c r="D293" t="s">
+        <v>14</v>
+      </c>
+      <c r="E293" t="s">
+        <v>332</v>
+      </c>
+      <c r="F293" t="s">
+        <v>14</v>
+      </c>
+      <c r="G293" t="s">
+        <v>14</v>
+      </c>
+      <c r="H293" t="s">
+        <v>638</v>
+      </c>
+      <c r="I293">
+        <v>3</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>11</v>
+      </c>
+      <c r="B294" t="s">
+        <v>334</v>
+      </c>
+      <c r="C294" t="s">
+        <v>335</v>
+      </c>
+      <c r="D294" t="s">
+        <v>14</v>
+      </c>
+      <c r="E294" t="s">
+        <v>336</v>
+      </c>
+      <c r="F294" t="s">
+        <v>14</v>
+      </c>
+      <c r="G294" t="s">
+        <v>14</v>
+      </c>
+      <c r="H294" t="s">
+        <v>623</v>
+      </c>
+      <c r="I294">
+        <v>1</v>
+      </c>
+      <c r="J294">
+        <v>486.58</v>
+      </c>
+      <c r="K294" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>11</v>
+      </c>
+      <c r="B295" t="s">
+        <v>338</v>
+      </c>
+      <c r="C295" t="s">
+        <v>339</v>
+      </c>
+      <c r="D295" t="s">
+        <v>14</v>
+      </c>
+      <c r="E295" t="s">
+        <v>340</v>
+      </c>
+      <c r="F295" t="s">
+        <v>14</v>
+      </c>
+      <c r="G295" t="s">
+        <v>14</v>
+      </c>
+      <c r="H295" t="s">
+        <v>639</v>
+      </c>
+      <c r="I295">
+        <v>3</v>
+      </c>
+      <c r="J295">
+        <v>980</v>
+      </c>
+      <c r="K295" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>11</v>
+      </c>
+      <c r="B296" t="s">
+        <v>342</v>
+      </c>
+      <c r="C296" t="s">
+        <v>343</v>
+      </c>
+      <c r="D296" t="s">
+        <v>14</v>
+      </c>
+      <c r="E296" t="s">
+        <v>344</v>
+      </c>
+      <c r="F296" t="s">
+        <v>14</v>
+      </c>
+      <c r="G296" t="s">
+        <v>14</v>
+      </c>
+      <c r="H296" t="s">
+        <v>640</v>
+      </c>
+      <c r="I296">
+        <v>4</v>
+      </c>
+      <c r="J296">
+        <v>727.2</v>
+      </c>
+      <c r="K296" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>11</v>
+      </c>
+      <c r="B297" t="s">
+        <v>456</v>
+      </c>
+      <c r="C297" t="s">
+        <v>456</v>
+      </c>
+      <c r="D297" t="s">
+        <v>14</v>
+      </c>
+      <c r="E297" t="s">
+        <v>457</v>
+      </c>
+      <c r="F297" t="s">
+        <v>14</v>
+      </c>
+      <c r="G297" t="s">
+        <v>14</v>
+      </c>
+      <c r="H297" t="s">
+        <v>641</v>
+      </c>
+      <c r="I297">
+        <v>2</v>
+      </c>
+      <c r="J297">
+        <v>19</v>
+      </c>
+      <c r="K297" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>11</v>
+      </c>
+      <c r="B298" t="s">
+        <v>351</v>
+      </c>
+      <c r="C298" t="s">
+        <v>352</v>
+      </c>
+      <c r="D298" t="s">
+        <v>14</v>
+      </c>
+      <c r="E298" t="s">
+        <v>353</v>
+      </c>
+      <c r="F298" t="s">
+        <v>14</v>
+      </c>
+      <c r="G298" t="s">
+        <v>14</v>
+      </c>
+      <c r="H298" t="s">
+        <v>642</v>
+      </c>
+      <c r="I298">
+        <v>7</v>
+      </c>
+      <c r="J298">
+        <v>697</v>
+      </c>
+      <c r="K298" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>11</v>
+      </c>
+      <c r="B299" t="s">
+        <v>643</v>
+      </c>
+      <c r="C299" t="s">
+        <v>356</v>
+      </c>
+      <c r="D299" t="s">
+        <v>14</v>
+      </c>
+      <c r="E299" t="s">
+        <v>357</v>
+      </c>
+      <c r="F299" t="s">
+        <v>14</v>
+      </c>
+      <c r="G299" t="s">
+        <v>14</v>
+      </c>
+      <c r="H299" t="s">
+        <v>644</v>
+      </c>
+      <c r="I299">
+        <v>3</v>
+      </c>
+      <c r="J299">
+        <v>81.97</v>
+      </c>
+      <c r="K299" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>11</v>
+      </c>
+      <c r="B300" t="s">
+        <v>359</v>
+      </c>
+      <c r="C300" t="s">
+        <v>360</v>
+      </c>
+      <c r="D300" t="s">
+        <v>14</v>
+      </c>
+      <c r="E300" t="s">
+        <v>361</v>
+      </c>
+      <c r="F300" t="s">
+        <v>14</v>
+      </c>
+      <c r="G300" t="s">
+        <v>14</v>
+      </c>
+      <c r="H300" t="s">
+        <v>645</v>
+      </c>
+      <c r="I300">
+        <v>4</v>
+      </c>
+      <c r="J300">
+        <v>578.41999999999996</v>
+      </c>
+      <c r="K300" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>11</v>
+      </c>
+      <c r="B301" t="s">
+        <v>363</v>
+      </c>
+      <c r="C301" t="s">
+        <v>364</v>
+      </c>
+      <c r="D301" t="s">
+        <v>14</v>
+      </c>
+      <c r="E301" t="s">
+        <v>365</v>
+      </c>
+      <c r="F301" t="s">
+        <v>14</v>
+      </c>
+      <c r="G301" t="s">
+        <v>14</v>
+      </c>
+      <c r="H301" t="s">
+        <v>646</v>
+      </c>
+      <c r="I301">
+        <v>4</v>
+      </c>
+      <c r="J301">
+        <v>1057</v>
+      </c>
+      <c r="K301" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>11</v>
+      </c>
+      <c r="B302" t="s">
+        <v>367</v>
+      </c>
+      <c r="C302" t="s">
+        <v>368</v>
+      </c>
+      <c r="D302" t="s">
+        <v>14</v>
+      </c>
+      <c r="E302" t="s">
+        <v>369</v>
+      </c>
+      <c r="F302" t="s">
+        <v>14</v>
+      </c>
+      <c r="G302" t="s">
+        <v>14</v>
+      </c>
+      <c r="H302" t="s">
+        <v>647</v>
+      </c>
+      <c r="I302">
+        <v>4</v>
+      </c>
+      <c r="J302">
+        <v>669</v>
+      </c>
+      <c r="K302" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>11</v>
+      </c>
+      <c r="B303" t="s">
+        <v>371</v>
+      </c>
+      <c r="C303" t="s">
+        <v>372</v>
+      </c>
+      <c r="D303" t="s">
+        <v>14</v>
+      </c>
+      <c r="E303" t="s">
+        <v>373</v>
+      </c>
+      <c r="F303" t="s">
+        <v>14</v>
+      </c>
+      <c r="G303" t="s">
+        <v>14</v>
+      </c>
+      <c r="H303" t="s">
+        <v>648</v>
+      </c>
+      <c r="I303">
+        <v>3</v>
+      </c>
+      <c r="J303">
+        <v>811.44</v>
+      </c>
+      <c r="K303" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>11</v>
+      </c>
+      <c r="B304" t="s">
+        <v>375</v>
+      </c>
+      <c r="C304" t="s">
+        <v>376</v>
+      </c>
+      <c r="D304" t="s">
+        <v>14</v>
+      </c>
+      <c r="E304" t="s">
+        <v>377</v>
+      </c>
+      <c r="F304" t="s">
+        <v>14</v>
+      </c>
+      <c r="G304" t="s">
+        <v>14</v>
+      </c>
+      <c r="H304" t="s">
+        <v>649</v>
+      </c>
+      <c r="I304">
+        <v>4</v>
+      </c>
+      <c r="J304">
+        <v>916</v>
+      </c>
+      <c r="K304" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>11</v>
+      </c>
+      <c r="B305" t="s">
+        <v>383</v>
+      </c>
+      <c r="C305" t="s">
+        <v>384</v>
+      </c>
+      <c r="D305" t="s">
+        <v>14</v>
+      </c>
+      <c r="E305" t="s">
+        <v>385</v>
+      </c>
+      <c r="F305" t="s">
+        <v>14</v>
+      </c>
+      <c r="G305" t="s">
+        <v>14</v>
+      </c>
+      <c r="H305" t="s">
+        <v>650</v>
+      </c>
+      <c r="I305">
+        <v>3</v>
+      </c>
+      <c r="J305">
+        <v>697.78</v>
+      </c>
+      <c r="K305" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>11</v>
+      </c>
+      <c r="B306" t="s">
+        <v>387</v>
+      </c>
+      <c r="C306" t="s">
+        <v>388</v>
+      </c>
+      <c r="D306" t="s">
+        <v>14</v>
+      </c>
+      <c r="E306" t="s">
+        <v>389</v>
+      </c>
+      <c r="F306" t="s">
+        <v>14</v>
+      </c>
+      <c r="G306" t="s">
+        <v>14</v>
+      </c>
+      <c r="H306" t="s">
+        <v>651</v>
+      </c>
+      <c r="I306">
+        <v>2</v>
+      </c>
+      <c r="J306">
+        <v>99</v>
+      </c>
+      <c r="K306" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>11</v>
+      </c>
+      <c r="B307" t="s">
+        <v>391</v>
+      </c>
+      <c r="C307" t="s">
+        <v>392</v>
+      </c>
+      <c r="D307" t="s">
+        <v>14</v>
+      </c>
+      <c r="E307" t="s">
+        <v>393</v>
+      </c>
+      <c r="F307" t="s">
+        <v>14</v>
+      </c>
+      <c r="G307" t="s">
+        <v>14</v>
+      </c>
+      <c r="H307" t="s">
+        <v>652</v>
+      </c>
+      <c r="I307">
+        <v>8</v>
+      </c>
+      <c r="J307">
+        <v>756.31</v>
+      </c>
+      <c r="K307" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>11</v>
+      </c>
+      <c r="B308" t="s">
+        <v>395</v>
+      </c>
+      <c r="C308" t="s">
+        <v>396</v>
+      </c>
+      <c r="D308" t="s">
+        <v>14</v>
+      </c>
+      <c r="E308" t="s">
+        <v>397</v>
+      </c>
+      <c r="F308" t="s">
+        <v>14</v>
+      </c>
+      <c r="G308" t="s">
+        <v>14</v>
+      </c>
+      <c r="H308" t="s">
+        <v>653</v>
+      </c>
+      <c r="I308">
+        <v>3</v>
+      </c>
+      <c r="J308">
+        <v>653.88</v>
+      </c>
+      <c r="K308" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>11</v>
+      </c>
+      <c r="B309" t="s">
+        <v>399</v>
+      </c>
+      <c r="C309" t="s">
+        <v>400</v>
+      </c>
+      <c r="D309" t="s">
+        <v>14</v>
+      </c>
+      <c r="E309" t="s">
+        <v>401</v>
+      </c>
+      <c r="F309" t="s">
+        <v>14</v>
+      </c>
+      <c r="G309" t="s">
+        <v>14</v>
+      </c>
+      <c r="H309" t="s">
+        <v>654</v>
+      </c>
+      <c r="I309">
+        <v>6</v>
+      </c>
+      <c r="J309">
+        <v>2373</v>
+      </c>
+      <c r="K309" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>11</v>
+      </c>
+      <c r="B310" t="s">
+        <v>406</v>
+      </c>
+      <c r="C310" t="s">
+        <v>407</v>
+      </c>
+      <c r="D310" t="s">
+        <v>14</v>
+      </c>
+      <c r="E310" t="s">
+        <v>408</v>
+      </c>
+      <c r="F310" t="s">
+        <v>14</v>
+      </c>
+      <c r="G310" t="s">
+        <v>14</v>
+      </c>
+      <c r="H310" t="s">
+        <v>655</v>
+      </c>
+      <c r="I310">
+        <v>4</v>
+      </c>
+      <c r="J310">
+        <v>17.63</v>
+      </c>
+      <c r="K310" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>11</v>
+      </c>
+      <c r="B311" t="s">
+        <v>410</v>
+      </c>
+      <c r="C311" t="s">
+        <v>411</v>
+      </c>
+      <c r="D311" t="s">
+        <v>14</v>
+      </c>
+      <c r="E311" t="s">
+        <v>412</v>
+      </c>
+      <c r="F311" t="s">
+        <v>14</v>
+      </c>
+      <c r="G311" t="s">
+        <v>14</v>
+      </c>
+      <c r="H311" t="s">
+        <v>656</v>
+      </c>
+      <c r="I311">
+        <v>3</v>
+      </c>
+      <c r="J311">
+        <v>348.22</v>
+      </c>
+      <c r="K311" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>11</v>
+      </c>
+      <c r="B312" t="s">
+        <v>414</v>
+      </c>
+      <c r="C312" t="s">
+        <v>415</v>
+      </c>
+      <c r="D312" t="s">
+        <v>14</v>
+      </c>
+      <c r="E312" t="s">
+        <v>416</v>
+      </c>
+      <c r="F312" t="s">
+        <v>14</v>
+      </c>
+      <c r="G312" t="s">
+        <v>14</v>
+      </c>
+      <c r="H312" t="s">
+        <v>657</v>
+      </c>
+      <c r="I312">
+        <v>2</v>
+      </c>
+      <c r="J312">
+        <v>718</v>
+      </c>
+      <c r="K312" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>11</v>
+      </c>
+      <c r="B313" t="s">
+        <v>419</v>
+      </c>
+      <c r="C313" t="s">
+        <v>419</v>
+      </c>
+      <c r="D313" t="s">
+        <v>14</v>
+      </c>
+      <c r="E313" t="s">
+        <v>420</v>
+      </c>
+      <c r="F313" t="s">
+        <v>14</v>
+      </c>
+      <c r="G313" t="s">
+        <v>14</v>
+      </c>
+      <c r="H313" t="s">
+        <v>658</v>
+      </c>
+      <c r="I313">
+        <v>1</v>
+      </c>
+      <c r="J313">
+        <v>1</v>
+      </c>
+      <c r="K313" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>11</v>
+      </c>
+      <c r="B314" t="s">
+        <v>422</v>
+      </c>
+      <c r="C314" t="s">
+        <v>423</v>
+      </c>
+      <c r="D314" t="s">
+        <v>14</v>
+      </c>
+      <c r="E314" t="s">
+        <v>424</v>
+      </c>
+      <c r="F314" t="s">
+        <v>14</v>
+      </c>
+      <c r="G314" t="s">
+        <v>14</v>
+      </c>
+      <c r="H314" t="s">
+        <v>659</v>
+      </c>
+      <c r="I314">
+        <v>2</v>
+      </c>
+      <c r="J314">
+        <v>617.54999999999995</v>
+      </c>
+      <c r="K314" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>11</v>
+      </c>
+      <c r="B315" t="s">
+        <v>426</v>
+      </c>
+      <c r="C315" t="s">
+        <v>427</v>
+      </c>
+      <c r="D315" t="s">
+        <v>14</v>
+      </c>
+      <c r="E315" t="s">
+        <v>428</v>
+      </c>
+      <c r="F315" t="s">
+        <v>14</v>
+      </c>
+      <c r="G315" t="s">
+        <v>14</v>
+      </c>
+      <c r="H315" t="s">
+        <v>660</v>
+      </c>
+      <c r="I315">
+        <v>4</v>
+      </c>
+      <c r="J315">
+        <v>403.58</v>
+      </c>
+      <c r="K315" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>11</v>
+      </c>
+      <c r="B316" t="s">
+        <v>430</v>
+      </c>
+      <c r="C316" t="s">
+        <v>431</v>
+      </c>
+      <c r="D316" t="s">
+        <v>14</v>
+      </c>
+      <c r="E316" t="s">
+        <v>432</v>
+      </c>
+      <c r="F316" t="s">
+        <v>14</v>
+      </c>
+      <c r="G316" t="s">
+        <v>14</v>
+      </c>
+      <c r="H316" t="s">
+        <v>661</v>
+      </c>
+      <c r="I316">
+        <v>1</v>
+      </c>
+      <c r="J316">
+        <v>961</v>
+      </c>
+      <c r="K316" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>11</v>
+      </c>
+      <c r="B317" t="s">
+        <v>434</v>
+      </c>
+      <c r="C317" t="s">
+        <v>435</v>
+      </c>
+      <c r="D317" t="s">
+        <v>14</v>
+      </c>
+      <c r="E317" t="s">
+        <v>436</v>
+      </c>
+      <c r="F317" t="s">
+        <v>14</v>
+      </c>
+      <c r="G317" t="s">
+        <v>14</v>
+      </c>
+      <c r="H317" t="s">
+        <v>662</v>
+      </c>
+      <c r="I317">
+        <v>6</v>
+      </c>
+      <c r="J317">
+        <v>1120.0899999999999</v>
+      </c>
+      <c r="K317" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>11</v>
+      </c>
+      <c r="B318" t="s">
+        <v>438</v>
+      </c>
+      <c r="C318" t="s">
+        <v>439</v>
+      </c>
+      <c r="D318" t="s">
+        <v>14</v>
+      </c>
+      <c r="E318" t="s">
+        <v>440</v>
+      </c>
+      <c r="F318" t="s">
+        <v>14</v>
+      </c>
+      <c r="G318" t="s">
+        <v>14</v>
+      </c>
+      <c r="H318" t="s">
+        <v>663</v>
+      </c>
+      <c r="I318">
+        <v>4</v>
+      </c>
+      <c r="J318">
+        <v>971.15</v>
+      </c>
+      <c r="K318" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>11</v>
+      </c>
+      <c r="B319" t="s">
+        <v>442</v>
+      </c>
+      <c r="C319" t="s">
+        <v>443</v>
+      </c>
+      <c r="D319" t="s">
+        <v>14</v>
+      </c>
+      <c r="E319" t="s">
+        <v>444</v>
+      </c>
+      <c r="F319" t="s">
+        <v>14</v>
+      </c>
+      <c r="G319" t="s">
+        <v>14</v>
+      </c>
+      <c r="H319" t="s">
+        <v>664</v>
+      </c>
+      <c r="I319">
+        <v>2</v>
+      </c>
+      <c r="J319">
+        <v>977</v>
+      </c>
+      <c r="K319" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>11</v>
+      </c>
+      <c r="B320" t="s">
+        <v>446</v>
+      </c>
+      <c r="C320" t="s">
+        <v>447</v>
+      </c>
+      <c r="D320" t="s">
+        <v>14</v>
+      </c>
+      <c r="E320" t="s">
+        <v>448</v>
+      </c>
+      <c r="F320" t="s">
+        <v>14</v>
+      </c>
+      <c r="G320" t="s">
+        <v>14</v>
+      </c>
+      <c r="H320" t="s">
+        <v>665</v>
+      </c>
+      <c r="I320">
+        <v>6</v>
+      </c>
+      <c r="J320">
+        <v>573.25</v>
+      </c>
+      <c r="K320" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>11</v>
+      </c>
+      <c r="B321" t="s">
+        <v>666</v>
+      </c>
+      <c r="C321" t="s">
+        <v>451</v>
+      </c>
+      <c r="D321" t="s">
+        <v>14</v>
+      </c>
+      <c r="E321" t="s">
+        <v>452</v>
+      </c>
+      <c r="F321" t="s">
+        <v>14</v>
+      </c>
+      <c r="G321" t="s">
+        <v>14</v>
+      </c>
+      <c r="H321" t="s">
+        <v>667</v>
+      </c>
+      <c r="I321">
+        <v>5</v>
+      </c>
+      <c r="J321">
+        <v>258</v>
+      </c>
+      <c r="K321" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="C113:C218">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C219:C321">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/distances_26_11_03_12.xlsx
+++ b/distances_26_11_03_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\consumo-bca-dashboard-limpio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA2A2C6-5E02-40A3-8DE3-D12C310F0B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D3E020-72ED-4178-ACDF-6148F05AFA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="778">
   <si>
     <t>Grupo</t>
   </si>
@@ -2027,6 +2027,336 @@
   </si>
   <si>
     <t>05:40:48</t>
+  </si>
+  <si>
+    <t>36:40:48</t>
+  </si>
+  <si>
+    <t>12:36:36</t>
+  </si>
+  <si>
+    <t>47:36:00</t>
+  </si>
+  <si>
+    <t>43:55:48</t>
+  </si>
+  <si>
+    <t>49:19:12</t>
+  </si>
+  <si>
+    <t>44:05:24</t>
+  </si>
+  <si>
+    <t>05:54:00</t>
+  </si>
+  <si>
+    <t>35:45:00</t>
+  </si>
+  <si>
+    <t>35:15:00</t>
+  </si>
+  <si>
+    <t>43:28:48</t>
+  </si>
+  <si>
+    <t>43:40:12</t>
+  </si>
+  <si>
+    <t>21:32:24</t>
+  </si>
+  <si>
+    <t>14:18:00</t>
+  </si>
+  <si>
+    <t>32:14:24</t>
+  </si>
+  <si>
+    <t>49:50:24</t>
+  </si>
+  <si>
+    <t>44:29:24</t>
+  </si>
+  <si>
+    <t>50:54:00</t>
+  </si>
+  <si>
+    <t>56:20:24</t>
+  </si>
+  <si>
+    <t>35:30:00</t>
+  </si>
+  <si>
+    <t>36:28:48</t>
+  </si>
+  <si>
+    <t>RUIZ CESAR</t>
+  </si>
+  <si>
+    <t>37:14:24</t>
+  </si>
+  <si>
+    <t>38:05:24</t>
+  </si>
+  <si>
+    <t>32:33:36</t>
+  </si>
+  <si>
+    <t>33:32:24</t>
+  </si>
+  <si>
+    <t>38:22:12</t>
+  </si>
+  <si>
+    <t>39:24:00</t>
+  </si>
+  <si>
+    <t>13:21:00</t>
+  </si>
+  <si>
+    <t>40:21:36</t>
+  </si>
+  <si>
+    <t>GALAZ VICTOR</t>
+  </si>
+  <si>
+    <t>12:01:48</t>
+  </si>
+  <si>
+    <t>30:07:48</t>
+  </si>
+  <si>
+    <t>48:39:36</t>
+  </si>
+  <si>
+    <t>46:06:36</t>
+  </si>
+  <si>
+    <t>Jorge Eduardo</t>
+  </si>
+  <si>
+    <t>47:18:00</t>
+  </si>
+  <si>
+    <t>38:45:00</t>
+  </si>
+  <si>
+    <t>34:08:24</t>
+  </si>
+  <si>
+    <t>08:46:48</t>
+  </si>
+  <si>
+    <t>21:39:36</t>
+  </si>
+  <si>
+    <t>33:43:48</t>
+  </si>
+  <si>
+    <t>GOMEZ MARIANO</t>
+  </si>
+  <si>
+    <t>35:39:36</t>
+  </si>
+  <si>
+    <t>39:39:36</t>
+  </si>
+  <si>
+    <t>38:19:48</t>
+  </si>
+  <si>
+    <t>49:09:00</t>
+  </si>
+  <si>
+    <t>37:35:24</t>
+  </si>
+  <si>
+    <t>34:10:48</t>
+  </si>
+  <si>
+    <t>32:13:48</t>
+  </si>
+  <si>
+    <t>27:49:12</t>
+  </si>
+  <si>
+    <t>42:24:00</t>
+  </si>
+  <si>
+    <t>44:45:00</t>
+  </si>
+  <si>
+    <t>37:00:36</t>
+  </si>
+  <si>
+    <t>23:42:00</t>
+  </si>
+  <si>
+    <t>23:22:12</t>
+  </si>
+  <si>
+    <t>35:38:24</t>
+  </si>
+  <si>
+    <t>39:40:48</t>
+  </si>
+  <si>
+    <t>37:55:12</t>
+  </si>
+  <si>
+    <t>35:07:48</t>
+  </si>
+  <si>
+    <t>27:55:48</t>
+  </si>
+  <si>
+    <t>38:23:24</t>
+  </si>
+  <si>
+    <t>41:24:36</t>
+  </si>
+  <si>
+    <t>38:25:12</t>
+  </si>
+  <si>
+    <t>33:03:36</t>
+  </si>
+  <si>
+    <t>48:45:00</t>
+  </si>
+  <si>
+    <t>48:14:24</t>
+  </si>
+  <si>
+    <t>Villamayor Gabriel</t>
+  </si>
+  <si>
+    <t>20:57:36</t>
+  </si>
+  <si>
+    <t>41:05:24</t>
+  </si>
+  <si>
+    <t>44:56:24</t>
+  </si>
+  <si>
+    <t>14:06:36</t>
+  </si>
+  <si>
+    <t>53:43:48</t>
+  </si>
+  <si>
+    <t>38:46:12</t>
+  </si>
+  <si>
+    <t>00:44:24</t>
+  </si>
+  <si>
+    <t>47:48:36</t>
+  </si>
+  <si>
+    <t>43:39:36</t>
+  </si>
+  <si>
+    <t>43:00:00</t>
+  </si>
+  <si>
+    <t>47:10:48</t>
+  </si>
+  <si>
+    <t>36:41:24</t>
+  </si>
+  <si>
+    <t>44:02:24</t>
+  </si>
+  <si>
+    <t>40:37:48</t>
+  </si>
+  <si>
+    <t>00:19:48</t>
+  </si>
+  <si>
+    <t>Zamora Nahuel</t>
+  </si>
+  <si>
+    <t>18:52:48</t>
+  </si>
+  <si>
+    <t>31:39:00</t>
+  </si>
+  <si>
+    <t>47:08:24</t>
+  </si>
+  <si>
+    <t>37:38:24</t>
+  </si>
+  <si>
+    <t>PERA MARIO</t>
+  </si>
+  <si>
+    <t>30:25:12</t>
+  </si>
+  <si>
+    <t>44:51:00</t>
+  </si>
+  <si>
+    <t>54:54:36</t>
+  </si>
+  <si>
+    <t>31:18:36</t>
+  </si>
+  <si>
+    <t>00:48:00</t>
+  </si>
+  <si>
+    <t>46:31:12</t>
+  </si>
+  <si>
+    <t>37:48:36</t>
+  </si>
+  <si>
+    <t>45:42:36</t>
+  </si>
+  <si>
+    <t>34:32:24</t>
+  </si>
+  <si>
+    <t>44:15:00</t>
+  </si>
+  <si>
+    <t>18:10:48</t>
+  </si>
+  <si>
+    <t>14:11:24</t>
+  </si>
+  <si>
+    <t>22:40:12</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>30:27:36</t>
+  </si>
+  <si>
+    <t>44:07:48</t>
+  </si>
+  <si>
+    <t>29:52:48</t>
+  </si>
+  <si>
+    <t>48:11:24</t>
+  </si>
+  <si>
+    <t>43:56:24</t>
+  </si>
+  <si>
+    <t>44:58:12</t>
+  </si>
+  <si>
+    <t>51:58:48</t>
+  </si>
+  <si>
+    <t>41:09:36</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2406,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2432,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K321"/>
+  <dimension ref="A1:K428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="K211" sqref="K211"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="A322" sqref="A322:J428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13675,13 +14015,3440 @@
         <v>14</v>
       </c>
     </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>11</v>
+      </c>
+      <c r="B322" t="s">
+        <v>12</v>
+      </c>
+      <c r="C322" t="s">
+        <v>13</v>
+      </c>
+      <c r="D322" t="s">
+        <v>14</v>
+      </c>
+      <c r="E322" t="s">
+        <v>15</v>
+      </c>
+      <c r="F322" t="s">
+        <v>14</v>
+      </c>
+      <c r="G322" t="s">
+        <v>14</v>
+      </c>
+      <c r="H322" t="s">
+        <v>668</v>
+      </c>
+      <c r="I322">
+        <v>9</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>11</v>
+      </c>
+      <c r="B323" t="s">
+        <v>17</v>
+      </c>
+      <c r="C323" t="s">
+        <v>18</v>
+      </c>
+      <c r="D323" t="s">
+        <v>14</v>
+      </c>
+      <c r="E323" t="s">
+        <v>19</v>
+      </c>
+      <c r="F323" t="s">
+        <v>14</v>
+      </c>
+      <c r="G323" t="s">
+        <v>14</v>
+      </c>
+      <c r="H323" t="s">
+        <v>669</v>
+      </c>
+      <c r="I323">
+        <v>5</v>
+      </c>
+      <c r="J323">
+        <v>673.96</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>11</v>
+      </c>
+      <c r="B324" t="s">
+        <v>21</v>
+      </c>
+      <c r="C324" t="s">
+        <v>22</v>
+      </c>
+      <c r="D324" t="s">
+        <v>14</v>
+      </c>
+      <c r="E324" t="s">
+        <v>23</v>
+      </c>
+      <c r="F324" t="s">
+        <v>14</v>
+      </c>
+      <c r="G324" t="s">
+        <v>14</v>
+      </c>
+      <c r="H324" t="s">
+        <v>670</v>
+      </c>
+      <c r="I324">
+        <v>15</v>
+      </c>
+      <c r="J324">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>11</v>
+      </c>
+      <c r="B325" t="s">
+        <v>489</v>
+      </c>
+      <c r="C325" t="s">
+        <v>26</v>
+      </c>
+      <c r="D325" t="s">
+        <v>14</v>
+      </c>
+      <c r="E325" t="s">
+        <v>27</v>
+      </c>
+      <c r="F325" t="s">
+        <v>14</v>
+      </c>
+      <c r="G325" t="s">
+        <v>14</v>
+      </c>
+      <c r="H325" t="s">
+        <v>671</v>
+      </c>
+      <c r="I325">
+        <v>8</v>
+      </c>
+      <c r="J325">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>11</v>
+      </c>
+      <c r="B326" t="s">
+        <v>29</v>
+      </c>
+      <c r="C326" t="s">
+        <v>30</v>
+      </c>
+      <c r="D326" t="s">
+        <v>14</v>
+      </c>
+      <c r="E326" t="s">
+        <v>31</v>
+      </c>
+      <c r="F326" t="s">
+        <v>14</v>
+      </c>
+      <c r="G326" t="s">
+        <v>14</v>
+      </c>
+      <c r="H326" t="s">
+        <v>672</v>
+      </c>
+      <c r="I326">
+        <v>14</v>
+      </c>
+      <c r="J326">
+        <v>2804.32</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>11</v>
+      </c>
+      <c r="B327" t="s">
+        <v>33</v>
+      </c>
+      <c r="C327" t="s">
+        <v>34</v>
+      </c>
+      <c r="D327" t="s">
+        <v>14</v>
+      </c>
+      <c r="E327" t="s">
+        <v>35</v>
+      </c>
+      <c r="F327" t="s">
+        <v>14</v>
+      </c>
+      <c r="G327" t="s">
+        <v>14</v>
+      </c>
+      <c r="H327" t="s">
+        <v>673</v>
+      </c>
+      <c r="I327">
+        <v>9</v>
+      </c>
+      <c r="J327">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>11</v>
+      </c>
+      <c r="B328" t="s">
+        <v>418</v>
+      </c>
+      <c r="C328" t="s">
+        <v>38</v>
+      </c>
+      <c r="D328" t="s">
+        <v>14</v>
+      </c>
+      <c r="E328" t="s">
+        <v>39</v>
+      </c>
+      <c r="F328" t="s">
+        <v>14</v>
+      </c>
+      <c r="G328" t="s">
+        <v>14</v>
+      </c>
+      <c r="H328" t="s">
+        <v>674</v>
+      </c>
+      <c r="I328">
+        <v>5</v>
+      </c>
+      <c r="J328">
+        <v>105.13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>11</v>
+      </c>
+      <c r="B329" t="s">
+        <v>41</v>
+      </c>
+      <c r="C329" t="s">
+        <v>42</v>
+      </c>
+      <c r="D329" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329" t="s">
+        <v>43</v>
+      </c>
+      <c r="F329" t="s">
+        <v>14</v>
+      </c>
+      <c r="G329" t="s">
+        <v>14</v>
+      </c>
+      <c r="H329" t="s">
+        <v>675</v>
+      </c>
+      <c r="I329">
+        <v>11</v>
+      </c>
+      <c r="J329">
+        <v>1797.82</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>11</v>
+      </c>
+      <c r="B330" t="s">
+        <v>45</v>
+      </c>
+      <c r="C330" t="s">
+        <v>46</v>
+      </c>
+      <c r="D330" t="s">
+        <v>14</v>
+      </c>
+      <c r="E330" t="s">
+        <v>47</v>
+      </c>
+      <c r="F330" t="s">
+        <v>14</v>
+      </c>
+      <c r="G330" t="s">
+        <v>14</v>
+      </c>
+      <c r="H330" t="s">
+        <v>676</v>
+      </c>
+      <c r="I330">
+        <v>15</v>
+      </c>
+      <c r="J330">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>11</v>
+      </c>
+      <c r="B331" t="s">
+        <v>49</v>
+      </c>
+      <c r="C331" t="s">
+        <v>50</v>
+      </c>
+      <c r="D331" t="s">
+        <v>14</v>
+      </c>
+      <c r="E331" t="s">
+        <v>51</v>
+      </c>
+      <c r="F331" t="s">
+        <v>14</v>
+      </c>
+      <c r="G331" t="s">
+        <v>14</v>
+      </c>
+      <c r="H331" t="s">
+        <v>677</v>
+      </c>
+      <c r="I331">
+        <v>15</v>
+      </c>
+      <c r="J331">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>11</v>
+      </c>
+      <c r="B332" t="s">
+        <v>53</v>
+      </c>
+      <c r="C332" t="s">
+        <v>54</v>
+      </c>
+      <c r="D332" t="s">
+        <v>14</v>
+      </c>
+      <c r="E332" t="s">
+        <v>55</v>
+      </c>
+      <c r="F332" t="s">
+        <v>14</v>
+      </c>
+      <c r="G332" t="s">
+        <v>14</v>
+      </c>
+      <c r="H332" t="s">
+        <v>678</v>
+      </c>
+      <c r="I332">
+        <v>10</v>
+      </c>
+      <c r="J332">
+        <v>2358.09</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>11</v>
+      </c>
+      <c r="B333" t="s">
+        <v>57</v>
+      </c>
+      <c r="C333" t="s">
+        <v>58</v>
+      </c>
+      <c r="D333" t="s">
+        <v>14</v>
+      </c>
+      <c r="E333" t="s">
+        <v>59</v>
+      </c>
+      <c r="F333" t="s">
+        <v>14</v>
+      </c>
+      <c r="G333" t="s">
+        <v>14</v>
+      </c>
+      <c r="H333" t="s">
+        <v>679</v>
+      </c>
+      <c r="I333">
+        <v>7</v>
+      </c>
+      <c r="J333">
+        <v>703.38</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>11</v>
+      </c>
+      <c r="B334" t="s">
+        <v>61</v>
+      </c>
+      <c r="C334" t="s">
+        <v>62</v>
+      </c>
+      <c r="D334" t="s">
+        <v>14</v>
+      </c>
+      <c r="E334" t="s">
+        <v>63</v>
+      </c>
+      <c r="F334" t="s">
+        <v>14</v>
+      </c>
+      <c r="G334" t="s">
+        <v>14</v>
+      </c>
+      <c r="H334" t="s">
+        <v>680</v>
+      </c>
+      <c r="I334">
+        <v>7</v>
+      </c>
+      <c r="J334">
+        <v>230.88</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>11</v>
+      </c>
+      <c r="B335" t="s">
+        <v>65</v>
+      </c>
+      <c r="C335" t="s">
+        <v>66</v>
+      </c>
+      <c r="D335" t="s">
+        <v>14</v>
+      </c>
+      <c r="E335" t="s">
+        <v>67</v>
+      </c>
+      <c r="F335" t="s">
+        <v>14</v>
+      </c>
+      <c r="G335" t="s">
+        <v>14</v>
+      </c>
+      <c r="H335" t="s">
+        <v>681</v>
+      </c>
+      <c r="I335">
+        <v>9</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>11</v>
+      </c>
+      <c r="B336" t="s">
+        <v>69</v>
+      </c>
+      <c r="C336" t="s">
+        <v>70</v>
+      </c>
+      <c r="D336" t="s">
+        <v>14</v>
+      </c>
+      <c r="E336" t="s">
+        <v>71</v>
+      </c>
+      <c r="F336" t="s">
+        <v>14</v>
+      </c>
+      <c r="G336" t="s">
+        <v>14</v>
+      </c>
+      <c r="H336" t="s">
+        <v>682</v>
+      </c>
+      <c r="I336">
+        <v>11</v>
+      </c>
+      <c r="J336">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>11</v>
+      </c>
+      <c r="B337" t="s">
+        <v>73</v>
+      </c>
+      <c r="C337" t="s">
+        <v>74</v>
+      </c>
+      <c r="D337" t="s">
+        <v>14</v>
+      </c>
+      <c r="E337" t="s">
+        <v>75</v>
+      </c>
+      <c r="F337" t="s">
+        <v>14</v>
+      </c>
+      <c r="G337" t="s">
+        <v>14</v>
+      </c>
+      <c r="H337" t="s">
+        <v>683</v>
+      </c>
+      <c r="I337">
+        <v>13</v>
+      </c>
+      <c r="J337">
+        <v>2486.63</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>11</v>
+      </c>
+      <c r="B338" t="s">
+        <v>77</v>
+      </c>
+      <c r="C338" t="s">
+        <v>78</v>
+      </c>
+      <c r="D338" t="s">
+        <v>14</v>
+      </c>
+      <c r="E338" t="s">
+        <v>79</v>
+      </c>
+      <c r="F338" t="s">
+        <v>14</v>
+      </c>
+      <c r="G338" t="s">
+        <v>14</v>
+      </c>
+      <c r="H338" t="s">
+        <v>684</v>
+      </c>
+      <c r="I338">
+        <v>13</v>
+      </c>
+      <c r="J338">
+        <v>2928.69</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>11</v>
+      </c>
+      <c r="B339" t="s">
+        <v>81</v>
+      </c>
+      <c r="C339" t="s">
+        <v>82</v>
+      </c>
+      <c r="D339" t="s">
+        <v>14</v>
+      </c>
+      <c r="E339" t="s">
+        <v>83</v>
+      </c>
+      <c r="F339" t="s">
+        <v>14</v>
+      </c>
+      <c r="G339" t="s">
+        <v>14</v>
+      </c>
+      <c r="H339" t="s">
+        <v>685</v>
+      </c>
+      <c r="I339">
+        <v>8</v>
+      </c>
+      <c r="J339">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>11</v>
+      </c>
+      <c r="B340" t="s">
+        <v>85</v>
+      </c>
+      <c r="C340" t="s">
+        <v>86</v>
+      </c>
+      <c r="D340" t="s">
+        <v>14</v>
+      </c>
+      <c r="E340" t="s">
+        <v>87</v>
+      </c>
+      <c r="F340" t="s">
+        <v>14</v>
+      </c>
+      <c r="G340" t="s">
+        <v>14</v>
+      </c>
+      <c r="H340" t="s">
+        <v>686</v>
+      </c>
+      <c r="I340">
+        <v>13</v>
+      </c>
+      <c r="J340">
+        <v>1972.64</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>11</v>
+      </c>
+      <c r="B341" t="s">
+        <v>89</v>
+      </c>
+      <c r="C341" t="s">
+        <v>90</v>
+      </c>
+      <c r="D341" t="s">
+        <v>14</v>
+      </c>
+      <c r="E341" t="s">
+        <v>91</v>
+      </c>
+      <c r="F341" t="s">
+        <v>14</v>
+      </c>
+      <c r="G341" t="s">
+        <v>14</v>
+      </c>
+      <c r="H341" t="s">
+        <v>687</v>
+      </c>
+      <c r="I341">
+        <v>14</v>
+      </c>
+      <c r="J341">
+        <v>1812.87</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>11</v>
+      </c>
+      <c r="B342" t="s">
+        <v>688</v>
+      </c>
+      <c r="C342" t="s">
+        <v>94</v>
+      </c>
+      <c r="D342" t="s">
+        <v>14</v>
+      </c>
+      <c r="E342" t="s">
+        <v>95</v>
+      </c>
+      <c r="F342" t="s">
+        <v>14</v>
+      </c>
+      <c r="G342" t="s">
+        <v>14</v>
+      </c>
+      <c r="H342" t="s">
+        <v>689</v>
+      </c>
+      <c r="I342">
+        <v>9</v>
+      </c>
+      <c r="J342">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>11</v>
+      </c>
+      <c r="B343" t="s">
+        <v>100</v>
+      </c>
+      <c r="C343" t="s">
+        <v>101</v>
+      </c>
+      <c r="D343" t="s">
+        <v>14</v>
+      </c>
+      <c r="E343" t="s">
+        <v>102</v>
+      </c>
+      <c r="F343" t="s">
+        <v>14</v>
+      </c>
+      <c r="G343" t="s">
+        <v>14</v>
+      </c>
+      <c r="H343" t="s">
+        <v>690</v>
+      </c>
+      <c r="I343">
+        <v>10</v>
+      </c>
+      <c r="J343">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>11</v>
+      </c>
+      <c r="B344" t="s">
+        <v>104</v>
+      </c>
+      <c r="C344" t="s">
+        <v>105</v>
+      </c>
+      <c r="D344" t="s">
+        <v>14</v>
+      </c>
+      <c r="E344" t="s">
+        <v>106</v>
+      </c>
+      <c r="F344" t="s">
+        <v>14</v>
+      </c>
+      <c r="G344" t="s">
+        <v>14</v>
+      </c>
+      <c r="H344" t="s">
+        <v>691</v>
+      </c>
+      <c r="I344">
+        <v>14</v>
+      </c>
+      <c r="J344">
+        <v>1472.01</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>11</v>
+      </c>
+      <c r="B345" t="s">
+        <v>108</v>
+      </c>
+      <c r="C345" t="s">
+        <v>109</v>
+      </c>
+      <c r="D345" t="s">
+        <v>14</v>
+      </c>
+      <c r="E345" t="s">
+        <v>110</v>
+      </c>
+      <c r="F345" t="s">
+        <v>14</v>
+      </c>
+      <c r="G345" t="s">
+        <v>14</v>
+      </c>
+      <c r="H345" t="s">
+        <v>692</v>
+      </c>
+      <c r="I345">
+        <v>23</v>
+      </c>
+      <c r="J345">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>11</v>
+      </c>
+      <c r="B346" t="s">
+        <v>112</v>
+      </c>
+      <c r="C346" t="s">
+        <v>113</v>
+      </c>
+      <c r="D346" t="s">
+        <v>14</v>
+      </c>
+      <c r="E346" t="s">
+        <v>114</v>
+      </c>
+      <c r="F346" t="s">
+        <v>14</v>
+      </c>
+      <c r="G346" t="s">
+        <v>14</v>
+      </c>
+      <c r="H346" t="s">
+        <v>693</v>
+      </c>
+      <c r="I346">
+        <v>10</v>
+      </c>
+      <c r="J346">
+        <v>1853.38</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>11</v>
+      </c>
+      <c r="B347" t="s">
+        <v>587</v>
+      </c>
+      <c r="C347" t="s">
+        <v>116</v>
+      </c>
+      <c r="D347" t="s">
+        <v>14</v>
+      </c>
+      <c r="E347" t="s">
+        <v>117</v>
+      </c>
+      <c r="F347" t="s">
+        <v>14</v>
+      </c>
+      <c r="G347" t="s">
+        <v>14</v>
+      </c>
+      <c r="H347" t="s">
+        <v>694</v>
+      </c>
+      <c r="I347">
+        <v>14</v>
+      </c>
+      <c r="J347">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>11</v>
+      </c>
+      <c r="B348" t="s">
+        <v>278</v>
+      </c>
+      <c r="C348" t="s">
+        <v>120</v>
+      </c>
+      <c r="D348" t="s">
+        <v>14</v>
+      </c>
+      <c r="E348" t="s">
+        <v>121</v>
+      </c>
+      <c r="F348" t="s">
+        <v>14</v>
+      </c>
+      <c r="G348" t="s">
+        <v>14</v>
+      </c>
+      <c r="H348" t="s">
+        <v>695</v>
+      </c>
+      <c r="I348">
+        <v>6</v>
+      </c>
+      <c r="J348">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>11</v>
+      </c>
+      <c r="B349" t="s">
+        <v>123</v>
+      </c>
+      <c r="C349" t="s">
+        <v>124</v>
+      </c>
+      <c r="D349" t="s">
+        <v>14</v>
+      </c>
+      <c r="E349" t="s">
+        <v>125</v>
+      </c>
+      <c r="F349" t="s">
+        <v>14</v>
+      </c>
+      <c r="G349" t="s">
+        <v>14</v>
+      </c>
+      <c r="H349" t="s">
+        <v>696</v>
+      </c>
+      <c r="I349">
+        <v>9</v>
+      </c>
+      <c r="J349">
+        <v>1971.75</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>11</v>
+      </c>
+      <c r="B350" t="s">
+        <v>697</v>
+      </c>
+      <c r="C350" t="s">
+        <v>128</v>
+      </c>
+      <c r="D350" t="s">
+        <v>14</v>
+      </c>
+      <c r="E350" t="s">
+        <v>129</v>
+      </c>
+      <c r="F350" t="s">
+        <v>14</v>
+      </c>
+      <c r="G350" t="s">
+        <v>14</v>
+      </c>
+      <c r="H350" t="s">
+        <v>698</v>
+      </c>
+      <c r="I350">
+        <v>9</v>
+      </c>
+      <c r="J350">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>11</v>
+      </c>
+      <c r="B351" t="s">
+        <v>134</v>
+      </c>
+      <c r="C351" t="s">
+        <v>135</v>
+      </c>
+      <c r="D351" t="s">
+        <v>14</v>
+      </c>
+      <c r="E351" t="s">
+        <v>136</v>
+      </c>
+      <c r="F351" t="s">
+        <v>14</v>
+      </c>
+      <c r="G351" t="s">
+        <v>14</v>
+      </c>
+      <c r="H351" t="s">
+        <v>699</v>
+      </c>
+      <c r="I351">
+        <v>6</v>
+      </c>
+      <c r="J351">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>11</v>
+      </c>
+      <c r="B352" t="s">
+        <v>138</v>
+      </c>
+      <c r="C352" t="s">
+        <v>139</v>
+      </c>
+      <c r="D352" t="s">
+        <v>14</v>
+      </c>
+      <c r="E352" t="s">
+        <v>140</v>
+      </c>
+      <c r="F352" t="s">
+        <v>14</v>
+      </c>
+      <c r="G352" t="s">
+        <v>14</v>
+      </c>
+      <c r="H352" t="s">
+        <v>700</v>
+      </c>
+      <c r="I352">
+        <v>12</v>
+      </c>
+      <c r="J352">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>11</v>
+      </c>
+      <c r="B353" t="s">
+        <v>142</v>
+      </c>
+      <c r="C353" t="s">
+        <v>143</v>
+      </c>
+      <c r="D353" t="s">
+        <v>14</v>
+      </c>
+      <c r="E353" t="s">
+        <v>144</v>
+      </c>
+      <c r="F353" t="s">
+        <v>14</v>
+      </c>
+      <c r="G353" t="s">
+        <v>14</v>
+      </c>
+      <c r="H353" t="s">
+        <v>701</v>
+      </c>
+      <c r="I353">
+        <v>10</v>
+      </c>
+      <c r="J353">
+        <v>221127.33</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>11</v>
+      </c>
+      <c r="B354" t="s">
+        <v>702</v>
+      </c>
+      <c r="C354" t="s">
+        <v>147</v>
+      </c>
+      <c r="D354" t="s">
+        <v>14</v>
+      </c>
+      <c r="E354" t="s">
+        <v>148</v>
+      </c>
+      <c r="F354" t="s">
+        <v>14</v>
+      </c>
+      <c r="G354" t="s">
+        <v>14</v>
+      </c>
+      <c r="H354" t="s">
+        <v>703</v>
+      </c>
+      <c r="I354">
+        <v>16</v>
+      </c>
+      <c r="J354">
+        <v>2643.43</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>11</v>
+      </c>
+      <c r="B355" t="s">
+        <v>525</v>
+      </c>
+      <c r="C355" t="s">
+        <v>151</v>
+      </c>
+      <c r="D355" t="s">
+        <v>14</v>
+      </c>
+      <c r="E355" t="s">
+        <v>152</v>
+      </c>
+      <c r="F355" t="s">
+        <v>14</v>
+      </c>
+      <c r="G355" t="s">
+        <v>14</v>
+      </c>
+      <c r="H355" t="s">
+        <v>704</v>
+      </c>
+      <c r="I355">
+        <v>15</v>
+      </c>
+      <c r="J355">
+        <v>1851.23</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>11</v>
+      </c>
+      <c r="B356" t="s">
+        <v>154</v>
+      </c>
+      <c r="C356" t="s">
+        <v>155</v>
+      </c>
+      <c r="D356" t="s">
+        <v>14</v>
+      </c>
+      <c r="E356" t="s">
+        <v>156</v>
+      </c>
+      <c r="F356" t="s">
+        <v>14</v>
+      </c>
+      <c r="G356" t="s">
+        <v>14</v>
+      </c>
+      <c r="H356" t="s">
+        <v>705</v>
+      </c>
+      <c r="I356">
+        <v>12</v>
+      </c>
+      <c r="J356">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>11</v>
+      </c>
+      <c r="B357" t="s">
+        <v>158</v>
+      </c>
+      <c r="C357" t="s">
+        <v>159</v>
+      </c>
+      <c r="D357" t="s">
+        <v>14</v>
+      </c>
+      <c r="E357" t="s">
+        <v>160</v>
+      </c>
+      <c r="F357" t="s">
+        <v>14</v>
+      </c>
+      <c r="G357" t="s">
+        <v>14</v>
+      </c>
+      <c r="H357" t="s">
+        <v>706</v>
+      </c>
+      <c r="I357">
+        <v>4</v>
+      </c>
+      <c r="J357">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>11</v>
+      </c>
+      <c r="B358" t="s">
+        <v>162</v>
+      </c>
+      <c r="C358" t="s">
+        <v>163</v>
+      </c>
+      <c r="D358" t="s">
+        <v>14</v>
+      </c>
+      <c r="E358" t="s">
+        <v>164</v>
+      </c>
+      <c r="F358" t="s">
+        <v>14</v>
+      </c>
+      <c r="G358" t="s">
+        <v>14</v>
+      </c>
+      <c r="H358" t="s">
+        <v>707</v>
+      </c>
+      <c r="I358">
+        <v>7</v>
+      </c>
+      <c r="J358">
+        <v>1102.53</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>11</v>
+      </c>
+      <c r="B359" t="s">
+        <v>166</v>
+      </c>
+      <c r="C359" t="s">
+        <v>167</v>
+      </c>
+      <c r="D359" t="s">
+        <v>14</v>
+      </c>
+      <c r="E359" t="s">
+        <v>168</v>
+      </c>
+      <c r="F359" t="s">
+        <v>14</v>
+      </c>
+      <c r="G359" t="s">
+        <v>14</v>
+      </c>
+      <c r="H359" t="s">
+        <v>708</v>
+      </c>
+      <c r="I359">
+        <v>7</v>
+      </c>
+      <c r="J359">
+        <v>1525.43</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>11</v>
+      </c>
+      <c r="B360" t="s">
+        <v>709</v>
+      </c>
+      <c r="C360" t="s">
+        <v>171</v>
+      </c>
+      <c r="D360" t="s">
+        <v>14</v>
+      </c>
+      <c r="E360" t="s">
+        <v>172</v>
+      </c>
+      <c r="F360" t="s">
+        <v>14</v>
+      </c>
+      <c r="G360" t="s">
+        <v>14</v>
+      </c>
+      <c r="H360" t="s">
+        <v>710</v>
+      </c>
+      <c r="I360">
+        <v>15</v>
+      </c>
+      <c r="J360">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>11</v>
+      </c>
+      <c r="B361" t="s">
+        <v>174</v>
+      </c>
+      <c r="C361" t="s">
+        <v>175</v>
+      </c>
+      <c r="D361" t="s">
+        <v>14</v>
+      </c>
+      <c r="E361" t="s">
+        <v>176</v>
+      </c>
+      <c r="F361" t="s">
+        <v>14</v>
+      </c>
+      <c r="G361" t="s">
+        <v>14</v>
+      </c>
+      <c r="H361" t="s">
+        <v>711</v>
+      </c>
+      <c r="I361">
+        <v>9</v>
+      </c>
+      <c r="J361">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>11</v>
+      </c>
+      <c r="B362" t="s">
+        <v>178</v>
+      </c>
+      <c r="C362" t="s">
+        <v>179</v>
+      </c>
+      <c r="D362" t="s">
+        <v>14</v>
+      </c>
+      <c r="E362" t="s">
+        <v>180</v>
+      </c>
+      <c r="F362" t="s">
+        <v>14</v>
+      </c>
+      <c r="G362" t="s">
+        <v>14</v>
+      </c>
+      <c r="H362" t="s">
+        <v>712</v>
+      </c>
+      <c r="I362">
+        <v>12</v>
+      </c>
+      <c r="J362">
+        <v>1791.26</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>11</v>
+      </c>
+      <c r="B363" t="s">
+        <v>182</v>
+      </c>
+      <c r="C363" t="s">
+        <v>183</v>
+      </c>
+      <c r="D363" t="s">
+        <v>14</v>
+      </c>
+      <c r="E363" t="s">
+        <v>184</v>
+      </c>
+      <c r="F363" t="s">
+        <v>14</v>
+      </c>
+      <c r="G363" t="s">
+        <v>14</v>
+      </c>
+      <c r="H363" t="s">
+        <v>713</v>
+      </c>
+      <c r="I363">
+        <v>11</v>
+      </c>
+      <c r="J363">
+        <v>2946.49</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>11</v>
+      </c>
+      <c r="B364" t="s">
+        <v>186</v>
+      </c>
+      <c r="C364" t="s">
+        <v>187</v>
+      </c>
+      <c r="D364" t="s">
+        <v>14</v>
+      </c>
+      <c r="E364" t="s">
+        <v>188</v>
+      </c>
+      <c r="F364" t="s">
+        <v>14</v>
+      </c>
+      <c r="G364" t="s">
+        <v>14</v>
+      </c>
+      <c r="H364" t="s">
+        <v>714</v>
+      </c>
+      <c r="I364">
+        <v>16</v>
+      </c>
+      <c r="J364">
+        <v>1803.01</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>11</v>
+      </c>
+      <c r="B365" t="s">
+        <v>190</v>
+      </c>
+      <c r="C365" t="s">
+        <v>191</v>
+      </c>
+      <c r="D365" t="s">
+        <v>14</v>
+      </c>
+      <c r="E365" t="s">
+        <v>192</v>
+      </c>
+      <c r="F365" t="s">
+        <v>14</v>
+      </c>
+      <c r="G365" t="s">
+        <v>14</v>
+      </c>
+      <c r="H365" t="s">
+        <v>715</v>
+      </c>
+      <c r="I365">
+        <v>14</v>
+      </c>
+      <c r="J365">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>11</v>
+      </c>
+      <c r="B366" t="s">
+        <v>194</v>
+      </c>
+      <c r="C366" t="s">
+        <v>195</v>
+      </c>
+      <c r="D366" t="s">
+        <v>14</v>
+      </c>
+      <c r="E366" t="s">
+        <v>196</v>
+      </c>
+      <c r="F366" t="s">
+        <v>14</v>
+      </c>
+      <c r="G366" t="s">
+        <v>14</v>
+      </c>
+      <c r="H366" t="s">
+        <v>716</v>
+      </c>
+      <c r="I366">
+        <v>13</v>
+      </c>
+      <c r="J366">
+        <v>1694.87</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>11</v>
+      </c>
+      <c r="B367" t="s">
+        <v>198</v>
+      </c>
+      <c r="C367" t="s">
+        <v>199</v>
+      </c>
+      <c r="D367" t="s">
+        <v>14</v>
+      </c>
+      <c r="E367" t="s">
+        <v>200</v>
+      </c>
+      <c r="F367" t="s">
+        <v>14</v>
+      </c>
+      <c r="G367" t="s">
+        <v>14</v>
+      </c>
+      <c r="H367" t="s">
+        <v>717</v>
+      </c>
+      <c r="I367">
+        <v>6</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>11</v>
+      </c>
+      <c r="B368" t="s">
+        <v>202</v>
+      </c>
+      <c r="C368" t="s">
+        <v>203</v>
+      </c>
+      <c r="D368" t="s">
+        <v>14</v>
+      </c>
+      <c r="E368" t="s">
+        <v>204</v>
+      </c>
+      <c r="F368" t="s">
+        <v>14</v>
+      </c>
+      <c r="G368" t="s">
+        <v>14</v>
+      </c>
+      <c r="H368" t="s">
+        <v>718</v>
+      </c>
+      <c r="I368">
+        <v>11</v>
+      </c>
+      <c r="J368">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>11</v>
+      </c>
+      <c r="B369" t="s">
+        <v>206</v>
+      </c>
+      <c r="C369" t="s">
+        <v>207</v>
+      </c>
+      <c r="D369" t="s">
+        <v>14</v>
+      </c>
+      <c r="E369" t="s">
+        <v>208</v>
+      </c>
+      <c r="F369" t="s">
+        <v>14</v>
+      </c>
+      <c r="G369" t="s">
+        <v>14</v>
+      </c>
+      <c r="H369" t="s">
+        <v>719</v>
+      </c>
+      <c r="I369">
+        <v>9</v>
+      </c>
+      <c r="J369">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>11</v>
+      </c>
+      <c r="B370" t="s">
+        <v>210</v>
+      </c>
+      <c r="C370" t="s">
+        <v>211</v>
+      </c>
+      <c r="D370" t="s">
+        <v>14</v>
+      </c>
+      <c r="E370" t="s">
+        <v>212</v>
+      </c>
+      <c r="F370" t="s">
+        <v>14</v>
+      </c>
+      <c r="G370" t="s">
+        <v>14</v>
+      </c>
+      <c r="H370" t="s">
+        <v>720</v>
+      </c>
+      <c r="I370">
+        <v>11</v>
+      </c>
+      <c r="J370">
+        <v>1908.83</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>11</v>
+      </c>
+      <c r="B371" t="s">
+        <v>214</v>
+      </c>
+      <c r="C371" t="s">
+        <v>215</v>
+      </c>
+      <c r="D371" t="s">
+        <v>14</v>
+      </c>
+      <c r="E371" t="s">
+        <v>216</v>
+      </c>
+      <c r="F371" t="s">
+        <v>14</v>
+      </c>
+      <c r="G371" t="s">
+        <v>14</v>
+      </c>
+      <c r="H371" t="s">
+        <v>721</v>
+      </c>
+      <c r="I371">
+        <v>7</v>
+      </c>
+      <c r="J371">
+        <v>1226.28</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>11</v>
+      </c>
+      <c r="B372" t="s">
+        <v>222</v>
+      </c>
+      <c r="C372" t="s">
+        <v>223</v>
+      </c>
+      <c r="D372" t="s">
+        <v>14</v>
+      </c>
+      <c r="E372" t="s">
+        <v>224</v>
+      </c>
+      <c r="F372" t="s">
+        <v>14</v>
+      </c>
+      <c r="G372" t="s">
+        <v>14</v>
+      </c>
+      <c r="H372" t="s">
+        <v>722</v>
+      </c>
+      <c r="I372">
+        <v>7</v>
+      </c>
+      <c r="J372">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>11</v>
+      </c>
+      <c r="B373" t="s">
+        <v>226</v>
+      </c>
+      <c r="C373" t="s">
+        <v>227</v>
+      </c>
+      <c r="D373" t="s">
+        <v>14</v>
+      </c>
+      <c r="E373" t="s">
+        <v>228</v>
+      </c>
+      <c r="F373" t="s">
+        <v>14</v>
+      </c>
+      <c r="G373" t="s">
+        <v>14</v>
+      </c>
+      <c r="H373" t="s">
+        <v>723</v>
+      </c>
+      <c r="I373">
+        <v>12</v>
+      </c>
+      <c r="J373">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>11</v>
+      </c>
+      <c r="B374" t="s">
+        <v>230</v>
+      </c>
+      <c r="C374" t="s">
+        <v>231</v>
+      </c>
+      <c r="D374" t="s">
+        <v>14</v>
+      </c>
+      <c r="E374" t="s">
+        <v>232</v>
+      </c>
+      <c r="F374" t="s">
+        <v>14</v>
+      </c>
+      <c r="G374" t="s">
+        <v>14</v>
+      </c>
+      <c r="H374" t="s">
+        <v>549</v>
+      </c>
+      <c r="I374">
+        <v>9</v>
+      </c>
+      <c r="J374">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>11</v>
+      </c>
+      <c r="B375" t="s">
+        <v>234</v>
+      </c>
+      <c r="C375" t="s">
+        <v>235</v>
+      </c>
+      <c r="D375" t="s">
+        <v>14</v>
+      </c>
+      <c r="E375" t="s">
+        <v>236</v>
+      </c>
+      <c r="F375" t="s">
+        <v>14</v>
+      </c>
+      <c r="G375" t="s">
+        <v>14</v>
+      </c>
+      <c r="H375" t="s">
+        <v>724</v>
+      </c>
+      <c r="I375">
+        <v>10</v>
+      </c>
+      <c r="J375">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>11</v>
+      </c>
+      <c r="B376" t="s">
+        <v>53</v>
+      </c>
+      <c r="C376" t="s">
+        <v>239</v>
+      </c>
+      <c r="D376" t="s">
+        <v>14</v>
+      </c>
+      <c r="E376" t="s">
+        <v>240</v>
+      </c>
+      <c r="F376" t="s">
+        <v>14</v>
+      </c>
+      <c r="G376" t="s">
+        <v>14</v>
+      </c>
+      <c r="H376" t="s">
+        <v>725</v>
+      </c>
+      <c r="I376">
+        <v>8</v>
+      </c>
+      <c r="J376">
+        <v>1903.88</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>11</v>
+      </c>
+      <c r="B377" t="s">
+        <v>242</v>
+      </c>
+      <c r="C377" t="s">
+        <v>243</v>
+      </c>
+      <c r="D377" t="s">
+        <v>14</v>
+      </c>
+      <c r="E377" t="s">
+        <v>244</v>
+      </c>
+      <c r="F377" t="s">
+        <v>14</v>
+      </c>
+      <c r="G377" t="s">
+        <v>14</v>
+      </c>
+      <c r="H377" t="s">
+        <v>726</v>
+      </c>
+      <c r="I377">
+        <v>6</v>
+      </c>
+      <c r="J377">
+        <v>1839.51</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>11</v>
+      </c>
+      <c r="B378" t="s">
+        <v>246</v>
+      </c>
+      <c r="C378" t="s">
+        <v>247</v>
+      </c>
+      <c r="D378" t="s">
+        <v>14</v>
+      </c>
+      <c r="E378" t="s">
+        <v>248</v>
+      </c>
+      <c r="F378" t="s">
+        <v>14</v>
+      </c>
+      <c r="G378" t="s">
+        <v>14</v>
+      </c>
+      <c r="H378" t="s">
+        <v>727</v>
+      </c>
+      <c r="I378">
+        <v>14</v>
+      </c>
+      <c r="J378">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>11</v>
+      </c>
+      <c r="B379" t="s">
+        <v>250</v>
+      </c>
+      <c r="C379" t="s">
+        <v>251</v>
+      </c>
+      <c r="D379" t="s">
+        <v>14</v>
+      </c>
+      <c r="E379" t="s">
+        <v>252</v>
+      </c>
+      <c r="F379" t="s">
+        <v>14</v>
+      </c>
+      <c r="G379" t="s">
+        <v>14</v>
+      </c>
+      <c r="H379" t="s">
+        <v>728</v>
+      </c>
+      <c r="I379">
+        <v>8</v>
+      </c>
+      <c r="J379">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>11</v>
+      </c>
+      <c r="B380" t="s">
+        <v>254</v>
+      </c>
+      <c r="C380" t="s">
+        <v>255</v>
+      </c>
+      <c r="D380" t="s">
+        <v>14</v>
+      </c>
+      <c r="E380" t="s">
+        <v>256</v>
+      </c>
+      <c r="F380" t="s">
+        <v>14</v>
+      </c>
+      <c r="G380" t="s">
+        <v>14</v>
+      </c>
+      <c r="H380" t="s">
+        <v>729</v>
+      </c>
+      <c r="I380">
+        <v>9</v>
+      </c>
+      <c r="J380">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>11</v>
+      </c>
+      <c r="B381" t="s">
+        <v>258</v>
+      </c>
+      <c r="C381" t="s">
+        <v>259</v>
+      </c>
+      <c r="D381" t="s">
+        <v>14</v>
+      </c>
+      <c r="E381" t="s">
+        <v>260</v>
+      </c>
+      <c r="F381" t="s">
+        <v>14</v>
+      </c>
+      <c r="G381" t="s">
+        <v>14</v>
+      </c>
+      <c r="H381" t="s">
+        <v>730</v>
+      </c>
+      <c r="I381">
+        <v>6</v>
+      </c>
+      <c r="J381">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>11</v>
+      </c>
+      <c r="B382" t="s">
+        <v>262</v>
+      </c>
+      <c r="C382" t="s">
+        <v>263</v>
+      </c>
+      <c r="D382" t="s">
+        <v>14</v>
+      </c>
+      <c r="E382" t="s">
+        <v>264</v>
+      </c>
+      <c r="F382" t="s">
+        <v>14</v>
+      </c>
+      <c r="G382" t="s">
+        <v>14</v>
+      </c>
+      <c r="H382" t="s">
+        <v>731</v>
+      </c>
+      <c r="I382">
+        <v>11</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>11</v>
+      </c>
+      <c r="B383" t="s">
+        <v>624</v>
+      </c>
+      <c r="C383" t="s">
+        <v>267</v>
+      </c>
+      <c r="D383" t="s">
+        <v>14</v>
+      </c>
+      <c r="E383" t="s">
+        <v>268</v>
+      </c>
+      <c r="F383" t="s">
+        <v>14</v>
+      </c>
+      <c r="G383" t="s">
+        <v>14</v>
+      </c>
+      <c r="H383" t="s">
+        <v>493</v>
+      </c>
+      <c r="I383">
+        <v>13</v>
+      </c>
+      <c r="J383">
+        <v>1780.25</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>11</v>
+      </c>
+      <c r="B384" t="s">
+        <v>270</v>
+      </c>
+      <c r="C384" t="s">
+        <v>271</v>
+      </c>
+      <c r="D384" t="s">
+        <v>14</v>
+      </c>
+      <c r="E384" t="s">
+        <v>272</v>
+      </c>
+      <c r="F384" t="s">
+        <v>14</v>
+      </c>
+      <c r="G384" t="s">
+        <v>14</v>
+      </c>
+      <c r="H384" t="s">
+        <v>732</v>
+      </c>
+      <c r="I384">
+        <v>12</v>
+      </c>
+      <c r="J384">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>11</v>
+      </c>
+      <c r="B385" t="s">
+        <v>274</v>
+      </c>
+      <c r="C385" t="s">
+        <v>275</v>
+      </c>
+      <c r="D385" t="s">
+        <v>14</v>
+      </c>
+      <c r="E385" t="s">
+        <v>276</v>
+      </c>
+      <c r="F385" t="s">
+        <v>14</v>
+      </c>
+      <c r="G385" t="s">
+        <v>14</v>
+      </c>
+      <c r="H385" t="s">
+        <v>733</v>
+      </c>
+      <c r="I385">
+        <v>13</v>
+      </c>
+      <c r="J385">
+        <v>2052.63</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>11</v>
+      </c>
+      <c r="B386" t="s">
+        <v>734</v>
+      </c>
+      <c r="C386" t="s">
+        <v>279</v>
+      </c>
+      <c r="D386" t="s">
+        <v>14</v>
+      </c>
+      <c r="E386" t="s">
+        <v>280</v>
+      </c>
+      <c r="F386" t="s">
+        <v>14</v>
+      </c>
+      <c r="G386" t="s">
+        <v>14</v>
+      </c>
+      <c r="H386" t="s">
+        <v>735</v>
+      </c>
+      <c r="I386">
+        <v>10</v>
+      </c>
+      <c r="J386">
+        <v>715.19</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>11</v>
+      </c>
+      <c r="B387" t="s">
+        <v>282</v>
+      </c>
+      <c r="C387" t="s">
+        <v>283</v>
+      </c>
+      <c r="D387" t="s">
+        <v>14</v>
+      </c>
+      <c r="E387" t="s">
+        <v>284</v>
+      </c>
+      <c r="F387" t="s">
+        <v>14</v>
+      </c>
+      <c r="G387" t="s">
+        <v>14</v>
+      </c>
+      <c r="H387" t="s">
+        <v>736</v>
+      </c>
+      <c r="I387">
+        <v>13</v>
+      </c>
+      <c r="J387">
+        <v>2195.88</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>11</v>
+      </c>
+      <c r="B388" t="s">
+        <v>286</v>
+      </c>
+      <c r="C388" t="s">
+        <v>287</v>
+      </c>
+      <c r="D388" t="s">
+        <v>14</v>
+      </c>
+      <c r="E388" t="s">
+        <v>288</v>
+      </c>
+      <c r="F388" t="s">
+        <v>14</v>
+      </c>
+      <c r="G388" t="s">
+        <v>14</v>
+      </c>
+      <c r="H388" t="s">
+        <v>737</v>
+      </c>
+      <c r="I388">
+        <v>12</v>
+      </c>
+      <c r="J388">
+        <v>2193.9499999999998</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>11</v>
+      </c>
+      <c r="B389" t="s">
+        <v>290</v>
+      </c>
+      <c r="C389" t="s">
+        <v>291</v>
+      </c>
+      <c r="D389" t="s">
+        <v>14</v>
+      </c>
+      <c r="E389" t="s">
+        <v>292</v>
+      </c>
+      <c r="F389" t="s">
+        <v>14</v>
+      </c>
+      <c r="G389" t="s">
+        <v>14</v>
+      </c>
+      <c r="H389" t="s">
+        <v>738</v>
+      </c>
+      <c r="I389">
+        <v>4</v>
+      </c>
+      <c r="J389">
+        <v>817.01</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>11</v>
+      </c>
+      <c r="B390" t="s">
+        <v>294</v>
+      </c>
+      <c r="C390" t="s">
+        <v>295</v>
+      </c>
+      <c r="D390" t="s">
+        <v>14</v>
+      </c>
+      <c r="E390" t="s">
+        <v>296</v>
+      </c>
+      <c r="F390" t="s">
+        <v>14</v>
+      </c>
+      <c r="G390" t="s">
+        <v>14</v>
+      </c>
+      <c r="H390" t="s">
+        <v>739</v>
+      </c>
+      <c r="I390">
+        <v>12</v>
+      </c>
+      <c r="J390">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>11</v>
+      </c>
+      <c r="B391" t="s">
+        <v>298</v>
+      </c>
+      <c r="C391" t="s">
+        <v>299</v>
+      </c>
+      <c r="D391" t="s">
+        <v>14</v>
+      </c>
+      <c r="E391" t="s">
+        <v>300</v>
+      </c>
+      <c r="F391" t="s">
+        <v>14</v>
+      </c>
+      <c r="G391" t="s">
+        <v>14</v>
+      </c>
+      <c r="H391" t="s">
+        <v>740</v>
+      </c>
+      <c r="I391">
+        <v>9</v>
+      </c>
+      <c r="J391">
+        <v>1492.13</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>11</v>
+      </c>
+      <c r="B392" t="s">
+        <v>302</v>
+      </c>
+      <c r="C392" t="s">
+        <v>303</v>
+      </c>
+      <c r="D392" t="s">
+        <v>14</v>
+      </c>
+      <c r="E392" t="s">
+        <v>304</v>
+      </c>
+      <c r="F392" t="s">
+        <v>14</v>
+      </c>
+      <c r="G392" t="s">
+        <v>14</v>
+      </c>
+      <c r="H392" t="s">
+        <v>741</v>
+      </c>
+      <c r="I392">
+        <v>1</v>
+      </c>
+      <c r="J392">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>11</v>
+      </c>
+      <c r="B393" t="s">
+        <v>306</v>
+      </c>
+      <c r="C393" t="s">
+        <v>307</v>
+      </c>
+      <c r="D393" t="s">
+        <v>14</v>
+      </c>
+      <c r="E393" t="s">
+        <v>308</v>
+      </c>
+      <c r="F393" t="s">
+        <v>14</v>
+      </c>
+      <c r="G393" t="s">
+        <v>14</v>
+      </c>
+      <c r="H393" t="s">
+        <v>742</v>
+      </c>
+      <c r="I393">
+        <v>10</v>
+      </c>
+      <c r="J393">
+        <v>2618.0700000000002</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>11</v>
+      </c>
+      <c r="B394" t="s">
+        <v>314</v>
+      </c>
+      <c r="C394" t="s">
+        <v>315</v>
+      </c>
+      <c r="D394" t="s">
+        <v>14</v>
+      </c>
+      <c r="E394" t="s">
+        <v>316</v>
+      </c>
+      <c r="F394" t="s">
+        <v>14</v>
+      </c>
+      <c r="G394" t="s">
+        <v>14</v>
+      </c>
+      <c r="H394" t="s">
+        <v>743</v>
+      </c>
+      <c r="I394">
+        <v>13</v>
+      </c>
+      <c r="J394">
+        <v>1958.51</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>11</v>
+      </c>
+      <c r="B395" t="s">
+        <v>318</v>
+      </c>
+      <c r="C395" t="s">
+        <v>319</v>
+      </c>
+      <c r="D395" t="s">
+        <v>14</v>
+      </c>
+      <c r="E395" t="s">
+        <v>320</v>
+      </c>
+      <c r="F395" t="s">
+        <v>14</v>
+      </c>
+      <c r="G395" t="s">
+        <v>14</v>
+      </c>
+      <c r="H395" t="s">
+        <v>744</v>
+      </c>
+      <c r="I395">
+        <v>12</v>
+      </c>
+      <c r="J395">
+        <v>1924.37</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>11</v>
+      </c>
+      <c r="B396" t="s">
+        <v>322</v>
+      </c>
+      <c r="C396" t="s">
+        <v>323</v>
+      </c>
+      <c r="D396" t="s">
+        <v>14</v>
+      </c>
+      <c r="E396" t="s">
+        <v>324</v>
+      </c>
+      <c r="F396" t="s">
+        <v>14</v>
+      </c>
+      <c r="G396" t="s">
+        <v>14</v>
+      </c>
+      <c r="H396" t="s">
+        <v>745</v>
+      </c>
+      <c r="I396">
+        <v>24</v>
+      </c>
+      <c r="J396">
+        <v>2743.88</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>11</v>
+      </c>
+      <c r="B397" t="s">
+        <v>326</v>
+      </c>
+      <c r="C397" t="s">
+        <v>327</v>
+      </c>
+      <c r="D397" t="s">
+        <v>14</v>
+      </c>
+      <c r="E397" t="s">
+        <v>328</v>
+      </c>
+      <c r="F397" t="s">
+        <v>14</v>
+      </c>
+      <c r="G397" t="s">
+        <v>14</v>
+      </c>
+      <c r="H397" t="s">
+        <v>746</v>
+      </c>
+      <c r="I397">
+        <v>8</v>
+      </c>
+      <c r="J397">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>11</v>
+      </c>
+      <c r="B398" t="s">
+        <v>330</v>
+      </c>
+      <c r="C398" t="s">
+        <v>331</v>
+      </c>
+      <c r="D398" t="s">
+        <v>14</v>
+      </c>
+      <c r="E398" t="s">
+        <v>332</v>
+      </c>
+      <c r="F398" t="s">
+        <v>14</v>
+      </c>
+      <c r="G398" t="s">
+        <v>14</v>
+      </c>
+      <c r="H398" t="s">
+        <v>747</v>
+      </c>
+      <c r="I398">
+        <v>10</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>11</v>
+      </c>
+      <c r="B399" t="s">
+        <v>334</v>
+      </c>
+      <c r="C399" t="s">
+        <v>335</v>
+      </c>
+      <c r="D399" t="s">
+        <v>14</v>
+      </c>
+      <c r="E399" t="s">
+        <v>336</v>
+      </c>
+      <c r="F399" t="s">
+        <v>14</v>
+      </c>
+      <c r="G399" t="s">
+        <v>14</v>
+      </c>
+      <c r="H399" t="s">
+        <v>694</v>
+      </c>
+      <c r="I399">
+        <v>12</v>
+      </c>
+      <c r="J399">
+        <v>1772.64</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>11</v>
+      </c>
+      <c r="B400" t="s">
+        <v>338</v>
+      </c>
+      <c r="C400" t="s">
+        <v>339</v>
+      </c>
+      <c r="D400" t="s">
+        <v>14</v>
+      </c>
+      <c r="E400" t="s">
+        <v>340</v>
+      </c>
+      <c r="F400" t="s">
+        <v>14</v>
+      </c>
+      <c r="G400" t="s">
+        <v>14</v>
+      </c>
+      <c r="H400" t="s">
+        <v>350</v>
+      </c>
+      <c r="I400">
+        <v>10</v>
+      </c>
+      <c r="J400">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>11</v>
+      </c>
+      <c r="B401" t="s">
+        <v>342</v>
+      </c>
+      <c r="C401" t="s">
+        <v>343</v>
+      </c>
+      <c r="D401" t="s">
+        <v>14</v>
+      </c>
+      <c r="E401" t="s">
+        <v>344</v>
+      </c>
+      <c r="F401" t="s">
+        <v>14</v>
+      </c>
+      <c r="G401" t="s">
+        <v>14</v>
+      </c>
+      <c r="H401" t="s">
+        <v>748</v>
+      </c>
+      <c r="I401">
+        <v>9</v>
+      </c>
+      <c r="J401">
+        <v>1746.53</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>11</v>
+      </c>
+      <c r="B402" t="s">
+        <v>346</v>
+      </c>
+      <c r="C402" t="s">
+        <v>347</v>
+      </c>
+      <c r="D402" t="s">
+        <v>14</v>
+      </c>
+      <c r="E402" t="s">
+        <v>348</v>
+      </c>
+      <c r="F402" t="s">
+        <v>14</v>
+      </c>
+      <c r="G402" t="s">
+        <v>14</v>
+      </c>
+      <c r="H402" t="s">
+        <v>749</v>
+      </c>
+      <c r="I402">
+        <v>1</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>11</v>
+      </c>
+      <c r="B403" t="s">
+        <v>750</v>
+      </c>
+      <c r="C403" t="s">
+        <v>456</v>
+      </c>
+      <c r="D403" t="s">
+        <v>14</v>
+      </c>
+      <c r="E403" t="s">
+        <v>457</v>
+      </c>
+      <c r="F403" t="s">
+        <v>14</v>
+      </c>
+      <c r="G403" t="s">
+        <v>14</v>
+      </c>
+      <c r="H403" t="s">
+        <v>751</v>
+      </c>
+      <c r="I403">
+        <v>10</v>
+      </c>
+      <c r="J403">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>11</v>
+      </c>
+      <c r="B404" t="s">
+        <v>351</v>
+      </c>
+      <c r="C404" t="s">
+        <v>352</v>
+      </c>
+      <c r="D404" t="s">
+        <v>14</v>
+      </c>
+      <c r="E404" t="s">
+        <v>353</v>
+      </c>
+      <c r="F404" t="s">
+        <v>14</v>
+      </c>
+      <c r="G404" t="s">
+        <v>14</v>
+      </c>
+      <c r="H404" t="s">
+        <v>752</v>
+      </c>
+      <c r="I404">
+        <v>16</v>
+      </c>
+      <c r="J404">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>11</v>
+      </c>
+      <c r="B405" t="s">
+        <v>643</v>
+      </c>
+      <c r="C405" t="s">
+        <v>356</v>
+      </c>
+      <c r="D405" t="s">
+        <v>14</v>
+      </c>
+      <c r="E405" t="s">
+        <v>357</v>
+      </c>
+      <c r="F405" t="s">
+        <v>14</v>
+      </c>
+      <c r="G405" t="s">
+        <v>14</v>
+      </c>
+      <c r="H405" t="s">
+        <v>753</v>
+      </c>
+      <c r="I405">
+        <v>13</v>
+      </c>
+      <c r="J405">
+        <v>1791.32</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>11</v>
+      </c>
+      <c r="B406" t="s">
+        <v>359</v>
+      </c>
+      <c r="C406" t="s">
+        <v>360</v>
+      </c>
+      <c r="D406" t="s">
+        <v>14</v>
+      </c>
+      <c r="E406" t="s">
+        <v>361</v>
+      </c>
+      <c r="F406" t="s">
+        <v>14</v>
+      </c>
+      <c r="G406" t="s">
+        <v>14</v>
+      </c>
+      <c r="H406" t="s">
+        <v>754</v>
+      </c>
+      <c r="I406">
+        <v>8</v>
+      </c>
+      <c r="J406">
+        <v>2082.11</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>11</v>
+      </c>
+      <c r="B407" t="s">
+        <v>755</v>
+      </c>
+      <c r="C407" t="s">
+        <v>364</v>
+      </c>
+      <c r="D407" t="s">
+        <v>14</v>
+      </c>
+      <c r="E407" t="s">
+        <v>365</v>
+      </c>
+      <c r="F407" t="s">
+        <v>14</v>
+      </c>
+      <c r="G407" t="s">
+        <v>14</v>
+      </c>
+      <c r="H407" t="s">
+        <v>756</v>
+      </c>
+      <c r="I407">
+        <v>8</v>
+      </c>
+      <c r="J407">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>11</v>
+      </c>
+      <c r="B408" t="s">
+        <v>367</v>
+      </c>
+      <c r="C408" t="s">
+        <v>368</v>
+      </c>
+      <c r="D408" t="s">
+        <v>14</v>
+      </c>
+      <c r="E408" t="s">
+        <v>369</v>
+      </c>
+      <c r="F408" t="s">
+        <v>14</v>
+      </c>
+      <c r="G408" t="s">
+        <v>14</v>
+      </c>
+      <c r="H408" t="s">
+        <v>757</v>
+      </c>
+      <c r="I408">
+        <v>12</v>
+      </c>
+      <c r="J408">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>11</v>
+      </c>
+      <c r="B409" t="s">
+        <v>371</v>
+      </c>
+      <c r="C409" t="s">
+        <v>372</v>
+      </c>
+      <c r="D409" t="s">
+        <v>14</v>
+      </c>
+      <c r="E409" t="s">
+        <v>373</v>
+      </c>
+      <c r="F409" t="s">
+        <v>14</v>
+      </c>
+      <c r="G409" t="s">
+        <v>14</v>
+      </c>
+      <c r="H409" t="s">
+        <v>758</v>
+      </c>
+      <c r="I409">
+        <v>7</v>
+      </c>
+      <c r="J409">
+        <v>2784.44</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>11</v>
+      </c>
+      <c r="B410" t="s">
+        <v>375</v>
+      </c>
+      <c r="C410" t="s">
+        <v>376</v>
+      </c>
+      <c r="D410" t="s">
+        <v>14</v>
+      </c>
+      <c r="E410" t="s">
+        <v>377</v>
+      </c>
+      <c r="F410" t="s">
+        <v>14</v>
+      </c>
+      <c r="G410" t="s">
+        <v>14</v>
+      </c>
+      <c r="H410" t="s">
+        <v>759</v>
+      </c>
+      <c r="I410">
+        <v>11</v>
+      </c>
+      <c r="J410">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>11</v>
+      </c>
+      <c r="B411" t="s">
+        <v>379</v>
+      </c>
+      <c r="C411" t="s">
+        <v>380</v>
+      </c>
+      <c r="D411" t="s">
+        <v>14</v>
+      </c>
+      <c r="E411" t="s">
+        <v>381</v>
+      </c>
+      <c r="F411" t="s">
+        <v>14</v>
+      </c>
+      <c r="G411" t="s">
+        <v>14</v>
+      </c>
+      <c r="H411" t="s">
+        <v>760</v>
+      </c>
+      <c r="I411">
+        <v>1</v>
+      </c>
+      <c r="J411">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>11</v>
+      </c>
+      <c r="B412" t="s">
+        <v>383</v>
+      </c>
+      <c r="C412" t="s">
+        <v>384</v>
+      </c>
+      <c r="D412" t="s">
+        <v>14</v>
+      </c>
+      <c r="E412" t="s">
+        <v>385</v>
+      </c>
+      <c r="F412" t="s">
+        <v>14</v>
+      </c>
+      <c r="G412" t="s">
+        <v>14</v>
+      </c>
+      <c r="H412" t="s">
+        <v>761</v>
+      </c>
+      <c r="I412">
+        <v>12</v>
+      </c>
+      <c r="J412">
+        <v>2491.44</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>11</v>
+      </c>
+      <c r="B413" t="s">
+        <v>387</v>
+      </c>
+      <c r="C413" t="s">
+        <v>388</v>
+      </c>
+      <c r="D413" t="s">
+        <v>14</v>
+      </c>
+      <c r="E413" t="s">
+        <v>389</v>
+      </c>
+      <c r="F413" t="s">
+        <v>14</v>
+      </c>
+      <c r="G413" t="s">
+        <v>14</v>
+      </c>
+      <c r="H413" t="s">
+        <v>762</v>
+      </c>
+      <c r="I413">
+        <v>9</v>
+      </c>
+      <c r="J413">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>11</v>
+      </c>
+      <c r="B414" t="s">
+        <v>391</v>
+      </c>
+      <c r="C414" t="s">
+        <v>392</v>
+      </c>
+      <c r="D414" t="s">
+        <v>14</v>
+      </c>
+      <c r="E414" t="s">
+        <v>393</v>
+      </c>
+      <c r="F414" t="s">
+        <v>14</v>
+      </c>
+      <c r="G414" t="s">
+        <v>14</v>
+      </c>
+      <c r="H414" t="s">
+        <v>763</v>
+      </c>
+      <c r="I414">
+        <v>13</v>
+      </c>
+      <c r="J414">
+        <v>2038.01</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>11</v>
+      </c>
+      <c r="B415" t="s">
+        <v>395</v>
+      </c>
+      <c r="C415" t="s">
+        <v>396</v>
+      </c>
+      <c r="D415" t="s">
+        <v>14</v>
+      </c>
+      <c r="E415" t="s">
+        <v>397</v>
+      </c>
+      <c r="F415" t="s">
+        <v>14</v>
+      </c>
+      <c r="G415" t="s">
+        <v>14</v>
+      </c>
+      <c r="H415" t="s">
+        <v>764</v>
+      </c>
+      <c r="I415">
+        <v>12</v>
+      </c>
+      <c r="J415">
+        <v>1777.75</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>11</v>
+      </c>
+      <c r="B416" t="s">
+        <v>399</v>
+      </c>
+      <c r="C416" t="s">
+        <v>400</v>
+      </c>
+      <c r="D416" t="s">
+        <v>14</v>
+      </c>
+      <c r="E416" t="s">
+        <v>401</v>
+      </c>
+      <c r="F416" t="s">
+        <v>14</v>
+      </c>
+      <c r="G416" t="s">
+        <v>14</v>
+      </c>
+      <c r="H416" t="s">
+        <v>765</v>
+      </c>
+      <c r="I416">
+        <v>12</v>
+      </c>
+      <c r="J416">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>11</v>
+      </c>
+      <c r="B417" t="s">
+        <v>406</v>
+      </c>
+      <c r="C417" t="s">
+        <v>407</v>
+      </c>
+      <c r="D417" t="s">
+        <v>14</v>
+      </c>
+      <c r="E417" t="s">
+        <v>408</v>
+      </c>
+      <c r="F417" t="s">
+        <v>14</v>
+      </c>
+      <c r="G417" t="s">
+        <v>14</v>
+      </c>
+      <c r="H417" t="s">
+        <v>766</v>
+      </c>
+      <c r="I417">
+        <v>7</v>
+      </c>
+      <c r="J417">
+        <v>848.37</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>11</v>
+      </c>
+      <c r="B418" t="s">
+        <v>410</v>
+      </c>
+      <c r="C418" t="s">
+        <v>411</v>
+      </c>
+      <c r="D418" t="s">
+        <v>14</v>
+      </c>
+      <c r="E418" t="s">
+        <v>412</v>
+      </c>
+      <c r="F418" t="s">
+        <v>14</v>
+      </c>
+      <c r="G418" t="s">
+        <v>14</v>
+      </c>
+      <c r="H418" t="s">
+        <v>767</v>
+      </c>
+      <c r="I418">
+        <v>6</v>
+      </c>
+      <c r="J418">
+        <v>704.19</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>11</v>
+      </c>
+      <c r="B419" t="s">
+        <v>414</v>
+      </c>
+      <c r="C419" t="s">
+        <v>415</v>
+      </c>
+      <c r="D419" t="s">
+        <v>14</v>
+      </c>
+      <c r="E419" t="s">
+        <v>416</v>
+      </c>
+      <c r="F419" t="s">
+        <v>14</v>
+      </c>
+      <c r="G419" t="s">
+        <v>14</v>
+      </c>
+      <c r="H419" t="s">
+        <v>768</v>
+      </c>
+      <c r="I419">
+        <v>4</v>
+      </c>
+      <c r="J419">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>11</v>
+      </c>
+      <c r="B420" t="s">
+        <v>769</v>
+      </c>
+      <c r="C420" t="s">
+        <v>419</v>
+      </c>
+      <c r="D420" t="s">
+        <v>14</v>
+      </c>
+      <c r="E420" t="s">
+        <v>420</v>
+      </c>
+      <c r="F420" t="s">
+        <v>14</v>
+      </c>
+      <c r="G420" t="s">
+        <v>14</v>
+      </c>
+      <c r="H420" t="s">
+        <v>770</v>
+      </c>
+      <c r="I420">
+        <v>10</v>
+      </c>
+      <c r="J420">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>11</v>
+      </c>
+      <c r="B421" t="s">
+        <v>422</v>
+      </c>
+      <c r="C421" t="s">
+        <v>423</v>
+      </c>
+      <c r="D421" t="s">
+        <v>14</v>
+      </c>
+      <c r="E421" t="s">
+        <v>424</v>
+      </c>
+      <c r="F421" t="s">
+        <v>14</v>
+      </c>
+      <c r="G421" t="s">
+        <v>14</v>
+      </c>
+      <c r="H421" t="s">
+        <v>771</v>
+      </c>
+      <c r="I421">
+        <v>9</v>
+      </c>
+      <c r="J421">
+        <v>2673.29</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>11</v>
+      </c>
+      <c r="B422" t="s">
+        <v>426</v>
+      </c>
+      <c r="C422" t="s">
+        <v>427</v>
+      </c>
+      <c r="D422" t="s">
+        <v>14</v>
+      </c>
+      <c r="E422" t="s">
+        <v>428</v>
+      </c>
+      <c r="F422" t="s">
+        <v>14</v>
+      </c>
+      <c r="G422" t="s">
+        <v>14</v>
+      </c>
+      <c r="H422" t="s">
+        <v>772</v>
+      </c>
+      <c r="I422">
+        <v>15</v>
+      </c>
+      <c r="J422">
+        <v>1325.22</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>11</v>
+      </c>
+      <c r="B423" t="s">
+        <v>430</v>
+      </c>
+      <c r="C423" t="s">
+        <v>431</v>
+      </c>
+      <c r="D423" t="s">
+        <v>14</v>
+      </c>
+      <c r="E423" t="s">
+        <v>432</v>
+      </c>
+      <c r="F423" t="s">
+        <v>14</v>
+      </c>
+      <c r="G423" t="s">
+        <v>14</v>
+      </c>
+      <c r="H423" t="s">
+        <v>773</v>
+      </c>
+      <c r="I423">
+        <v>7</v>
+      </c>
+      <c r="J423">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>11</v>
+      </c>
+      <c r="B424" t="s">
+        <v>434</v>
+      </c>
+      <c r="C424" t="s">
+        <v>435</v>
+      </c>
+      <c r="D424" t="s">
+        <v>14</v>
+      </c>
+      <c r="E424" t="s">
+        <v>436</v>
+      </c>
+      <c r="F424" t="s">
+        <v>14</v>
+      </c>
+      <c r="G424" t="s">
+        <v>14</v>
+      </c>
+      <c r="H424" t="s">
+        <v>774</v>
+      </c>
+      <c r="I424">
+        <v>12</v>
+      </c>
+      <c r="J424">
+        <v>2475.81</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>11</v>
+      </c>
+      <c r="B425" t="s">
+        <v>438</v>
+      </c>
+      <c r="C425" t="s">
+        <v>439</v>
+      </c>
+      <c r="D425" t="s">
+        <v>14</v>
+      </c>
+      <c r="E425" t="s">
+        <v>440</v>
+      </c>
+      <c r="F425" t="s">
+        <v>14</v>
+      </c>
+      <c r="G425" t="s">
+        <v>14</v>
+      </c>
+      <c r="H425" t="s">
+        <v>775</v>
+      </c>
+      <c r="I425">
+        <v>9</v>
+      </c>
+      <c r="J425">
+        <v>2171.3200000000002</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>11</v>
+      </c>
+      <c r="B426" t="s">
+        <v>442</v>
+      </c>
+      <c r="C426" t="s">
+        <v>443</v>
+      </c>
+      <c r="D426" t="s">
+        <v>14</v>
+      </c>
+      <c r="E426" t="s">
+        <v>444</v>
+      </c>
+      <c r="F426" t="s">
+        <v>14</v>
+      </c>
+      <c r="G426" t="s">
+        <v>14</v>
+      </c>
+      <c r="H426" t="s">
+        <v>776</v>
+      </c>
+      <c r="I426">
+        <v>9</v>
+      </c>
+      <c r="J426">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>11</v>
+      </c>
+      <c r="B427" t="s">
+        <v>446</v>
+      </c>
+      <c r="C427" t="s">
+        <v>447</v>
+      </c>
+      <c r="D427" t="s">
+        <v>14</v>
+      </c>
+      <c r="E427" t="s">
+        <v>448</v>
+      </c>
+      <c r="F427" t="s">
+        <v>14</v>
+      </c>
+      <c r="G427" t="s">
+        <v>14</v>
+      </c>
+      <c r="H427" t="s">
+        <v>777</v>
+      </c>
+      <c r="I427">
+        <v>9</v>
+      </c>
+      <c r="J427">
+        <v>2380.5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>11</v>
+      </c>
+      <c r="B428" t="s">
+        <v>666</v>
+      </c>
+      <c r="C428" t="s">
+        <v>451</v>
+      </c>
+      <c r="D428" t="s">
+        <v>14</v>
+      </c>
+      <c r="E428" t="s">
+        <v>452</v>
+      </c>
+      <c r="F428" t="s">
+        <v>14</v>
+      </c>
+      <c r="G428" t="s">
+        <v>14</v>
+      </c>
+      <c r="H428" t="s">
+        <v>551</v>
+      </c>
+      <c r="I428">
+        <v>9</v>
+      </c>
+      <c r="J428">
+        <v>1718.79</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="C113:C218">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C219:C321">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C322:C428">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
